--- a/BackTest/2019-10-22 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-22 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.200000000000003</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>9.090909090909207</v>
+      </c>
       <c r="L12" t="n">
         <v>33.33</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-7.692307692307525</v>
+      </c>
       <c r="L13" t="n">
         <v>33.31</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-21.73913043478263</v>
+      </c>
       <c r="L14" t="n">
         <v>33.31</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.999999999999993</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-18.18181818181815</v>
+      </c>
       <c r="L15" t="n">
         <v>33.23999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.099999999999994</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>33.20999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.199999999999989</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>29.41176470588255</v>
+      </c>
       <c r="L17" t="n">
         <v>33.22</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.299999999999983</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>17.64705882352985</v>
+      </c>
       <c r="L18" t="n">
         <v>33.26</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.299999999999983</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-27.27272727272751</v>
+      </c>
       <c r="L19" t="n">
         <v>33.29</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.299999999999983</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-27.27272727272751</v>
+      </c>
       <c r="L20" t="n">
         <v>33.26</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.499999999999986</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-38.46153846153897</v>
+      </c>
       <c r="L21" t="n">
         <v>33.20999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.699999999999989</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-27.27272727272798</v>
+      </c>
       <c r="L22" t="n">
         <v>33.14</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.899999999999991</v>
       </c>
       <c r="K23" t="n">
-        <v>-7.692307692307636</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L23" t="n">
         <v>33.13</v>
@@ -1466,7 +1488,7 @@
         <v>3.999999999999993</v>
       </c>
       <c r="K24" t="n">
-        <v>-9.999999999999982</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L24" t="n">
         <v>33.08999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K25" t="n">
-        <v>-27.77777777777782</v>
+        <v>-40.00000000000057</v>
       </c>
       <c r="L25" t="n">
         <v>33.05999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>-21.21212121212131</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L26" t="n">
         <v>33.02</v>
@@ -1613,7 +1635,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K27" t="n">
-        <v>-13.33333333333352</v>
+        <v>-50</v>
       </c>
       <c r="L27" t="n">
         <v>32.96999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.703703703703508</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L28" t="n">
         <v>32.91999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>4.29999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-11.11111111111105</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L29" t="n">
         <v>32.86</v>
@@ -1760,7 +1782,7 @@
         <v>4.499999999999993</v>
       </c>
       <c r="K30" t="n">
-        <v>-47.826086956522</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L30" t="n">
         <v>32.77999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>4.599999999999994</v>
       </c>
       <c r="K31" t="n">
-        <v>-50.0000000000003</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L31" t="n">
         <v>32.70999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K32" t="n">
-        <v>-24.13793103448293</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L32" t="n">
         <v>32.70999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>32.7</v>
@@ -1962,7 +1984,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.692307692307525</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L34" t="n">
         <v>32.72</v>
@@ -2013,7 +2035,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L35" t="n">
         <v>32.75</v>
@@ -2064,7 +2086,7 @@
         <v>5.5</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L36" t="n">
         <v>32.79</v>
@@ -2115,7 +2137,7 @@
         <v>5.5</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.347826086956253</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L37" t="n">
         <v>32.83</v>
@@ -2166,7 +2188,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>-8.333333333333384</v>
+        <v>28.57142857142821</v>
       </c>
       <c r="L38" t="n">
         <v>32.86</v>
@@ -2217,7 +2239,7 @@
         <v>5.900000000000006</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>57.14285714285693</v>
       </c>
       <c r="L39" t="n">
         <v>32.91999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>6.100000000000009</v>
       </c>
       <c r="K40" t="n">
-        <v>-7.142857142857179</v>
+        <v>46.66666666666642</v>
       </c>
       <c r="L40" t="n">
         <v>32.98</v>
@@ -2319,7 +2341,7 @@
         <v>6.100000000000009</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>33.05</v>
@@ -2370,7 +2392,7 @@
         <v>6.100000000000009</v>
       </c>
       <c r="K42" t="n">
-        <v>8.333333333333384</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L42" t="n">
         <v>33.06999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>6.20000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.347826086956549</v>
+        <v>-25</v>
       </c>
       <c r="L43" t="n">
         <v>33.06999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K44" t="n">
-        <v>4.347826086956549</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L44" t="n">
         <v>33.05999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K45" t="n">
-        <v>9.09090909090915</v>
+        <v>-25</v>
       </c>
       <c r="L45" t="n">
         <v>33.04999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K46" t="n">
-        <v>9.09090909090915</v>
+        <v>-25</v>
       </c>
       <c r="L46" t="n">
         <v>33.02999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K47" t="n">
-        <v>13.04347826086964</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>33.02</v>
@@ -2676,7 +2698,7 @@
         <v>6.70000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>27.99999999999959</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L48" t="n">
         <v>33.05999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>7.100000000000009</v>
       </c>
       <c r="K49" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>33.03999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K50" t="n">
-        <v>33.33333333333318</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L50" t="n">
         <v>33.07999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>7.600000000000009</v>
       </c>
       <c r="K51" t="n">
-        <v>39.99999999999991</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>33.12999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>8.100000000000009</v>
       </c>
       <c r="K52" t="n">
-        <v>6.66666666666673</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L52" t="n">
         <v>33.12999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>8.300000000000011</v>
       </c>
       <c r="K53" t="n">
-        <v>9.677419354838799</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L53" t="n">
         <v>33.15999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>8.600000000000009</v>
       </c>
       <c r="K54" t="n">
-        <v>12.49999999999992</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L54" t="n">
         <v>33.20999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>8.70000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>9.090909090908973</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L55" t="n">
         <v>33.24999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L56" t="n">
         <v>33.26999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L57" t="n">
         <v>33.27999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K58" t="n">
-        <v>6.250000000000083</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L58" t="n">
         <v>33.25999999999998</v>
@@ -3237,7 +3259,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L59" t="n">
         <v>33.27999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K60" t="n">
-        <v>7.142857142857252</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L60" t="n">
         <v>33.25999999999998</v>
@@ -3339,7 +3361,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K61" t="n">
-        <v>7.142857142857252</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L61" t="n">
         <v>33.22999999999998</v>
@@ -3390,7 +3412,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K62" t="n">
-        <v>7.142857142857252</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>33.24999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K63" t="n">
-        <v>11.11111111111129</v>
+        <v>-100</v>
       </c>
       <c r="L63" t="n">
         <v>33.24999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K64" t="n">
-        <v>7.692307692307819</v>
+        <v>-100</v>
       </c>
       <c r="L64" t="n">
         <v>33.21999999999998</v>
@@ -3543,7 +3565,7 @@
         <v>9.000000000000007</v>
       </c>
       <c r="K65" t="n">
-        <v>3.703703703703762</v>
+        <v>-100</v>
       </c>
       <c r="L65" t="n">
         <v>33.18999999999998</v>
@@ -3594,7 +3616,7 @@
         <v>9.100000000000009</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L66" t="n">
         <v>33.16999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>9.20000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-7.142857142857252</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>33.13999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>9.500000000000014</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.14285714285698</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>33.13999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>9.500000000000014</v>
       </c>
       <c r="K69" t="n">
-        <v>8.333333333333432</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>33.13999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.761904761904826</v>
+        <v>14.28571428571342</v>
       </c>
       <c r="L70" t="n">
         <v>33.14999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>9.700000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>-14.28571428571419</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>33.14999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>9.700000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>12.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>33.14999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>9.700000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>-27.27272727272715</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L74" t="n">
         <v>33.14999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>9.800000000000004</v>
       </c>
       <c r="K75" t="n">
-        <v>-27.27272727272715</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L75" t="n">
         <v>33.14999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>9.800000000000004</v>
       </c>
       <c r="K76" t="n">
-        <v>-11.11111111111129</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L76" t="n">
         <v>33.15999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>10.1</v>
       </c>
       <c r="K77" t="n">
-        <v>16.66666666666637</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>33.20999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>10.2</v>
       </c>
       <c r="K78" t="n">
-        <v>7.692307692307272</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L78" t="n">
         <v>33.21999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>10.3</v>
       </c>
       <c r="K79" t="n">
-        <v>14.285714285714</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L79" t="n">
         <v>33.23999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>24.99999999999989</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L80" t="n">
         <v>33.27</v>
@@ -4359,7 +4381,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>24.99999999999989</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L81" t="n">
         <v>33.31</v>
@@ -4410,7 +4432,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>11.11111111111085</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L82" t="n">
         <v>33.33</v>
@@ -4461,7 +4483,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>15.78947368421033</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L83" t="n">
         <v>33.36</v>
@@ -4512,7 +4534,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>15.78947368421033</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L84" t="n">
         <v>33.39</v>
@@ -4563,7 +4585,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>15.78947368421033</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L85" t="n">
         <v>33.41999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>29.99999999999996</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>33.46999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>11.20000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>29.99999999999996</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>33.48</v>
@@ -4716,7 +4738,7 @@
         <v>11.30000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>33.48999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>5.263157894736527</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>33.48</v>
@@ -4818,7 +4840,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-5.263157894736527</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L90" t="n">
         <v>33.43999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L91" t="n">
         <v>33.39999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>5.263157894736527</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L92" t="n">
         <v>33.38999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>11.8</v>
       </c>
       <c r="K93" t="n">
-        <v>-4.761904761904826</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L93" t="n">
         <v>33.34999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>12.2</v>
       </c>
       <c r="K94" t="n">
-        <v>11.99999999999989</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L94" t="n">
         <v>33.34999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>12.5</v>
       </c>
       <c r="K95" t="n">
-        <v>3.703703703703762</v>
+        <v>-28.57142857142879</v>
       </c>
       <c r="L95" t="n">
         <v>33.33</v>
@@ -5124,7 +5146,7 @@
         <v>12.7</v>
       </c>
       <c r="K96" t="n">
-        <v>10.34482758620683</v>
+        <v>-6.666666666666857</v>
       </c>
       <c r="L96" t="n">
         <v>33.30999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>12.8</v>
       </c>
       <c r="K97" t="n">
-        <v>3.703703703703762</v>
+        <v>6.666666666666857</v>
       </c>
       <c r="L97" t="n">
         <v>33.30999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>12.8</v>
       </c>
       <c r="K98" t="n">
-        <v>7.692307692307819</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L98" t="n">
         <v>33.31999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>12.8</v>
       </c>
       <c r="K99" t="n">
-        <v>4.000000000000068</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L99" t="n">
         <v>33.33999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>12.8</v>
       </c>
       <c r="K100" t="n">
-        <v>-4.347826086956602</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L100" t="n">
         <v>33.36999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>12.8</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.347826086956602</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L101" t="n">
         <v>33.39999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>13</v>
       </c>
       <c r="K102" t="n">
-        <v>13.04347826086981</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L102" t="n">
         <v>33.43999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>13.4</v>
       </c>
       <c r="K103" t="n">
-        <v>23.07692307692324</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L103" t="n">
         <v>33.53999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>13.4</v>
       </c>
       <c r="K104" t="n">
-        <v>23.07692307692324</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>33.59999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>13.4</v>
       </c>
       <c r="K105" t="n">
-        <v>28.00000000000027</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
         <v>33.69</v>
@@ -5634,7 +5656,7 @@
         <v>13.5</v>
       </c>
       <c r="K106" t="n">
-        <v>25.00000000000022</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
         <v>33.77</v>
@@ -5685,7 +5707,7 @@
         <v>13.5</v>
       </c>
       <c r="K107" t="n">
-        <v>30.434782608696</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
         <v>33.84</v>
@@ -5736,7 +5758,7 @@
         <v>14.1</v>
       </c>
       <c r="K108" t="n">
-        <v>7.142857142857288</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L108" t="n">
         <v>33.85</v>
@@ -5787,7 +5809,7 @@
         <v>14.4</v>
       </c>
       <c r="K109" t="n">
-        <v>20.00000000000019</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L109" t="n">
         <v>33.89</v>
@@ -5838,7 +5860,7 @@
         <v>14.4</v>
       </c>
       <c r="K110" t="n">
-        <v>24.13793103448274</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L110" t="n">
         <v>33.92999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>14.5</v>
       </c>
       <c r="K111" t="n">
-        <v>19.9999999999999</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L111" t="n">
         <v>33.95999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>14.6</v>
       </c>
       <c r="K112" t="n">
-        <v>20.0000000000001</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L112" t="n">
         <v>33.98</v>
@@ -5991,7 +6013,7 @@
         <v>14.6</v>
       </c>
       <c r="K113" t="n">
-        <v>28.5714285714285</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L113" t="n">
         <v>33.95999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>14.6</v>
       </c>
       <c r="K114" t="n">
-        <v>16.66666666666662</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L114" t="n">
         <v>33.93999999999998</v>
@@ -6093,7 +6115,7 @@
         <v>14.7</v>
       </c>
       <c r="K115" t="n">
-        <v>36.36363636363619</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L115" t="n">
         <v>33.92999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>14.7</v>
       </c>
       <c r="K116" t="n">
-        <v>29.99999999999996</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L116" t="n">
         <v>33.90999999999998</v>
@@ -6195,7 +6217,7 @@
         <v>14.8</v>
       </c>
       <c r="K117" t="n">
-        <v>19.99999999999986</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L117" t="n">
         <v>33.87999999999998</v>
@@ -6246,7 +6268,7 @@
         <v>15.2</v>
       </c>
       <c r="K118" t="n">
-        <v>33.33333333333314</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L118" t="n">
         <v>33.94999999999998</v>
@@ -6297,7 +6319,7 @@
         <v>15.6</v>
       </c>
       <c r="K119" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>33.94999999999998</v>
@@ -6348,7 +6370,7 @@
         <v>16</v>
       </c>
       <c r="K120" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>33.98999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>16.2</v>
       </c>
       <c r="K121" t="n">
-        <v>17.64705882352946</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L121" t="n">
         <v>34.01999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>22.22222222222218</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="L122" t="n">
         <v>34.07999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L123" t="n">
         <v>34.09999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L124" t="n">
         <v>34.12</v>
@@ -6603,7 +6625,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>7.692307692307636</v>
+        <v>15.3846153846154</v>
       </c>
       <c r="L125" t="n">
         <v>34.16</v>
@@ -6654,7 +6676,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>5.263157894736744</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L126" t="n">
         <v>34.2</v>
@@ -6705,7 +6727,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>5.263157894736744</v>
+        <v>4.761904761904859</v>
       </c>
       <c r="L127" t="n">
         <v>34.24999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571434</v>
+        <v>10.00000000000021</v>
       </c>
       <c r="L128" t="n">
         <v>34.23</v>
@@ -6807,7 +6829,7 @@
         <v>17.59999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>6.250000000000111</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L129" t="n">
         <v>34.25</v>
@@ -6858,7 +6880,7 @@
         <v>17.79999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L130" t="n">
         <v>34.20999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>17.79999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>3.030303030303082</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L131" t="n">
         <v>34.18999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>17.89999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-3.030303030303082</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L132" t="n">
         <v>34.11999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>17.89999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-3.030303030303082</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L133" t="n">
         <v>34.08999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>17.99999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-5.882352941176372</v>
+        <v>-100</v>
       </c>
       <c r="L134" t="n">
         <v>34.04999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>18.19999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>-2.857142857142915</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L135" t="n">
         <v>33.99999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>18.39999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>-8.108108108108087</v>
+        <v>-63.63636363636399</v>
       </c>
       <c r="L136" t="n">
         <v>33.92999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>18.49999999999997</v>
       </c>
       <c r="K137" t="n">
-        <v>-2.702702702702765</v>
+        <v>-33.33333333333439</v>
       </c>
       <c r="L137" t="n">
         <v>33.86999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>18.49999999999997</v>
       </c>
       <c r="K138" t="n">
-        <v>-15.1515151515153</v>
+        <v>-33.33333333333439</v>
       </c>
       <c r="L138" t="n">
         <v>33.83999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.677419354838724</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L139" t="n">
         <v>33.78999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>18.69999999999997</v>
       </c>
       <c r="K140" t="n">
-        <v>-25.92592592592608</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L140" t="n">
         <v>33.76</v>
@@ -7419,7 +7441,7 @@
         <v>18.79999999999997</v>
       </c>
       <c r="K141" t="n">
-        <v>-23.07692307692337</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L141" t="n">
         <v>33.72</v>
@@ -7470,7 +7492,7 @@
         <v>18.79999999999997</v>
       </c>
       <c r="K142" t="n">
-        <v>-45.45454545454598</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L142" t="n">
         <v>33.69</v>
@@ -7521,7 +7543,7 @@
         <v>19.09999999999997</v>
       </c>
       <c r="K143" t="n">
-        <v>-42.85714285714334</v>
+        <v>-45.45454545454628</v>
       </c>
       <c r="L143" t="n">
         <v>33.63</v>
@@ -7572,7 +7594,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K144" t="n">
-        <v>-15.38461538461549</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L144" t="n">
         <v>33.63</v>
@@ -7623,7 +7645,7 @@
         <v>19.79999999999997</v>
       </c>
       <c r="K145" t="n">
-        <v>-36.00000000000025</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L145" t="n">
         <v>33.59</v>
@@ -7674,7 +7696,7 @@
         <v>19.79999999999997</v>
       </c>
       <c r="K146" t="n">
-        <v>-36.00000000000025</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L146" t="n">
         <v>33.57</v>
@@ -7725,7 +7747,7 @@
         <v>19.89999999999997</v>
       </c>
       <c r="K147" t="n">
-        <v>-30.76923076923089</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L147" t="n">
         <v>33.55</v>
@@ -7776,7 +7798,7 @@
         <v>19.99999999999997</v>
       </c>
       <c r="K148" t="n">
-        <v>-16.66666666666671</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L148" t="n">
         <v>33.54</v>
@@ -7827,7 +7849,7 @@
         <v>19.99999999999997</v>
       </c>
       <c r="K149" t="n">
-        <v>-16.66666666666671</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L149" t="n">
         <v>33.55</v>
@@ -7878,7 +7900,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L150" t="n">
         <v>33.57999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L151" t="n">
         <v>33.61999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>20.29999999999997</v>
       </c>
       <c r="K152" t="n">
-        <v>8.333333333333531</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L152" t="n">
         <v>33.66999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K153" t="n">
-        <v>4.000000000000091</v>
+        <v>24.99999999999933</v>
       </c>
       <c r="L153" t="n">
         <v>33.73999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K154" t="n">
-        <v>8.33333333333321</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L154" t="n">
         <v>33.75999999999998</v>
@@ -8133,7 +8155,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L155" t="n">
         <v>33.79999999999998</v>
@@ -8184,7 +8206,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K156" t="n">
-        <v>9.999999999999822</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L156" t="n">
         <v>33.83999999999998</v>
@@ -8235,7 +8257,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K157" t="n">
-        <v>5.263157894736921</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L157" t="n">
         <v>33.86999999999998</v>
@@ -8286,7 +8308,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K158" t="n">
-        <v>5.263157894736921</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L158" t="n">
         <v>33.88999999999997</v>
@@ -8337,7 +8359,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K159" t="n">
-        <v>17.64705882352921</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>33.90999999999998</v>
@@ -8388,7 +8410,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>17.64705882352921</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>33.90999999999998</v>
@@ -8439,7 +8461,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>24.99999999999989</v>
+        <v>-100</v>
       </c>
       <c r="L161" t="n">
         <v>33.90999999999998</v>
@@ -8489,9 +8511,7 @@
       <c r="J162" t="n">
         <v>20.39999999999997</v>
       </c>
-      <c r="K162" t="n">
-        <v>24.99999999999989</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>33.89999999999997</v>
       </c>
@@ -8540,9 +8560,7 @@
       <c r="J163" t="n">
         <v>20.39999999999997</v>
       </c>
-      <c r="K163" t="n">
-        <v>53.84615384615334</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>33.89999999999997</v>
       </c>
@@ -8591,9 +8609,7 @@
       <c r="J164" t="n">
         <v>20.39999999999997</v>
       </c>
-      <c r="K164" t="n">
-        <v>24.99999999999933</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>33.89999999999997</v>
       </c>
@@ -8642,9 +8658,7 @@
       <c r="J165" t="n">
         <v>20.39999999999997</v>
       </c>
-      <c r="K165" t="n">
-        <v>66.66666666666627</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>33.89999999999997</v>
       </c>
@@ -8693,9 +8707,7 @@
       <c r="J166" t="n">
         <v>20.39999999999997</v>
       </c>
-      <c r="K166" t="n">
-        <v>66.66666666666627</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>33.89999999999997</v>
       </c>
@@ -8745,7 +8757,7 @@
         <v>20.59999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>14.28571428571458</v>
+        <v>-100</v>
       </c>
       <c r="L167" t="n">
         <v>33.87999999999997</v>
@@ -8796,7 +8808,7 @@
         <v>20.69999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>-14.28571428571458</v>
+        <v>-100</v>
       </c>
       <c r="L168" t="n">
         <v>33.84999999999998</v>
@@ -8847,7 +8859,7 @@
         <v>20.69999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>-14.28571428571458</v>
+        <v>-100</v>
       </c>
       <c r="L169" t="n">
         <v>33.81999999999998</v>
@@ -8898,7 +8910,7 @@
         <v>20.79999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>-66.66666666666627</v>
+        <v>-100</v>
       </c>
       <c r="L170" t="n">
         <v>33.77999999999999</v>
@@ -8949,7 +8961,7 @@
         <v>20.79999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>-66.66666666666627</v>
+        <v>-100</v>
       </c>
       <c r="L171" t="n">
         <v>33.73999999999999</v>
@@ -9000,7 +9012,7 @@
         <v>21.09999999999997</v>
       </c>
       <c r="K172" t="n">
-        <v>-25.00000000000044</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L172" t="n">
         <v>33.72999999999999</v>
@@ -9204,7 +9216,7 @@
         <v>21.39999999999996</v>
       </c>
       <c r="K176" t="n">
-        <v>-40.00000000000014</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L176" t="n">
         <v>33.6</v>
@@ -9255,7 +9267,7 @@
         <v>21.39999999999996</v>
       </c>
       <c r="K177" t="n">
-        <v>-40.00000000000014</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L177" t="n">
         <v>33.58</v>
@@ -9306,7 +9318,7 @@
         <v>21.49999999999996</v>
       </c>
       <c r="K178" t="n">
-        <v>-27.27272727272715</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>33.58</v>
@@ -9357,7 +9369,7 @@
         <v>21.49999999999996</v>
       </c>
       <c r="K179" t="n">
-        <v>-27.27272727272715</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L179" t="n">
         <v>33.58</v>
@@ -9408,7 +9420,7 @@
         <v>21.49999999999996</v>
       </c>
       <c r="K180" t="n">
-        <v>-27.27272727272715</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L180" t="n">
         <v>33.59</v>
@@ -9459,7 +9471,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K181" t="n">
-        <v>-16.66666666666637</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L181" t="n">
         <v>33.61</v>
@@ -9510,7 +9522,7 @@
         <v>21.79999999999997</v>
       </c>
       <c r="K182" t="n">
-        <v>-28.5714285714285</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L182" t="n">
         <v>33.58</v>
@@ -9561,7 +9573,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K183" t="n">
-        <v>-5.882352941176569</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L183" t="n">
         <v>33.58</v>
@@ -9612,7 +9624,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K184" t="n">
-        <v>-5.882352941176569</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L184" t="n">
         <v>33.61</v>
@@ -9663,7 +9675,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K185" t="n">
-        <v>-5.882352941176569</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L185" t="n">
         <v>33.64</v>
@@ -9714,7 +9726,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K186" t="n">
-        <v>-5.882352941176569</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L186" t="n">
         <v>33.67</v>
@@ -9765,7 +9777,7 @@
         <v>22.19999999999996</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L187" t="n">
         <v>33.69</v>
@@ -9820,7 +9832,7 @@
         <v>22.19999999999996</v>
       </c>
       <c r="K188" t="n">
-        <v>6.666666666666793</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L188" t="n">
         <v>33.7</v>
@@ -9934,7 +9946,7 @@
         <v>22.49999999999996</v>
       </c>
       <c r="K190" t="n">
-        <v>17.64705882352936</v>
+        <v>11.11111111111058</v>
       </c>
       <c r="L190" t="n">
         <v>33.72</v>
@@ -9991,7 +10003,7 @@
         <v>22.59999999999996</v>
       </c>
       <c r="K191" t="n">
-        <v>22.22222222222226</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L191" t="n">
         <v>33.73999999999999</v>
@@ -10052,7 +10064,7 @@
         <v>22.89999999999996</v>
       </c>
       <c r="K192" t="n">
-        <v>-11.11111111111093</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L192" t="n">
         <v>33.75</v>
@@ -10109,7 +10121,7 @@
         <v>23.29999999999995</v>
       </c>
       <c r="K193" t="n">
-        <v>9.090909090909268</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L193" t="n">
         <v>33.77</v>
@@ -10168,7 +10180,7 @@
         <v>23.39999999999996</v>
       </c>
       <c r="K194" t="n">
-        <v>20</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L194" t="n">
         <v>33.77999999999999</v>
@@ -10229,7 +10241,7 @@
         <v>23.39999999999996</v>
       </c>
       <c r="K195" t="n">
-        <v>20</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L195" t="n">
         <v>33.78999999999999</v>
@@ -10292,7 +10304,7 @@
         <v>23.49999999999996</v>
       </c>
       <c r="K196" t="n">
-        <v>23.80952380952387</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L196" t="n">
         <v>33.80999999999999</v>
@@ -10353,7 +10365,7 @@
         <v>23.49999999999996</v>
       </c>
       <c r="K197" t="n">
-        <v>23.80952380952387</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L197" t="n">
         <v>33.83999999999999</v>
@@ -10414,7 +10426,7 @@
         <v>23.69999999999996</v>
       </c>
       <c r="K198" t="n">
-        <v>27.27272727272739</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L198" t="n">
         <v>33.88999999999999</v>
@@ -10475,7 +10487,7 @@
         <v>23.79999999999996</v>
       </c>
       <c r="K199" t="n">
-        <v>21.73913043478263</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L199" t="n">
         <v>33.93999999999999</v>
@@ -10538,7 +10550,7 @@
         <v>23.89999999999996</v>
       </c>
       <c r="K200" t="n">
-        <v>25.00000000000007</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L200" t="n">
         <v>33.97999999999999</v>
@@ -10599,7 +10611,7 @@
         <v>23.99999999999996</v>
       </c>
       <c r="K201" t="n">
-        <v>24.99999999999985</v>
+        <v>63.63636363636317</v>
       </c>
       <c r="L201" t="n">
         <v>34.02</v>
@@ -10660,7 +10672,7 @@
         <v>24.19999999999996</v>
       </c>
       <c r="K202" t="n">
-        <v>41.66666666666681</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L202" t="n">
         <v>34.10999999999999</v>
@@ -10721,7 +10733,7 @@
         <v>24.29999999999996</v>
       </c>
       <c r="K203" t="n">
-        <v>36.36363636363662</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L203" t="n">
         <v>34.16999999999999</v>
@@ -10778,7 +10790,7 @@
         <v>24.89999999999996</v>
       </c>
       <c r="K204" t="n">
-        <v>50.00000000000026</v>
+        <v>86.66666666666654</v>
       </c>
       <c r="L204" t="n">
         <v>34.3</v>
@@ -10835,7 +10847,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K205" t="n">
-        <v>51.72413793103463</v>
+        <v>86.66666666666649</v>
       </c>
       <c r="L205" t="n">
         <v>34.44</v>
@@ -10886,7 +10898,7 @@
         <v>25.09999999999995</v>
       </c>
       <c r="K206" t="n">
-        <v>46.66666666666708</v>
+        <v>75.00000000000044</v>
       </c>
       <c r="L206" t="n">
         <v>34.56</v>
@@ -10937,7 +10949,7 @@
         <v>25.09999999999995</v>
       </c>
       <c r="K207" t="n">
-        <v>51.72413793103463</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L207" t="n">
         <v>34.67999999999999</v>
@@ -10988,7 +11000,7 @@
         <v>25.39999999999995</v>
       </c>
       <c r="K208" t="n">
-        <v>56.25000000000011</v>
+        <v>87.50000000000061</v>
       </c>
       <c r="L208" t="n">
         <v>34.81</v>
@@ -11039,7 +11051,7 @@
         <v>25.69999999999995</v>
       </c>
       <c r="K209" t="n">
-        <v>64.70588235294134</v>
+        <v>88.88888888888941</v>
       </c>
       <c r="L209" t="n">
         <v>34.98</v>
@@ -11090,7 +11102,7 @@
         <v>25.89999999999995</v>
       </c>
       <c r="K210" t="n">
-        <v>64.70588235294143</v>
+        <v>89.47368421052687</v>
       </c>
       <c r="L210" t="n">
         <v>35.16</v>
@@ -11141,7 +11153,7 @@
         <v>26.39999999999995</v>
       </c>
       <c r="K211" t="n">
-        <v>42.10526315789488</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L211" t="n">
         <v>35.27999999999999</v>
@@ -11192,7 +11204,7 @@
         <v>26.69999999999995</v>
       </c>
       <c r="K212" t="n">
-        <v>42.10526315789488</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L212" t="n">
         <v>35.34999999999999</v>
@@ -11243,7 +11255,7 @@
         <v>27.09999999999994</v>
       </c>
       <c r="K213" t="n">
-        <v>42.10526315789488</v>
+        <v>18.18181818181827</v>
       </c>
       <c r="L213" t="n">
         <v>35.45</v>
@@ -11294,7 +11306,7 @@
         <v>27.09999999999994</v>
       </c>
       <c r="K214" t="n">
-        <v>45.94594594594616</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L214" t="n">
         <v>35.48999999999999</v>
@@ -11345,7 +11357,7 @@
         <v>27.19999999999995</v>
       </c>
       <c r="K215" t="n">
-        <v>42.10526315789488</v>
+        <v>14.28571428571419</v>
       </c>
       <c r="L215" t="n">
         <v>35.51</v>
@@ -11396,7 +11408,7 @@
         <v>27.19999999999995</v>
       </c>
       <c r="K216" t="n">
-        <v>40.54054054054067</v>
+        <v>14.28571428571419</v>
       </c>
       <c r="L216" t="n">
         <v>35.54</v>
@@ -11447,7 +11459,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K217" t="n">
-        <v>36.84210526315795</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L217" t="n">
         <v>35.56</v>
@@ -11498,7 +11510,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K218" t="n">
-        <v>33.33333333333333</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L218" t="n">
         <v>35.55</v>
@@ -11549,7 +11561,7 @@
         <v>27.49999999999995</v>
       </c>
       <c r="K219" t="n">
-        <v>40.54054054054067</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L219" t="n">
         <v>35.52999999999999</v>
@@ -11600,7 +11612,7 @@
         <v>27.59999999999995</v>
       </c>
       <c r="K220" t="n">
-        <v>40.54054054054067</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L220" t="n">
         <v>35.49999999999999</v>
@@ -11651,7 +11663,7 @@
         <v>27.89999999999995</v>
       </c>
       <c r="K221" t="n">
-        <v>43.58974358974375</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L221" t="n">
         <v>35.55</v>
@@ -11702,7 +11714,7 @@
         <v>27.99999999999995</v>
       </c>
       <c r="K222" t="n">
-        <v>36.84210526315795</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L222" t="n">
         <v>35.61999999999999</v>
@@ -11753,7 +11765,7 @@
         <v>28.29999999999995</v>
       </c>
       <c r="K223" t="n">
-        <v>40.00000000000011</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L223" t="n">
         <v>35.67999999999999</v>
@@ -11804,7 +11816,7 @@
         <v>28.69999999999995</v>
       </c>
       <c r="K224" t="n">
-        <v>36.84210526315795</v>
+        <v>73.33333333333309</v>
       </c>
       <c r="L224" t="n">
         <v>35.77999999999999</v>
@@ -11855,7 +11867,7 @@
         <v>28.79999999999995</v>
       </c>
       <c r="K225" t="n">
-        <v>36.84210526315807</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L225" t="n">
         <v>35.89999999999999</v>
@@ -11906,7 +11918,7 @@
         <v>28.99999999999996</v>
       </c>
       <c r="K226" t="n">
-        <v>33.33333333333321</v>
+        <v>64.70588235294088</v>
       </c>
       <c r="L226" t="n">
         <v>35.99999999999999</v>
@@ -11957,7 +11969,7 @@
         <v>29.29999999999995</v>
       </c>
       <c r="K227" t="n">
-        <v>23.8095238095238</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L227" t="n">
         <v>36.07999999999999</v>
@@ -12008,7 +12020,7 @@
         <v>29.39999999999995</v>
       </c>
       <c r="K228" t="n">
-        <v>19.99999999999993</v>
+        <v>36.8421052631577</v>
       </c>
       <c r="L228" t="n">
         <v>36.16999999999999</v>
@@ -12059,7 +12071,7 @@
         <v>29.79999999999995</v>
       </c>
       <c r="K229" t="n">
-        <v>21.95121951219521</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L229" t="n">
         <v>36.27999999999999</v>
@@ -12110,7 +12122,7 @@
         <v>29.79999999999995</v>
       </c>
       <c r="K230" t="n">
-        <v>17.948717948718</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L230" t="n">
         <v>36.37999999999999</v>
@@ -12161,7 +12173,7 @@
         <v>29.89999999999995</v>
       </c>
       <c r="K231" t="n">
-        <v>37.14285714285706</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L231" t="n">
         <v>36.45999999999999</v>
@@ -12212,7 +12224,7 @@
         <v>30.19999999999995</v>
       </c>
       <c r="K232" t="n">
-        <v>37.14285714285706</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L232" t="n">
         <v>36.52</v>
@@ -12263,7 +12275,7 @@
         <v>30.89999999999995</v>
       </c>
       <c r="K233" t="n">
-        <v>42.10526315789473</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L233" t="n">
         <v>36.61999999999999</v>
@@ -12314,7 +12326,7 @@
         <v>30.89999999999995</v>
       </c>
       <c r="K234" t="n">
-        <v>42.10526315789473</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L234" t="n">
         <v>36.67999999999999</v>
@@ -12365,7 +12377,7 @@
         <v>31.09999999999994</v>
       </c>
       <c r="K235" t="n">
-        <v>48.7179487179487</v>
+        <v>42.85714285714305</v>
       </c>
       <c r="L235" t="n">
         <v>36.74999999999999</v>
@@ -12416,7 +12428,7 @@
         <v>31.29999999999995</v>
       </c>
       <c r="K236" t="n">
-        <v>51.21951219512196</v>
+        <v>70.00000000000017</v>
       </c>
       <c r="L236" t="n">
         <v>36.85999999999999</v>
@@ -12467,7 +12479,7 @@
         <v>31.59999999999994</v>
       </c>
       <c r="K237" t="n">
-        <v>58.13953488372097</v>
+        <v>72.72727272727293</v>
       </c>
       <c r="L237" t="n">
         <v>37.02999999999999</v>
@@ -12518,7 +12530,7 @@
         <v>31.79999999999994</v>
       </c>
       <c r="K238" t="n">
-        <v>51.11111111111128</v>
+        <v>50.00000000000036</v>
       </c>
       <c r="L238" t="n">
         <v>37.16999999999999</v>
@@ -12569,7 +12581,7 @@
         <v>32.89999999999993</v>
       </c>
       <c r="K239" t="n">
-        <v>59.25925925925936</v>
+        <v>67.74193548387122</v>
       </c>
       <c r="L239" t="n">
         <v>37.37999999999999</v>
@@ -12620,7 +12632,7 @@
         <v>32.89999999999993</v>
       </c>
       <c r="K240" t="n">
-        <v>58.49056603773592</v>
+        <v>66.66666666666698</v>
       </c>
       <c r="L240" t="n">
         <v>37.58999999999999</v>
@@ -12671,7 +12683,7 @@
         <v>32.99999999999993</v>
       </c>
       <c r="K241" t="n">
-        <v>52.9411764705885</v>
+        <v>78.57142857142915</v>
       </c>
       <c r="L241" t="n">
         <v>37.77999999999999</v>
@@ -12722,7 +12734,7 @@
         <v>33.79999999999993</v>
       </c>
       <c r="K242" t="n">
-        <v>34.48275862068976</v>
+        <v>24.13793103448274</v>
       </c>
       <c r="L242" t="n">
         <v>37.91999999999999</v>
@@ -12773,7 +12785,7 @@
         <v>33.89999999999993</v>
       </c>
       <c r="K243" t="n">
-        <v>32.14285714285721</v>
+        <v>26.6666666666667</v>
       </c>
       <c r="L243" t="n">
         <v>37.99999999999999</v>
@@ -12824,7 +12836,7 @@
         <v>34.09999999999994</v>
       </c>
       <c r="K244" t="n">
-        <v>22.22222222222221</v>
+        <v>13.33333333333332</v>
       </c>
       <c r="L244" t="n">
         <v>38.05999999999999</v>
@@ -12875,7 +12887,7 @@
         <v>34.09999999999994</v>
       </c>
       <c r="K245" t="n">
-        <v>20.75471698113203</v>
+        <v>7.142857142857016</v>
       </c>
       <c r="L245" t="n">
         <v>38.09999999999999</v>
@@ -12926,7 +12938,7 @@
         <v>34.09999999999994</v>
       </c>
       <c r="K246" t="n">
-        <v>25.49019607843142</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L246" t="n">
         <v>38.11999999999999</v>
@@ -12977,7 +12989,7 @@
         <v>34.89999999999994</v>
       </c>
       <c r="K247" t="n">
-        <v>42.85714285714293</v>
+        <v>29.03225806451607</v>
       </c>
       <c r="L247" t="n">
         <v>38.19</v>
@@ -13028,7 +13040,7 @@
         <v>35.09999999999994</v>
       </c>
       <c r="K248" t="n">
-        <v>36.84210526315795</v>
+        <v>-18.18181818181803</v>
       </c>
       <c r="L248" t="n">
         <v>38.26</v>
@@ -13079,7 +13091,7 @@
         <v>35.29999999999995</v>
       </c>
       <c r="K249" t="n">
-        <v>34.54545454545456</v>
+        <v>-8.33333333333311</v>
       </c>
       <c r="L249" t="n">
         <v>38.23999999999999</v>
@@ -13130,7 +13142,7 @@
         <v>35.99999999999995</v>
       </c>
       <c r="K250" t="n">
-        <v>19.35483870967736</v>
+        <v>-26.66666666666662</v>
       </c>
       <c r="L250" t="n">
         <v>38.14999999999999</v>
@@ -13181,7 +13193,7 @@
         <v>36.09999999999995</v>
       </c>
       <c r="K251" t="n">
-        <v>19.35483870967746</v>
+        <v>4.347826086956549</v>
       </c>
       <c r="L251" t="n">
         <v>38.08</v>
@@ -13232,7 +13244,7 @@
         <v>36.39999999999995</v>
       </c>
       <c r="K252" t="n">
-        <v>19.35483870967746</v>
+        <v>-11.99999999999982</v>
       </c>
       <c r="L252" t="n">
         <v>38.06</v>
@@ -13283,7 +13295,7 @@
         <v>36.49999999999994</v>
       </c>
       <c r="K253" t="n">
-        <v>10.71428571428562</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>38.04</v>
@@ -13334,7 +13346,7 @@
         <v>37.19999999999995</v>
       </c>
       <c r="K254" t="n">
-        <v>20.6349206349206</v>
+        <v>22.58064516129035</v>
       </c>
       <c r="L254" t="n">
         <v>38.11</v>
@@ -13385,7 +13397,7 @@
         <v>37.39999999999995</v>
       </c>
       <c r="K255" t="n">
-        <v>14.28571428571425</v>
+        <v>15.1515151515151</v>
       </c>
       <c r="L255" t="n">
         <v>38.16</v>
@@ -13436,7 +13448,7 @@
         <v>37.49999999999995</v>
       </c>
       <c r="K256" t="n">
-        <v>12.90322580645156</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L256" t="n">
         <v>38.21999999999999</v>
@@ -13487,7 +13499,7 @@
         <v>38.19999999999995</v>
       </c>
       <c r="K257" t="n">
-        <v>-3.030303030302965</v>
+        <v>-22.58064516129017</v>
       </c>
       <c r="L257" t="n">
         <v>38.12999999999999</v>
@@ -13538,7 +13550,7 @@
         <v>38.59999999999994</v>
       </c>
       <c r="K258" t="n">
-        <v>5.882352941176446</v>
+        <v>-15.15151515151517</v>
       </c>
       <c r="L258" t="n">
         <v>38.09999999999999</v>
@@ -13589,7 +13601,7 @@
         <v>38.59999999999994</v>
       </c>
       <c r="K259" t="n">
-        <v>-12.28070175438587</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L259" t="n">
         <v>38.05</v>
@@ -13640,7 +13652,7 @@
         <v>38.59999999999994</v>
       </c>
       <c r="K260" t="n">
-        <v>-12.28070175438587</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L260" t="n">
         <v>38.07</v>
@@ -13691,7 +13703,7 @@
         <v>38.89999999999995</v>
       </c>
       <c r="K261" t="n">
-        <v>-15.25423728813564</v>
+        <v>3.999999999999773</v>
       </c>
       <c r="L261" t="n">
         <v>38.05</v>
@@ -13742,7 +13754,7 @@
         <v>38.99999999999995</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L262" t="n">
         <v>38.07</v>
@@ -13793,7 +13805,7 @@
         <v>39.19999999999995</v>
       </c>
       <c r="K263" t="n">
-        <v>1.886792452830209</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L263" t="n">
         <v>38.1</v>
@@ -13844,7 +13856,7 @@
         <v>39.39999999999996</v>
       </c>
       <c r="K264" t="n">
-        <v>1.886792452830209</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L264" t="n">
         <v>38.04</v>
@@ -13895,7 +13907,7 @@
         <v>39.39999999999996</v>
       </c>
       <c r="K265" t="n">
-        <v>1.886792452830209</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L265" t="n">
         <v>37.99999999999999</v>
@@ -13946,7 +13958,7 @@
         <v>39.59999999999995</v>
       </c>
       <c r="K266" t="n">
-        <v>-1.81818181818171</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>37.92999999999999</v>
@@ -13997,7 +14009,7 @@
         <v>39.79999999999995</v>
       </c>
       <c r="K267" t="n">
-        <v>-14.28571428571433</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L267" t="n">
         <v>37.95</v>
@@ -14048,7 +14060,7 @@
         <v>40.49999999999994</v>
       </c>
       <c r="K268" t="n">
-        <v>-22.22222222222215</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L268" t="n">
         <v>37.85999999999999</v>
@@ -14099,7 +14111,7 @@
         <v>40.99999999999994</v>
       </c>
       <c r="K269" t="n">
-        <v>-15.78947368421052</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L269" t="n">
         <v>37.81999999999999</v>
@@ -14150,7 +14162,7 @@
         <v>41.29999999999994</v>
       </c>
       <c r="K270" t="n">
-        <v>1.886792452830219</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L270" t="n">
         <v>37.80999999999999</v>
@@ -14201,7 +14213,7 @@
         <v>41.29999999999994</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>4.347826086956602</v>
       </c>
       <c r="L271" t="n">
         <v>37.82999999999998</v>
@@ -14252,7 +14264,7 @@
         <v>41.29999999999994</v>
       </c>
       <c r="K272" t="n">
-        <v>6.122448979591789</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L272" t="n">
         <v>37.83999999999999</v>
@@ -14303,7 +14315,7 @@
         <v>41.59999999999994</v>
       </c>
       <c r="K273" t="n">
-        <v>-1.960784313725381</v>
+        <v>-9.090909090908973</v>
       </c>
       <c r="L273" t="n">
         <v>37.79999999999998</v>
@@ -14354,7 +14366,7 @@
         <v>41.79999999999994</v>
       </c>
       <c r="K274" t="n">
-        <v>-21.73913043478263</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L274" t="n">
         <v>37.75999999999998</v>
@@ -14405,7 +14417,7 @@
         <v>41.99999999999994</v>
       </c>
       <c r="K275" t="n">
-        <v>-21.73913043478263</v>
+        <v>-16.66666666666696</v>
       </c>
       <c r="L275" t="n">
         <v>37.69999999999999</v>
@@ -14456,7 +14468,7 @@
         <v>42.59999999999994</v>
       </c>
       <c r="K276" t="n">
-        <v>-9.803921568627462</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>37.71999999999998</v>
@@ -14507,7 +14519,7 @@
         <v>42.69999999999995</v>
       </c>
       <c r="K277" t="n">
-        <v>2.222222222222096</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L277" t="n">
         <v>37.70999999999999</v>
@@ -14558,7 +14570,7 @@
         <v>42.79999999999995</v>
       </c>
       <c r="K278" t="n">
-        <v>-4.761904761904826</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L278" t="n">
         <v>37.77999999999999</v>
@@ -14609,7 +14621,7 @@
         <v>42.79999999999995</v>
       </c>
       <c r="K279" t="n">
-        <v>-4.761904761904826</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L279" t="n">
         <v>37.79999999999999</v>
@@ -14660,7 +14672,7 @@
         <v>42.79999999999995</v>
       </c>
       <c r="K280" t="n">
-        <v>-4.761904761904826</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L280" t="n">
         <v>37.78999999999998</v>
@@ -14711,7 +14723,7 @@
         <v>42.89999999999995</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L281" t="n">
         <v>37.76999999999999</v>
@@ -14762,7 +14774,7 @@
         <v>42.99999999999995</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L282" t="n">
         <v>37.75999999999998</v>
@@ -14813,7 +14825,7 @@
         <v>43.09999999999995</v>
       </c>
       <c r="K283" t="n">
-        <v>-2.564102564102602</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L283" t="n">
         <v>37.78999999999998</v>
@@ -14864,7 +14876,7 @@
         <v>43.19999999999995</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L284" t="n">
         <v>37.82999999999998</v>
@@ -14966,7 +14978,7 @@
         <v>43.29999999999995</v>
       </c>
       <c r="K286" t="n">
-        <v>8.108108108108025</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>37.89999999999998</v>
@@ -15017,7 +15029,7 @@
         <v>43.29999999999995</v>
       </c>
       <c r="K287" t="n">
-        <v>2.857142857142892</v>
+        <v>20</v>
       </c>
       <c r="L287" t="n">
         <v>37.91999999999998</v>
@@ -15068,7 +15080,7 @@
         <v>43.29999999999995</v>
       </c>
       <c r="K288" t="n">
-        <v>28.57142857142835</v>
+        <v>20</v>
       </c>
       <c r="L288" t="n">
         <v>37.92999999999999</v>
@@ -15119,7 +15131,7 @@
         <v>43.49999999999996</v>
       </c>
       <c r="K289" t="n">
-        <v>19.99999999999989</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L289" t="n">
         <v>37.95999999999999</v>
@@ -15170,7 +15182,7 @@
         <v>43.59999999999996</v>
       </c>
       <c r="K290" t="n">
-        <v>4.347826086956549</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L290" t="n">
         <v>37.97999999999999</v>
@@ -15221,7 +15233,7 @@
         <v>43.69999999999996</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L291" t="n">
         <v>37.99999999999999</v>
@@ -15272,7 +15284,7 @@
         <v>43.79999999999996</v>
       </c>
       <c r="K292" t="n">
-        <v>4.000000000000023</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>38.02</v>
@@ -15323,7 +15335,7 @@
         <v>43.79999999999996</v>
       </c>
       <c r="K293" t="n">
-        <v>18.18181818181792</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>38.02999999999999</v>
@@ -15374,7 +15386,7 @@
         <v>43.79999999999996</v>
       </c>
       <c r="K294" t="n">
-        <v>29.99999999999975</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L294" t="n">
         <v>38.05</v>
@@ -15425,7 +15437,7 @@
         <v>43.79999999999996</v>
       </c>
       <c r="K295" t="n">
-        <v>44.44444444444422</v>
+        <v>20</v>
       </c>
       <c r="L295" t="n">
         <v>38.07000000000001</v>
@@ -15476,7 +15488,7 @@
         <v>44.09999999999996</v>
       </c>
       <c r="K296" t="n">
-        <v>33.33333333333302</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L296" t="n">
         <v>38.11</v>
@@ -15527,7 +15539,7 @@
         <v>44.59999999999996</v>
       </c>
       <c r="K297" t="n">
-        <v>5.263157894736882</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L297" t="n">
         <v>38.1</v>
@@ -15578,7 +15590,7 @@
         <v>45.09999999999996</v>
       </c>
       <c r="K298" t="n">
-        <v>21.7391304347825</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L298" t="n">
         <v>38.14</v>
@@ -15629,7 +15641,7 @@
         <v>45.09999999999996</v>
       </c>
       <c r="K299" t="n">
-        <v>21.7391304347825</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L299" t="n">
         <v>38.16</v>
@@ -15680,7 +15692,7 @@
         <v>45.59999999999996</v>
       </c>
       <c r="K300" t="n">
-        <v>35.71428571428557</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L300" t="n">
         <v>38.23999999999999</v>
@@ -15731,7 +15743,7 @@
         <v>45.79999999999996</v>
       </c>
       <c r="K301" t="n">
-        <v>44.82758620689651</v>
+        <v>50</v>
       </c>
       <c r="L301" t="n">
         <v>38.34999999999999</v>
@@ -15782,7 +15794,7 @@
         <v>45.99999999999996</v>
       </c>
       <c r="K302" t="n">
-        <v>46.66666666666651</v>
+        <v>54.54545454545445</v>
       </c>
       <c r="L302" t="n">
         <v>38.46999999999999</v>
@@ -15833,7 +15845,7 @@
         <v>46.39999999999996</v>
       </c>
       <c r="K303" t="n">
-        <v>51.51515151515142</v>
+        <v>61.53846153846156</v>
       </c>
       <c r="L303" t="n">
         <v>38.62999999999999</v>
@@ -15884,7 +15896,7 @@
         <v>47.39999999999996</v>
       </c>
       <c r="K304" t="n">
-        <v>66.6666666666666</v>
+        <v>72.22222222222223</v>
       </c>
       <c r="L304" t="n">
         <v>38.88999999999999</v>
@@ -15935,7 +15947,7 @@
         <v>47.59999999999997</v>
       </c>
       <c r="K305" t="n">
-        <v>59.09090909090895</v>
+        <v>59.99999999999992</v>
       </c>
       <c r="L305" t="n">
         <v>39.12999999999998</v>
@@ -15986,7 +15998,7 @@
         <v>47.79999999999997</v>
       </c>
       <c r="K306" t="n">
-        <v>51.11111111111089</v>
+        <v>74.99999999999972</v>
       </c>
       <c r="L306" t="n">
         <v>39.31999999999999</v>
@@ -16037,7 +16049,7 @@
         <v>47.79999999999997</v>
       </c>
       <c r="K307" t="n">
-        <v>51.11111111111089</v>
+        <v>70.37037037037007</v>
       </c>
       <c r="L307" t="n">
         <v>39.55999999999999</v>
@@ -16088,7 +16100,7 @@
         <v>47.89999999999996</v>
       </c>
       <c r="K308" t="n">
-        <v>47.82608695652171</v>
+        <v>64.28571428571433</v>
       </c>
       <c r="L308" t="n">
         <v>39.73999999999999</v>
@@ -16139,7 +16151,7 @@
         <v>48.39999999999996</v>
       </c>
       <c r="K309" t="n">
-        <v>30.61224489795914</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="L309" t="n">
         <v>39.86999999999999</v>
@@ -16190,7 +16202,7 @@
         <v>48.79999999999996</v>
       </c>
       <c r="K310" t="n">
-        <v>38.46153846153844</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>39.98999999999999</v>
@@ -16241,7 +16253,7 @@
         <v>48.89999999999996</v>
       </c>
       <c r="K311" t="n">
-        <v>38.46153846153844</v>
+        <v>24.13793103448281</v>
       </c>
       <c r="L311" t="n">
         <v>40.08</v>
@@ -16292,7 +16304,7 @@
         <v>49.19999999999996</v>
       </c>
       <c r="K312" t="n">
-        <v>29.62962962962966</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>40.11999999999999</v>
@@ -16343,7 +16355,7 @@
         <v>49.39999999999996</v>
       </c>
       <c r="K313" t="n">
-        <v>24.99999999999997</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L313" t="n">
         <v>40.09999999999999</v>
@@ -16394,7 +16406,7 @@
         <v>49.49999999999996</v>
       </c>
       <c r="K314" t="n">
-        <v>26.3157894736842</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L314" t="n">
         <v>39.98999999999999</v>
@@ -16445,7 +16457,7 @@
         <v>49.89999999999996</v>
       </c>
       <c r="K315" t="n">
-        <v>31.14754098360653</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L315" t="n">
         <v>39.94</v>
@@ -16496,7 +16508,7 @@
         <v>49.99999999999996</v>
       </c>
       <c r="K316" t="n">
-        <v>25.4237288135593</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L316" t="n">
         <v>39.89999999999999</v>
@@ -16547,7 +16559,7 @@
         <v>50.39999999999996</v>
       </c>
       <c r="K317" t="n">
-        <v>41.37931034482753</v>
+        <v>3.999999999999773</v>
       </c>
       <c r="L317" t="n">
         <v>39.89999999999999</v>
@@ -16598,7 +16610,7 @@
         <v>50.79999999999996</v>
       </c>
       <c r="K318" t="n">
-        <v>26.3157894736842</v>
+        <v>8.333333333333162</v>
       </c>
       <c r="L318" t="n">
         <v>39.86999999999999</v>
@@ -16649,7 +16661,7 @@
         <v>50.79999999999996</v>
       </c>
       <c r="K319" t="n">
-        <v>26.3157894736842</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L319" t="n">
         <v>39.88999999999999</v>
@@ -16700,7 +16712,7 @@
         <v>51.09999999999996</v>
       </c>
       <c r="K320" t="n">
-        <v>12.72727272727278</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L320" t="n">
         <v>39.83999999999999</v>
@@ -16751,7 +16763,7 @@
         <v>51.19999999999996</v>
       </c>
       <c r="K321" t="n">
-        <v>11.11111111111114</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>39.80999999999999</v>
@@ -16802,7 +16814,7 @@
         <v>51.29999999999996</v>
       </c>
       <c r="K322" t="n">
-        <v>5.660377358490642</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L322" t="n">
         <v>39.8</v>
@@ -16853,7 +16865,7 @@
         <v>51.29999999999996</v>
       </c>
       <c r="K323" t="n">
-        <v>-2.040816326530642</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>39.81</v>
@@ -16904,7 +16916,7 @@
         <v>51.39999999999996</v>
       </c>
       <c r="K324" t="n">
-        <v>-30.00000000000007</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L324" t="n">
         <v>39.8</v>
@@ -16955,7 +16967,7 @@
         <v>51.49999999999996</v>
       </c>
       <c r="K325" t="n">
-        <v>-23.07692307692305</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L325" t="n">
         <v>39.76</v>
@@ -17006,7 +17018,7 @@
         <v>51.69999999999997</v>
       </c>
       <c r="K326" t="n">
-        <v>-23.07692307692305</v>
+        <v>-69.2307692307689</v>
       </c>
       <c r="L326" t="n">
         <v>39.70999999999999</v>
@@ -17057,7 +17069,7 @@
         <v>51.79999999999997</v>
       </c>
       <c r="K327" t="n">
-        <v>-25</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L327" t="n">
         <v>39.61</v>
@@ -17108,7 +17120,7 @@
         <v>51.79999999999997</v>
       </c>
       <c r="K328" t="n">
-        <v>-23.07692307692319</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L328" t="n">
         <v>39.55</v>
@@ -17159,7 +17171,7 @@
         <v>51.99999999999997</v>
       </c>
       <c r="K329" t="n">
-        <v>-5.555555555555621</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L329" t="n">
         <v>39.51000000000001</v>
@@ -17210,7 +17222,7 @@
         <v>52.39999999999997</v>
       </c>
       <c r="K330" t="n">
-        <v>-27.77777777777771</v>
+        <v>-49.99999999999971</v>
       </c>
       <c r="L330" t="n">
         <v>39.46</v>
@@ -17261,7 +17273,7 @@
         <v>52.59999999999997</v>
       </c>
       <c r="K331" t="n">
-        <v>-18.91891891891898</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L331" t="n">
         <v>39.42</v>
@@ -17312,7 +17324,7 @@
         <v>52.59999999999997</v>
       </c>
       <c r="K332" t="n">
-        <v>-11.76470588235309</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L332" t="n">
         <v>39.39</v>
@@ -17363,7 +17375,7 @@
         <v>52.89999999999997</v>
       </c>
       <c r="K333" t="n">
-        <v>2.857142857142892</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L333" t="n">
         <v>39.39</v>
@@ -17414,7 +17426,7 @@
         <v>52.99999999999997</v>
       </c>
       <c r="K334" t="n">
-        <v>2.857142857142892</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L334" t="n">
         <v>39.41</v>
@@ -17465,7 +17477,7 @@
         <v>53.19999999999997</v>
       </c>
       <c r="K335" t="n">
-        <v>-3.03030303030307</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L335" t="n">
         <v>39.44</v>
@@ -17516,7 +17528,7 @@
         <v>53.19999999999997</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L336" t="n">
         <v>39.48999999999999</v>
@@ -17567,7 +17579,7 @@
         <v>53.19999999999997</v>
       </c>
       <c r="K337" t="n">
-        <v>-14.28571428571421</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L337" t="n">
         <v>39.55</v>
@@ -17618,7 +17630,7 @@
         <v>53.29999999999997</v>
       </c>
       <c r="K338" t="n">
-        <v>4.000000000000045</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L338" t="n">
         <v>39.61999999999999</v>
@@ -17669,7 +17681,7 @@
         <v>53.39999999999997</v>
       </c>
       <c r="K339" t="n">
-        <v>7.692307692307776</v>
+        <v>100</v>
       </c>
       <c r="L339" t="n">
         <v>39.67999999999999</v>
@@ -17720,7 +17732,7 @@
         <v>53.49999999999997</v>
       </c>
       <c r="K340" t="n">
-        <v>24.99999999999993</v>
+        <v>100</v>
       </c>
       <c r="L340" t="n">
         <v>39.78999999999999</v>
@@ -17771,7 +17783,7 @@
         <v>53.79999999999997</v>
       </c>
       <c r="K341" t="n">
-        <v>30.76923076923056</v>
+        <v>100</v>
       </c>
       <c r="L341" t="n">
         <v>39.90999999999999</v>
@@ -17822,7 +17834,7 @@
         <v>53.89999999999997</v>
       </c>
       <c r="K342" t="n">
-        <v>38.46153846153834</v>
+        <v>100</v>
       </c>
       <c r="L342" t="n">
         <v>40.03999999999999</v>
@@ -17873,7 +17885,7 @@
         <v>54.09999999999997</v>
       </c>
       <c r="K343" t="n">
-        <v>42.85714285714264</v>
+        <v>100</v>
       </c>
       <c r="L343" t="n">
         <v>40.15999999999999</v>
@@ -17924,7 +17936,7 @@
         <v>54.39999999999997</v>
       </c>
       <c r="K344" t="n">
-        <v>53.33333333333326</v>
+        <v>100</v>
       </c>
       <c r="L344" t="n">
         <v>40.3</v>
@@ -17975,7 +17987,7 @@
         <v>54.49999999999997</v>
       </c>
       <c r="K345" t="n">
-        <v>46.66666666666651</v>
+        <v>84.61538461538444</v>
       </c>
       <c r="L345" t="n">
         <v>40.41</v>
@@ -18026,7 +18038,7 @@
         <v>54.49999999999997</v>
       </c>
       <c r="K346" t="n">
-        <v>57.1428571428571</v>
+        <v>84.61538461538444</v>
       </c>
       <c r="L346" t="n">
         <v>40.52</v>
@@ -18128,7 +18140,7 @@
         <v>55.09999999999997</v>
       </c>
       <c r="K348" t="n">
-        <v>51.51515151515164</v>
+        <v>52.94117647058828</v>
       </c>
       <c r="L348" t="n">
         <v>40.7</v>
@@ -18179,7 +18191,7 @@
         <v>55.29999999999997</v>
       </c>
       <c r="K349" t="n">
-        <v>39.39393939393934</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L349" t="n">
         <v>40.77</v>
@@ -18230,7 +18242,7 @@
         <v>55.39999999999997</v>
       </c>
       <c r="K350" t="n">
-        <v>59.99999999999991</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L350" t="n">
         <v>40.84</v>
@@ -18281,7 +18293,7 @@
         <v>55.39999999999997</v>
       </c>
       <c r="K351" t="n">
-        <v>57.1428571428571</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L351" t="n">
         <v>40.88</v>
@@ -18332,7 +18344,7 @@
         <v>55.69999999999997</v>
       </c>
       <c r="K352" t="n">
-        <v>61.29032258064517</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L352" t="n">
         <v>40.93999999999999</v>
@@ -18383,7 +18395,7 @@
         <v>55.89999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>46.66666666666651</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L353" t="n">
         <v>40.95999999999999</v>
@@ -18434,7 +18446,7 @@
         <v>56.19999999999997</v>
       </c>
       <c r="K354" t="n">
-        <v>49.99999999999978</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L354" t="n">
         <v>40.97999999999999</v>
@@ -18485,7 +18497,7 @@
         <v>56.29999999999997</v>
       </c>
       <c r="K355" t="n">
-        <v>41.93548387096786</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L355" t="n">
         <v>40.99999999999999</v>
@@ -18536,7 +18548,7 @@
         <v>56.79999999999997</v>
       </c>
       <c r="K356" t="n">
-        <v>50.0000000000001</v>
+        <v>50</v>
       </c>
       <c r="L356" t="n">
         <v>41.06999999999999</v>
@@ -18587,7 +18599,7 @@
         <v>56.79999999999997</v>
       </c>
       <c r="K357" t="n">
-        <v>50.0000000000001</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L357" t="n">
         <v>41.16999999999999</v>
@@ -18638,7 +18650,7 @@
         <v>56.79999999999997</v>
       </c>
       <c r="K358" t="n">
-        <v>48.57142857142865</v>
+        <v>60.00000000000038</v>
       </c>
       <c r="L358" t="n">
         <v>41.23999999999999</v>
@@ -18689,7 +18701,7 @@
         <v>57.09999999999997</v>
       </c>
       <c r="K359" t="n">
-        <v>51.35135135135137</v>
+        <v>64.70588235294143</v>
       </c>
       <c r="L359" t="n">
         <v>41.35999999999999</v>
@@ -18740,7 +18752,7 @@
         <v>57.19999999999997</v>
       </c>
       <c r="K360" t="n">
-        <v>51.35135135135137</v>
+        <v>66.66666666666693</v>
       </c>
       <c r="L360" t="n">
         <v>41.47999999999999</v>
@@ -18791,7 +18803,7 @@
         <v>57.39999999999996</v>
       </c>
       <c r="K361" t="n">
-        <v>50</v>
+        <v>64.70588235294127</v>
       </c>
       <c r="L361" t="n">
         <v>41.61999999999999</v>
@@ -18842,7 +18854,7 @@
         <v>57.49999999999996</v>
       </c>
       <c r="K362" t="n">
-        <v>44.44444444444464</v>
+        <v>75.00000000000111</v>
       </c>
       <c r="L362" t="n">
         <v>41.71999999999999</v>
@@ -18893,7 +18905,7 @@
         <v>57.89999999999996</v>
       </c>
       <c r="K363" t="n">
-        <v>26.31578947368423</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L363" t="n">
         <v>41.8</v>
@@ -18944,7 +18956,7 @@
         <v>58.19999999999996</v>
       </c>
       <c r="K364" t="n">
-        <v>10.52631578947367</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L364" t="n">
         <v>41.81999999999999</v>
@@ -18995,7 +19007,7 @@
         <v>58.19999999999996</v>
       </c>
       <c r="K365" t="n">
-        <v>13.51351351351356</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L365" t="n">
         <v>41.84999999999999</v>
@@ -19046,7 +19058,7 @@
         <v>58.69999999999996</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>-36.84210526315821</v>
       </c>
       <c r="L366" t="n">
         <v>41.77999999999999</v>
@@ -19097,7 +19109,7 @@
         <v>58.69999999999996</v>
       </c>
       <c r="K367" t="n">
-        <v>7.692307692307636</v>
+        <v>-36.84210526315821</v>
       </c>
       <c r="L367" t="n">
         <v>41.70999999999999</v>
@@ -19148,7 +19160,7 @@
         <v>59.09999999999996</v>
       </c>
       <c r="K368" t="n">
-        <v>-9.999999999999982</v>
+        <v>-70.00000000000017</v>
       </c>
       <c r="L368" t="n">
         <v>41.6</v>
@@ -19199,7 +19211,7 @@
         <v>59.49999999999996</v>
       </c>
       <c r="K369" t="n">
-        <v>4.761904761904842</v>
+        <v>-47.826086956522</v>
       </c>
       <c r="L369" t="n">
         <v>41.5</v>
@@ -19250,7 +19262,7 @@
         <v>59.79999999999995</v>
       </c>
       <c r="K370" t="n">
-        <v>9.090909090909092</v>
+        <v>-41.66666666666681</v>
       </c>
       <c r="L370" t="n">
         <v>41.42</v>
@@ -19301,7 +19313,7 @@
         <v>59.79999999999995</v>
       </c>
       <c r="K371" t="n">
-        <v>9.090909090909092</v>
+        <v>-39.13043478260899</v>
       </c>
       <c r="L371" t="n">
         <v>41.32</v>
@@ -19352,7 +19364,7 @@
         <v>59.79999999999995</v>
       </c>
       <c r="K372" t="n">
-        <v>2.439024390243775</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L372" t="n">
         <v>41.23</v>
@@ -19403,7 +19415,7 @@
         <v>59.79999999999995</v>
       </c>
       <c r="K373" t="n">
-        <v>7.692307692307663</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L373" t="n">
         <v>41.18</v>
@@ -19454,7 +19466,7 @@
         <v>60.29999999999995</v>
       </c>
       <c r="K374" t="n">
-        <v>-12.19512195121957</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L374" t="n">
         <v>41.11</v>
@@ -19505,7 +19517,7 @@
         <v>60.49999999999996</v>
       </c>
       <c r="K375" t="n">
-        <v>-4.761904761904842</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>41.06</v>
@@ -19556,7 +19568,7 @@
         <v>60.49999999999996</v>
       </c>
       <c r="K376" t="n">
-        <v>-18.91891891891905</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>41.06</v>
@@ -19607,7 +19619,7 @@
         <v>60.69999999999996</v>
       </c>
       <c r="K377" t="n">
-        <v>-23.07692307692327</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L377" t="n">
         <v>41.04000000000001</v>
@@ -19658,7 +19670,7 @@
         <v>60.69999999999996</v>
       </c>
       <c r="K378" t="n">
-        <v>-23.07692307692327</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L378" t="n">
         <v>41.06</v>
@@ -19709,7 +19721,7 @@
         <v>60.69999999999996</v>
       </c>
       <c r="K379" t="n">
-        <v>-33.33333333333346</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L379" t="n">
         <v>41.04000000000001</v>
@@ -19760,7 +19772,7 @@
         <v>60.79999999999996</v>
       </c>
       <c r="K380" t="n">
-        <v>-33.33333333333346</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L380" t="n">
         <v>41</v>
@@ -19811,7 +19823,7 @@
         <v>61.19999999999996</v>
       </c>
       <c r="K381" t="n">
-        <v>-26.31578947368423</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>41</v>
@@ -19862,7 +19874,7 @@
         <v>61.49999999999996</v>
       </c>
       <c r="K382" t="n">
-        <v>-30.00000000000007</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L382" t="n">
         <v>40.97</v>
@@ -19913,7 +19925,7 @@
         <v>61.49999999999996</v>
       </c>
       <c r="K383" t="n">
-        <v>-22.22222222222218</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L383" t="n">
         <v>40.94</v>
@@ -19964,7 +19976,7 @@
         <v>61.59999999999996</v>
       </c>
       <c r="K384" t="n">
-        <v>-17.64705882352946</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L384" t="n">
         <v>40.95</v>
@@ -20015,7 +20027,7 @@
         <v>61.69999999999996</v>
       </c>
       <c r="K385" t="n">
-        <v>-20.00000000000008</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L385" t="n">
         <v>40.92999999999999</v>
@@ -20066,7 +20078,7 @@
         <v>61.69999999999996</v>
       </c>
       <c r="K386" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>40.91</v>
@@ -20117,7 +20129,7 @@
         <v>61.79999999999996</v>
       </c>
       <c r="K387" t="n">
-        <v>-3.225806451612947</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L387" t="n">
         <v>40.91999999999999</v>
@@ -20168,7 +20180,7 @@
         <v>62.09999999999997</v>
       </c>
       <c r="K388" t="n">
-        <v>20</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L388" t="n">
         <v>40.95999999999999</v>
@@ -20219,7 +20231,7 @@
         <v>62.29999999999997</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L389" t="n">
         <v>40.97999999999999</v>
@@ -20321,7 +20333,7 @@
         <v>62.89999999999996</v>
       </c>
       <c r="K391" t="n">
-        <v>-9.677419354838591</v>
+        <v>0</v>
       </c>
       <c r="L391" t="n">
         <v>40.98999999999999</v>
@@ -20372,7 +20384,7 @@
         <v>62.89999999999996</v>
       </c>
       <c r="K392" t="n">
-        <v>-9.677419354838591</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>40.98999999999999</v>
@@ -20423,7 +20435,7 @@
         <v>63.09999999999997</v>
       </c>
       <c r="K393" t="n">
-        <v>-3.030303030302848</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L393" t="n">
         <v>41.00999999999999</v>
@@ -20474,7 +20486,7 @@
         <v>63.19999999999997</v>
       </c>
       <c r="K394" t="n">
-        <v>10.344827586207</v>
+        <v>20.00000000000019</v>
       </c>
       <c r="L394" t="n">
         <v>41.02999999999999</v>
@@ -20525,7 +20537,7 @@
         <v>63.59999999999997</v>
       </c>
       <c r="K395" t="n">
-        <v>16.12903225806447</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L395" t="n">
         <v>41.09999999999999</v>
@@ -20576,7 +20588,7 @@
         <v>63.99999999999996</v>
       </c>
       <c r="K396" t="n">
-        <v>25.71428571428562</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L396" t="n">
         <v>41.20999999999999</v>
@@ -20627,7 +20639,7 @@
         <v>64.39999999999996</v>
       </c>
       <c r="K397" t="n">
-        <v>18.91891891891898</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L397" t="n">
         <v>41.27</v>
@@ -20678,7 +20690,7 @@
         <v>64.69999999999996</v>
       </c>
       <c r="K398" t="n">
-        <v>10.00000000000014</v>
+        <v>8.333333333333481</v>
       </c>
       <c r="L398" t="n">
         <v>41.27</v>
@@ -20729,7 +20741,7 @@
         <v>64.89999999999996</v>
       </c>
       <c r="K399" t="n">
-        <v>4.761904761904826</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L399" t="n">
         <v>41.27</v>
@@ -20780,7 +20792,7 @@
         <v>65.19999999999996</v>
       </c>
       <c r="K400" t="n">
-        <v>-4.54545454545445</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L400" t="n">
         <v>41.20999999999999</v>
@@ -20831,7 +20843,7 @@
         <v>65.49999999999996</v>
       </c>
       <c r="K401" t="n">
-        <v>-6.97674418604645</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>41.20999999999999</v>
@@ -20882,7 +20894,7 @@
         <v>65.59999999999997</v>
       </c>
       <c r="K402" t="n">
-        <v>2.439024390243932</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="L402" t="n">
         <v>41.21999999999999</v>
@@ -20933,7 +20945,7 @@
         <v>65.69999999999996</v>
       </c>
       <c r="K403" t="n">
-        <v>4.761904761904826</v>
+        <v>4.000000000000068</v>
       </c>
       <c r="L403" t="n">
         <v>41.21999999999999</v>
@@ -20984,7 +20996,7 @@
         <v>65.79999999999995</v>
       </c>
       <c r="K404" t="n">
-        <v>9.523809523809499</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L404" t="n">
         <v>41.23999999999999</v>
@@ -21035,7 +21047,7 @@
         <v>66.09999999999997</v>
       </c>
       <c r="K405" t="n">
-        <v>18.18181818181825</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L405" t="n">
         <v>41.24999999999999</v>
@@ -21086,7 +21098,7 @@
         <v>66.19999999999996</v>
       </c>
       <c r="K406" t="n">
-        <v>15.55555555555562</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>41.20999999999999</v>
@@ -21137,7 +21149,7 @@
         <v>66.89999999999996</v>
       </c>
       <c r="K407" t="n">
-        <v>-1.960784313725518</v>
+        <v>-18.18181818181841</v>
       </c>
       <c r="L407" t="n">
         <v>41.14</v>
@@ -21188,7 +21200,7 @@
         <v>67.39999999999996</v>
       </c>
       <c r="K408" t="n">
-        <v>1.886792452830082</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L408" t="n">
         <v>41.15</v>
@@ -21239,7 +21251,7 @@
         <v>67.59999999999997</v>
       </c>
       <c r="K409" t="n">
-        <v>1.886792452830216</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L409" t="n">
         <v>41.16</v>
@@ -21290,7 +21302,7 @@
         <v>67.69999999999996</v>
       </c>
       <c r="K410" t="n">
-        <v>-5.882352941176421</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>41.19</v>
@@ -21341,7 +21353,7 @@
         <v>67.99999999999996</v>
       </c>
       <c r="K411" t="n">
-        <v>-5.882352941176421</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L411" t="n">
         <v>41.16</v>
@@ -21392,7 +21404,7 @@
         <v>67.99999999999996</v>
       </c>
       <c r="K412" t="n">
-        <v>-5.882352941176421</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L412" t="n">
         <v>41.12</v>
@@ -21443,7 +21455,7 @@
         <v>68.09999999999997</v>
       </c>
       <c r="K413" t="n">
-        <v>-12.00000000000003</v>
+        <v>-30.43478260869531</v>
       </c>
       <c r="L413" t="n">
         <v>41.06</v>
@@ -21494,7 +21506,7 @@
         <v>68.39999999999996</v>
       </c>
       <c r="K414" t="n">
-        <v>-3.846153846153904</v>
+        <v>-30.43478260869582</v>
       </c>
       <c r="L414" t="n">
         <v>41.02</v>
@@ -21545,7 +21557,7 @@
         <v>68.69999999999996</v>
       </c>
       <c r="K415" t="n">
-        <v>-17.64705882352941</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L415" t="n">
         <v>40.92</v>
@@ -21596,7 +21608,7 @@
         <v>68.69999999999996</v>
       </c>
       <c r="K416" t="n">
-        <v>-27.65957446808507</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L416" t="n">
         <v>40.83</v>
@@ -21647,7 +21659,7 @@
         <v>68.89999999999995</v>
       </c>
       <c r="K417" t="n">
-        <v>-15.55555555555567</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L417" t="n">
         <v>40.83</v>
@@ -21698,7 +21710,7 @@
         <v>69.39999999999995</v>
       </c>
       <c r="K418" t="n">
-        <v>-19.14893617021293</v>
+        <v>-44.4444444444451</v>
       </c>
       <c r="L418" t="n">
         <v>40.73</v>
@@ -21749,7 +21761,7 @@
         <v>69.39999999999995</v>
       </c>
       <c r="K419" t="n">
-        <v>-15.55555555555567</v>
+        <v>-41.17647058823574</v>
       </c>
       <c r="L419" t="n">
         <v>40.65</v>
@@ -21800,7 +21812,7 @@
         <v>69.49999999999994</v>
       </c>
       <c r="K420" t="n">
-        <v>-11.62790697674423</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L420" t="n">
         <v>40.57</v>
@@ -21851,7 +21863,7 @@
         <v>69.49999999999994</v>
       </c>
       <c r="K421" t="n">
-        <v>-20</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L421" t="n">
         <v>40.52</v>
@@ -21902,7 +21914,7 @@
         <v>70.09999999999994</v>
       </c>
       <c r="K422" t="n">
-        <v>-33.33333333333354</v>
+        <v>-50.00000000000071</v>
       </c>
       <c r="L422" t="n">
         <v>40.41</v>
@@ -21953,7 +21965,7 @@
         <v>70.49999999999994</v>
       </c>
       <c r="K423" t="n">
-        <v>-41.66666666666681</v>
+        <v>-80.95238095238152</v>
       </c>
       <c r="L423" t="n">
         <v>40.27</v>
@@ -22004,7 +22016,7 @@
         <v>70.89999999999995</v>
       </c>
       <c r="K424" t="n">
-        <v>-49.01960784313731</v>
+        <v>-81.81818181818244</v>
       </c>
       <c r="L424" t="n">
         <v>40.06</v>
@@ -22055,7 +22067,7 @@
         <v>71.89999999999995</v>
       </c>
       <c r="K425" t="n">
-        <v>-31.03448275862086</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L425" t="n">
         <v>39.98</v>
@@ -22106,7 +22118,7 @@
         <v>71.99999999999994</v>
       </c>
       <c r="K426" t="n">
-        <v>-27.58620689655183</v>
+        <v>-29.03225806451614</v>
       </c>
       <c r="L426" t="n">
         <v>39.91</v>
@@ -22157,7 +22169,7 @@
         <v>72.19999999999995</v>
       </c>
       <c r="K427" t="n">
-        <v>-13.20754716981128</v>
+        <v>-7.142857142856998</v>
       </c>
       <c r="L427" t="n">
         <v>39.84</v>
@@ -22208,7 +22220,7 @@
         <v>72.79999999999995</v>
       </c>
       <c r="K428" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.52941176470576</v>
       </c>
       <c r="L428" t="n">
         <v>39.76</v>
@@ -22259,7 +22271,7 @@
         <v>72.89999999999995</v>
       </c>
       <c r="K429" t="n">
-        <v>-28.30188679245292</v>
+        <v>-17.64705882352942</v>
       </c>
       <c r="L429" t="n">
         <v>39.69</v>
@@ -22310,7 +22322,7 @@
         <v>72.99999999999994</v>
       </c>
       <c r="K430" t="n">
-        <v>-24.52830188679248</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L430" t="n">
         <v>39.64</v>
@@ -22361,7 +22373,7 @@
         <v>73.19999999999993</v>
       </c>
       <c r="K431" t="n">
-        <v>-15.38461538461554</v>
+        <v>9.677419354838635</v>
       </c>
       <c r="L431" t="n">
         <v>39.61</v>
@@ -22412,7 +22424,7 @@
         <v>73.29999999999993</v>
       </c>
       <c r="K432" t="n">
-        <v>-16.9811320754719</v>
+        <v>21.42857142857136</v>
       </c>
       <c r="L432" t="n">
         <v>39.63</v>
@@ -22463,7 +22475,7 @@
         <v>73.29999999999993</v>
       </c>
       <c r="K433" t="n">
-        <v>-15.38461538461559</v>
+        <v>41.66666666666706</v>
       </c>
       <c r="L433" t="n">
         <v>39.69</v>
@@ -22514,7 +22526,7 @@
         <v>74.09999999999994</v>
       </c>
       <c r="K434" t="n">
-        <v>-5.263157894736816</v>
+        <v>36.36363636363675</v>
       </c>
       <c r="L434" t="n">
         <v>39.87</v>
@@ -22565,7 +22577,7 @@
         <v>74.19999999999993</v>
       </c>
       <c r="K435" t="n">
-        <v>1.818181818181853</v>
+        <v>36.36363636363675</v>
       </c>
       <c r="L435" t="n">
         <v>39.95999999999999</v>
@@ -22616,7 +22628,7 @@
         <v>74.49999999999994</v>
       </c>
       <c r="K436" t="n">
-        <v>-3.448275862069024</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L436" t="n">
         <v>40.01</v>
@@ -22667,7 +22679,7 @@
         <v>74.59999999999994</v>
       </c>
       <c r="K437" t="n">
-        <v>-8.771929824561422</v>
+        <v>44.44444444444471</v>
       </c>
       <c r="L437" t="n">
         <v>40.02999999999999</v>
@@ -22718,7 +22730,7 @@
         <v>74.69999999999993</v>
       </c>
       <c r="K438" t="n">
-        <v>-1.886792452830088</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L438" t="n">
         <v>40.09999999999999</v>
@@ -22769,7 +22781,7 @@
         <v>74.79999999999993</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L439" t="n">
         <v>40.16999999999999</v>
@@ -22820,7 +22832,7 @@
         <v>74.89999999999992</v>
       </c>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>17.64705882352978</v>
       </c>
       <c r="L440" t="n">
         <v>40.21999999999999</v>
@@ -22871,7 +22883,7 @@
         <v>74.89999999999992</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L441" t="n">
         <v>40.24999999999999</v>
@@ -22922,7 +22934,7 @@
         <v>75.09999999999992</v>
       </c>
       <c r="K442" t="n">
-        <v>7.999999999999995</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L442" t="n">
         <v>40.27</v>
@@ -22973,7 +22985,7 @@
         <v>75.19999999999993</v>
       </c>
       <c r="K443" t="n">
-        <v>19.14893617021278</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L443" t="n">
         <v>40.3</v>
@@ -23024,7 +23036,7 @@
         <v>75.29999999999993</v>
       </c>
       <c r="K444" t="n">
-        <v>27.27272727272748</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L444" t="n">
         <v>40.23999999999999</v>
@@ -23075,7 +23087,7 @@
         <v>75.59999999999992</v>
       </c>
       <c r="K445" t="n">
-        <v>-2.702702702702568</v>
+        <v>-63.6363636363644</v>
       </c>
       <c r="L445" t="n">
         <v>40.13999999999999</v>
@@ -23126,7 +23138,7 @@
         <v>75.99999999999991</v>
       </c>
       <c r="K446" t="n">
-        <v>5.000000000000107</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L446" t="n">
         <v>40.11</v>
@@ -23177,7 +23189,7 @@
         <v>75.99999999999991</v>
       </c>
       <c r="K447" t="n">
-        <v>0</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L447" t="n">
         <v>40.09</v>
@@ -23228,7 +23240,7 @@
         <v>76.09999999999991</v>
       </c>
       <c r="K448" t="n">
-        <v>15.15151515151536</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L448" t="n">
         <v>40.07</v>
@@ -23279,7 +23291,7 @@
         <v>76.09999999999991</v>
       </c>
       <c r="K449" t="n">
-        <v>12.50000000000011</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L449" t="n">
         <v>40.04</v>
@@ -23330,7 +23342,7 @@
         <v>76.6999999999999</v>
       </c>
       <c r="K450" t="n">
-        <v>-8.108108108108311</v>
+        <v>-44.4444444444451</v>
       </c>
       <c r="L450" t="n">
         <v>39.95999999999999</v>
@@ -23381,7 +23393,7 @@
         <v>77.09999999999991</v>
       </c>
       <c r="K451" t="n">
-        <v>-2.564102564102615</v>
+        <v>-10.00000000000021</v>
       </c>
       <c r="L451" t="n">
         <v>39.92</v>
@@ -23432,7 +23444,7 @@
         <v>77.1999999999999</v>
       </c>
       <c r="K452" t="n">
-        <v>-2.564102564102433</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L452" t="n">
         <v>39.89</v>
@@ -23483,7 +23495,7 @@
         <v>77.1999999999999</v>
       </c>
       <c r="K453" t="n">
-        <v>-2.564102564102433</v>
+        <v>-15.78947368421056</v>
       </c>
       <c r="L453" t="n">
         <v>39.84999999999999</v>
@@ -23534,7 +23546,7 @@
         <v>77.2999999999999</v>
       </c>
       <c r="K454" t="n">
-        <v>-25.00000000000044</v>
+        <v>5.882352941176225</v>
       </c>
       <c r="L454" t="n">
         <v>39.83</v>
@@ -23585,7 +23597,7 @@
         <v>77.39999999999989</v>
       </c>
       <c r="K455" t="n">
-        <v>-31.25000000000039</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L455" t="n">
         <v>39.83</v>
@@ -23636,7 +23648,7 @@
         <v>77.49999999999989</v>
       </c>
       <c r="K456" t="n">
-        <v>-20.00000000000043</v>
+        <v>-20.00000000000066</v>
       </c>
       <c r="L456" t="n">
         <v>39.8</v>
@@ -23687,7 +23699,7 @@
         <v>77.59999999999988</v>
       </c>
       <c r="K457" t="n">
-        <v>-13.33333333333354</v>
+        <v>-6.666666666666887</v>
       </c>
       <c r="L457" t="n">
         <v>39.77999999999999</v>
@@ -23738,7 +23750,7 @@
         <v>77.79999999999987</v>
       </c>
       <c r="K458" t="n">
-        <v>-16.12903225806484</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L458" t="n">
         <v>39.74999999999999</v>
@@ -23789,7 +23801,7 @@
         <v>77.89999999999986</v>
       </c>
       <c r="K459" t="n">
-        <v>-16.12903225806484</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L459" t="n">
         <v>39.72999999999999</v>
@@ -23840,7 +23852,7 @@
         <v>77.89999999999986</v>
       </c>
       <c r="K460" t="n">
-        <v>-13.33333333333377</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>39.77</v>
@@ -23891,7 +23903,7 @@
         <v>77.89999999999986</v>
       </c>
       <c r="K461" t="n">
-        <v>-13.33333333333377</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L461" t="n">
         <v>39.77</v>
@@ -23942,7 +23954,7 @@
         <v>77.89999999999986</v>
       </c>
       <c r="K462" t="n">
-        <v>-7.142857142857396</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L462" t="n">
         <v>39.77999999999999</v>
@@ -23993,7 +24005,7 @@
         <v>77.89999999999986</v>
       </c>
       <c r="K463" t="n">
-        <v>-11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>39.79</v>
@@ -24044,7 +24056,7 @@
         <v>77.99999999999986</v>
       </c>
       <c r="K464" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>39.77999999999999</v>
@@ -24095,7 +24107,7 @@
         <v>78.09999999999985</v>
       </c>
       <c r="K465" t="n">
-        <v>3.999999999999886</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>39.79</v>
@@ -24146,7 +24158,7 @@
         <v>78.09999999999985</v>
       </c>
       <c r="K466" t="n">
-        <v>-14.28571428571492</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L466" t="n">
         <v>39.79</v>
@@ -24197,7 +24209,7 @@
         <v>78.39999999999985</v>
       </c>
       <c r="K467" t="n">
-        <v>-25.00000000000074</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L467" t="n">
         <v>39.75</v>
@@ -24248,7 +24260,7 @@
         <v>78.49999999999986</v>
       </c>
       <c r="K468" t="n">
-        <v>-16.66666666666696</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L468" t="n">
         <v>39.74</v>
@@ -24299,7 +24311,7 @@
         <v>78.59999999999985</v>
       </c>
       <c r="K469" t="n">
-        <v>-12.00000000000016</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L469" t="n">
         <v>39.73</v>
@@ -24350,7 +24362,7 @@
         <v>78.59999999999985</v>
       </c>
       <c r="K470" t="n">
-        <v>15.78947368421117</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L470" t="n">
         <v>39.72</v>
@@ -24401,7 +24413,7 @@
         <v>78.59999999999985</v>
       </c>
       <c r="K471" t="n">
-        <v>-6.66666666666654</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L471" t="n">
         <v>39.70999999999999</v>
@@ -24452,7 +24464,7 @@
         <v>78.69999999999985</v>
       </c>
       <c r="K472" t="n">
-        <v>6.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>39.70999999999999</v>
@@ -24503,7 +24515,7 @@
         <v>78.89999999999984</v>
       </c>
       <c r="K473" t="n">
-        <v>-5.882352941176791</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L473" t="n">
         <v>39.69</v>
@@ -24554,7 +24566,7 @@
         <v>78.89999999999984</v>
       </c>
       <c r="K474" t="n">
-        <v>-12.50000000000022</v>
+        <v>-25</v>
       </c>
       <c r="L474" t="n">
         <v>39.68</v>
@@ -24605,7 +24617,7 @@
         <v>79.29999999999984</v>
       </c>
       <c r="K475" t="n">
-        <v>15.7894736842108</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L475" t="n">
         <v>39.7</v>
@@ -24656,7 +24668,7 @@
         <v>79.49999999999984</v>
       </c>
       <c r="K476" t="n">
-        <v>20.00000000000071</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L476" t="n">
         <v>39.73999999999999</v>
@@ -24707,7 +24719,7 @@
         <v>79.49999999999984</v>
       </c>
       <c r="K477" t="n">
-        <v>15.78947368421106</v>
+        <v>60.00000000000099</v>
       </c>
       <c r="L477" t="n">
         <v>39.81</v>
@@ -24758,7 +24770,7 @@
         <v>79.69999999999985</v>
       </c>
       <c r="K478" t="n">
-        <v>36.84210526315811</v>
+        <v>63.63636363636358</v>
       </c>
       <c r="L478" t="n">
         <v>39.88999999999999</v>
@@ -24809,7 +24821,7 @@
         <v>79.69999999999985</v>
       </c>
       <c r="K479" t="n">
-        <v>33.33333333333373</v>
+        <v>63.63636363636358</v>
       </c>
       <c r="L479" t="n">
         <v>39.95999999999999</v>
@@ -24860,7 +24872,7 @@
         <v>79.79999999999984</v>
       </c>
       <c r="K480" t="n">
-        <v>26.31578947368453</v>
+        <v>50</v>
       </c>
       <c r="L480" t="n">
         <v>40.02</v>
@@ -24911,7 +24923,7 @@
         <v>80.19999999999985</v>
       </c>
       <c r="K481" t="n">
-        <v>39.13043478260923</v>
+        <v>60.00000000000038</v>
       </c>
       <c r="L481" t="n">
         <v>40.11999999999999</v>
@@ -24962,7 +24974,7 @@
         <v>80.39999999999984</v>
       </c>
       <c r="K482" t="n">
-        <v>44.00000000000055</v>
+        <v>86.66666666666649</v>
       </c>
       <c r="L482" t="n">
         <v>40.22999999999999</v>
@@ -25013,7 +25025,7 @@
         <v>80.39999999999984</v>
       </c>
       <c r="K483" t="n">
-        <v>44.00000000000055</v>
+        <v>86.66666666666649</v>
       </c>
       <c r="L483" t="n">
         <v>40.35999999999999</v>
@@ -25064,7 +25076,7 @@
         <v>80.49999999999983</v>
       </c>
       <c r="K484" t="n">
-        <v>52.00000000000048</v>
+        <v>83.33333333333412</v>
       </c>
       <c r="L484" t="n">
         <v>40.49999999999999</v>
@@ -25115,7 +25127,7 @@
         <v>80.69999999999983</v>
       </c>
       <c r="K485" t="n">
-        <v>38.46153846153876</v>
+        <v>50</v>
       </c>
       <c r="L485" t="n">
         <v>40.57999999999998</v>
@@ -25166,7 +25178,7 @@
         <v>80.99999999999983</v>
       </c>
       <c r="K486" t="n">
-        <v>44.82758620689705</v>
+        <v>60.00000000000048</v>
       </c>
       <c r="L486" t="n">
         <v>40.66999999999999</v>
@@ -25217,7 +25229,7 @@
         <v>81.29999999999984</v>
       </c>
       <c r="K487" t="n">
-        <v>44.82758620689658</v>
+        <v>25</v>
       </c>
       <c r="L487" t="n">
         <v>40.72999999999999</v>
@@ -25268,7 +25280,7 @@
         <v>81.49999999999984</v>
       </c>
       <c r="K488" t="n">
-        <v>46.66666666666684</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L488" t="n">
         <v>40.78999999999999</v>
@@ -25319,7 +25331,7 @@
         <v>81.49999999999984</v>
       </c>
       <c r="K489" t="n">
-        <v>44.82758620689658</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L489" t="n">
         <v>40.84999999999999</v>
@@ -25370,7 +25382,7 @@
         <v>81.69999999999985</v>
       </c>
       <c r="K490" t="n">
-        <v>35.48387096774182</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L490" t="n">
         <v>40.89999999999999</v>
@@ -25421,7 +25433,7 @@
         <v>81.69999999999985</v>
       </c>
       <c r="K491" t="n">
-        <v>35.48387096774182</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L491" t="n">
         <v>40.91</v>
@@ -25472,7 +25484,7 @@
         <v>81.69999999999985</v>
       </c>
       <c r="K492" t="n">
-        <v>33.33333333333333</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L492" t="n">
         <v>40.9</v>
@@ -25523,7 +25535,7 @@
         <v>81.99999999999986</v>
       </c>
       <c r="K493" t="n">
-        <v>48.3870967741932</v>
+        <v>6.666666666666635</v>
       </c>
       <c r="L493" t="n">
         <v>40.92</v>
@@ -25574,7 +25586,7 @@
         <v>82.19999999999985</v>
       </c>
       <c r="K494" t="n">
-        <v>51.5151515151512</v>
+        <v>33.33333333333302</v>
       </c>
       <c r="L494" t="n">
         <v>40.95</v>
@@ -25625,7 +25637,7 @@
         <v>82.59999999999985</v>
       </c>
       <c r="K495" t="n">
-        <v>27.27272727272714</v>
+        <v>-12.5</v>
       </c>
       <c r="L495" t="n">
         <v>40.96</v>
@@ -25676,7 +25688,7 @@
         <v>82.89999999999986</v>
       </c>
       <c r="K496" t="n">
-        <v>29.41176470588218</v>
+        <v>25</v>
       </c>
       <c r="L496" t="n">
         <v>40.97</v>
@@ -25727,7 +25739,7 @@
         <v>82.89999999999986</v>
       </c>
       <c r="K497" t="n">
-        <v>29.41176470588218</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L497" t="n">
         <v>41.01</v>
@@ -25778,7 +25790,7 @@
         <v>82.99999999999986</v>
       </c>
       <c r="K498" t="n">
-        <v>27.27272727272714</v>
+        <v>19.99999999999962</v>
       </c>
       <c r="L498" t="n">
         <v>41.04</v>
@@ -25829,7 +25841,7 @@
         <v>83.09999999999985</v>
       </c>
       <c r="K499" t="n">
-        <v>23.52941176470597</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L499" t="n">
         <v>41.06</v>
@@ -25880,7 +25892,7 @@
         <v>83.19999999999985</v>
       </c>
       <c r="K500" t="n">
-        <v>23.52941176470597</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L500" t="n">
         <v>41.09</v>
@@ -25931,7 +25943,7 @@
         <v>83.39999999999984</v>
       </c>
       <c r="K501" t="n">
-        <v>18.74999999999989</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L501" t="n">
         <v>41.14</v>
@@ -25982,7 +25994,7 @@
         <v>83.89999999999984</v>
       </c>
       <c r="K502" t="n">
-        <v>-2.857142857142898</v>
+        <v>-15.78947368421094</v>
       </c>
       <c r="L502" t="n">
         <v>41.14</v>
@@ -26033,7 +26045,7 @@
         <v>83.89999999999984</v>
       </c>
       <c r="K503" t="n">
-        <v>-2.857142857142898</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L503" t="n">
         <v>41.11</v>
@@ -26084,7 +26096,7 @@
         <v>84.09999999999982</v>
       </c>
       <c r="K504" t="n">
-        <v>-11.11111111111109</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L504" t="n">
         <v>41.04</v>
@@ -26135,7 +26147,7 @@
         <v>84.09999999999982</v>
       </c>
       <c r="K505" t="n">
-        <v>-5.88235294117636</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L505" t="n">
         <v>41.01000000000001</v>
@@ -26186,7 +26198,7 @@
         <v>84.19999999999982</v>
       </c>
       <c r="K506" t="n">
-        <v>-18.75000000000011</v>
+        <v>-53.84615384615595</v>
       </c>
       <c r="L506" t="n">
         <v>40.94</v>
@@ -26237,7 +26249,7 @@
         <v>84.49999999999982</v>
       </c>
       <c r="K507" t="n">
-        <v>-18.74999999999997</v>
+        <v>-73.33333333333503</v>
       </c>
       <c r="L507" t="n">
         <v>40.84</v>
@@ -26288,7 +26300,7 @@
         <v>84.89999999999982</v>
       </c>
       <c r="K508" t="n">
-        <v>-35.29411764705914</v>
+        <v>-77.77777777777945</v>
       </c>
       <c r="L508" t="n">
         <v>40.69</v>
@@ -26339,7 +26351,7 @@
         <v>85.39999999999982</v>
       </c>
       <c r="K509" t="n">
-        <v>-17.94871794871813</v>
+        <v>-36.36363636363698</v>
       </c>
       <c r="L509" t="n">
         <v>40.60000000000001</v>
@@ -26390,7 +26402,7 @@
         <v>85.39999999999982</v>
       </c>
       <c r="K510" t="n">
-        <v>-13.51351351351361</v>
+        <v>-50.00000000000036</v>
       </c>
       <c r="L510" t="n">
         <v>40.52</v>
@@ -26441,7 +26453,7 @@
         <v>85.39999999999982</v>
       </c>
       <c r="K511" t="n">
-        <v>-13.51351351351361</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L511" t="n">
         <v>40.42</v>
@@ -26492,7 +26504,7 @@
         <v>85.49999999999982</v>
       </c>
       <c r="K512" t="n">
-        <v>-15.78947368421051</v>
+        <v>-37.50000000000011</v>
       </c>
       <c r="L512" t="n">
         <v>40.36</v>
@@ -26543,7 +26555,7 @@
         <v>85.49999999999982</v>
       </c>
       <c r="K513" t="n">
-        <v>-25.71428571428599</v>
+        <v>-28.57142857142864</v>
       </c>
       <c r="L513" t="n">
         <v>40.3</v>
@@ -26594,7 +26606,7 @@
         <v>85.59999999999981</v>
       </c>
       <c r="K514" t="n">
-        <v>-29.41176470588267</v>
+        <v>-20.00000000000047</v>
       </c>
       <c r="L514" t="n">
         <v>40.27</v>
@@ -26645,7 +26657,7 @@
         <v>85.89999999999981</v>
       </c>
       <c r="K515" t="n">
-        <v>-9.090909090909131</v>
+        <v>5.882352941176594</v>
       </c>
       <c r="L515" t="n">
         <v>40.27</v>
@@ -26696,7 +26708,7 @@
         <v>85.9999999999998</v>
       </c>
       <c r="K516" t="n">
-        <v>-22.58064516129087</v>
+        <v>20</v>
       </c>
       <c r="L516" t="n">
         <v>40.27</v>
@@ -26747,7 +26759,7 @@
         <v>85.9999999999998</v>
       </c>
       <c r="K517" t="n">
-        <v>-22.58064516129087</v>
+        <v>63.63636363636505</v>
       </c>
       <c r="L517" t="n">
         <v>40.3</v>
@@ -26798,7 +26810,7 @@
         <v>86.0999999999998</v>
       </c>
       <c r="K518" t="n">
-        <v>-22.58064516129064</v>
+        <v>42.85714285714503</v>
       </c>
       <c r="L518" t="n">
         <v>40.38</v>
@@ -26849,7 +26861,7 @@
         <v>86.0999999999998</v>
       </c>
       <c r="K519" t="n">
-        <v>-20.00000000000043</v>
+        <v>42.85714285714503</v>
       </c>
       <c r="L519" t="n">
         <v>40.41</v>
@@ -26900,7 +26912,7 @@
         <v>86.19999999999979</v>
       </c>
       <c r="K520" t="n">
-        <v>-20.00000000000043</v>
+        <v>25.00000000000133</v>
       </c>
       <c r="L520" t="n">
         <v>40.43</v>
@@ -26951,7 +26963,7 @@
         <v>86.19999999999979</v>
       </c>
       <c r="K521" t="n">
-        <v>-28.57142857142894</v>
+        <v>42.85714285714401</v>
       </c>
       <c r="L521" t="n">
         <v>40.45</v>
@@ -27002,7 +27014,7 @@
         <v>86.29999999999978</v>
       </c>
       <c r="K522" t="n">
-        <v>-16.66666666666696</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L522" t="n">
         <v>40.47</v>
@@ -27053,7 +27065,7 @@
         <v>86.49999999999977</v>
       </c>
       <c r="K523" t="n">
-        <v>-23.07692307692341</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L523" t="n">
         <v>40.47</v>
@@ -27104,7 +27116,7 @@
         <v>86.49999999999977</v>
       </c>
       <c r="K524" t="n">
-        <v>-16.66666666666696</v>
+        <v>-66.66666666667021</v>
       </c>
       <c r="L524" t="n">
         <v>40.45999999999999</v>
@@ -27155,7 +27167,7 @@
         <v>86.49999999999977</v>
       </c>
       <c r="K525" t="n">
-        <v>-16.66666666666696</v>
+        <v>-60.00000000000284</v>
       </c>
       <c r="L525" t="n">
         <v>40.41999999999999</v>
@@ -27206,7 +27218,7 @@
         <v>86.79999999999978</v>
       </c>
       <c r="K526" t="n">
-        <v>-23.07692307692343</v>
+        <v>-75.00000000000178</v>
       </c>
       <c r="L526" t="n">
         <v>40.35999999999999</v>
@@ -27257,7 +27269,7 @@
         <v>87.0999999999998</v>
       </c>
       <c r="K527" t="n">
-        <v>0</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L527" t="n">
         <v>40.32999999999999</v>
@@ -27308,7 +27320,7 @@
         <v>87.0999999999998</v>
       </c>
       <c r="K528" t="n">
-        <v>18.18181818181865</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L528" t="n">
         <v>40.28999999999998</v>
@@ -27359,7 +27371,7 @@
         <v>87.0999999999998</v>
       </c>
       <c r="K529" t="n">
-        <v>-5.882352941176225</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L529" t="n">
         <v>40.24999999999999</v>
@@ -27410,7 +27422,7 @@
         <v>87.0999999999998</v>
       </c>
       <c r="K530" t="n">
-        <v>-5.882352941176225</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L530" t="n">
         <v>40.21999999999998</v>
@@ -27461,7 +27473,7 @@
         <v>87.19999999999979</v>
       </c>
       <c r="K531" t="n">
-        <v>-11.11111111111107</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L531" t="n">
         <v>40.17999999999999</v>
@@ -27512,7 +27524,7 @@
         <v>87.5999999999998</v>
       </c>
       <c r="K532" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272645</v>
       </c>
       <c r="L532" t="n">
         <v>40.18999999999998</v>
@@ -27563,7 +27575,7 @@
         <v>87.69999999999979</v>
       </c>
       <c r="K533" t="n">
-        <v>9.090909090909003</v>
+        <v>16.66666666666607</v>
       </c>
       <c r="L533" t="n">
         <v>40.20999999999999</v>
@@ -27614,7 +27626,7 @@
         <v>88.0999999999998</v>
       </c>
       <c r="K534" t="n">
-        <v>-11.99999999999996</v>
+        <v>-12.5</v>
       </c>
       <c r="L534" t="n">
         <v>40.18999999999998</v>
@@ -27665,7 +27677,7 @@
         <v>88.2999999999998</v>
       </c>
       <c r="K535" t="n">
-        <v>-16.66666666666666</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L535" t="n">
         <v>40.18999999999998</v>
@@ -27716,7 +27728,7 @@
         <v>88.7999999999998</v>
       </c>
       <c r="K536" t="n">
-        <v>-28.5714285714285</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L536" t="n">
         <v>40.16999999999999</v>
@@ -27767,7 +27779,7 @@
         <v>89.19999999999979</v>
       </c>
       <c r="K537" t="n">
-        <v>-12.5</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L537" t="n">
         <v>40.15999999999999</v>
@@ -27818,7 +27830,7 @@
         <v>89.69999999999979</v>
       </c>
       <c r="K538" t="n">
-        <v>-27.77777777777782</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L538" t="n">
         <v>40.09999999999999</v>
@@ -27869,7 +27881,7 @@
         <v>90.29999999999978</v>
       </c>
       <c r="K539" t="n">
-        <v>-9.523809523809517</v>
+        <v>0</v>
       </c>
       <c r="L539" t="n">
         <v>40.09999999999999</v>
@@ -27920,7 +27932,7 @@
         <v>90.49999999999979</v>
       </c>
       <c r="K540" t="n">
-        <v>-11.62790697674419</v>
+        <v>-3.030303030303076</v>
       </c>
       <c r="L540" t="n">
         <v>40.08</v>
@@ -27971,7 +27983,7 @@
         <v>90.5999999999998</v>
       </c>
       <c r="K541" t="n">
-        <v>-13.63636363636365</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L541" t="n">
         <v>40.05999999999999</v>
@@ -28022,7 +28034,7 @@
         <v>90.5999999999998</v>
       </c>
       <c r="K542" t="n">
-        <v>-11.62790697674416</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L542" t="n">
         <v>39.99999999999999</v>
@@ -28073,7 +28085,7 @@
         <v>90.79999999999978</v>
       </c>
       <c r="K543" t="n">
-        <v>-11.62790697674416</v>
+        <v>-11.11111111111105</v>
       </c>
       <c r="L543" t="n">
         <v>39.92999999999999</v>
@@ -28124,7 +28136,7 @@
         <v>90.89999999999978</v>
       </c>
       <c r="K544" t="n">
-        <v>-13.63636363636365</v>
+        <v>-23.07692307692331</v>
       </c>
       <c r="L544" t="n">
         <v>39.88999999999999</v>
@@ -28175,7 +28187,7 @@
         <v>91.09999999999977</v>
       </c>
       <c r="K545" t="n">
-        <v>-8.695652173913178</v>
+        <v>4.347826086956333</v>
       </c>
       <c r="L545" t="n">
         <v>39.84999999999999</v>
@@ -28226,7 +28238,7 @@
         <v>91.09999999999977</v>
       </c>
       <c r="K546" t="n">
-        <v>-2.32558139534888</v>
+        <v>-15.78947368421094</v>
       </c>
       <c r="L546" t="n">
         <v>39.86</v>
@@ -28277,7 +28289,7 @@
         <v>91.39999999999976</v>
       </c>
       <c r="K547" t="n">
-        <v>-16.27906976744205</v>
+        <v>-5.882352941176642</v>
       </c>
       <c r="L547" t="n">
         <v>39.8</v>
@@ -28328,7 +28340,7 @@
         <v>91.59999999999977</v>
       </c>
       <c r="K548" t="n">
-        <v>-11.11111111111118</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L548" t="n">
         <v>39.80999999999999</v>
@@ -28379,7 +28391,7 @@
         <v>91.59999999999977</v>
       </c>
       <c r="K549" t="n">
-        <v>-11.11111111111118</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L549" t="n">
         <v>39.75999999999999</v>
@@ -28430,7 +28442,7 @@
         <v>91.99999999999977</v>
       </c>
       <c r="K550" t="n">
-        <v>-18.36734693877571</v>
+        <v>-42.85714285714366</v>
       </c>
       <c r="L550" t="n">
         <v>39.68999999999999</v>
@@ -28481,7 +28493,7 @@
         <v>92.29999999999978</v>
       </c>
       <c r="K551" t="n">
-        <v>-9.803921568627462</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L551" t="n">
         <v>39.66</v>
@@ -28532,7 +28544,7 @@
         <v>92.39999999999978</v>
       </c>
       <c r="K552" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L552" t="n">
         <v>39.64</v>
@@ -28583,7 +28595,7 @@
         <v>92.59999999999978</v>
       </c>
       <c r="K553" t="n">
-        <v>-18.36734693877552</v>
+        <v>-5.882352941176544</v>
       </c>
       <c r="L553" t="n">
         <v>39.62</v>
@@ -28634,7 +28646,7 @@
         <v>92.89999999999978</v>
       </c>
       <c r="K554" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L554" t="n">
         <v>39.58</v>
@@ -28685,7 +28697,7 @@
         <v>93.19999999999978</v>
       </c>
       <c r="K555" t="n">
-        <v>-14.28571428571441</v>
+        <v>-14.28571428571409</v>
       </c>
       <c r="L555" t="n">
         <v>39.55</v>
@@ -28736,7 +28748,7 @@
         <v>93.29999999999978</v>
       </c>
       <c r="K556" t="n">
-        <v>-2.222222222222261</v>
+        <v>5.263157894736862</v>
       </c>
       <c r="L556" t="n">
         <v>39.52999999999999</v>
@@ -28787,7 +28799,7 @@
         <v>93.49999999999979</v>
       </c>
       <c r="K557" t="n">
-        <v>-16.27906976744194</v>
+        <v>-15.78947368421059</v>
       </c>
       <c r="L557" t="n">
         <v>39.52</v>
@@ -28838,7 +28850,7 @@
         <v>93.49999999999979</v>
       </c>
       <c r="K558" t="n">
-        <v>-5.263157894736921</v>
+        <v>-15.78947368421059</v>
       </c>
       <c r="L558" t="n">
         <v>39.48999999999999</v>
@@ -28889,7 +28901,7 @@
         <v>93.5999999999998</v>
       </c>
       <c r="K559" t="n">
-        <v>-27.27272727272735</v>
+        <v>0</v>
       </c>
       <c r="L559" t="n">
         <v>39.45</v>
@@ -28940,7 +28952,7 @@
         <v>93.69999999999979</v>
       </c>
       <c r="K560" t="n">
-        <v>-18.75000000000003</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L560" t="n">
         <v>39.45999999999999</v>
@@ -28991,7 +29003,7 @@
         <v>93.89999999999978</v>
       </c>
       <c r="K561" t="n">
-        <v>-21.21212121212119</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L561" t="n">
         <v>39.41999999999999</v>
@@ -29042,7 +29054,7 @@
         <v>94.09999999999977</v>
       </c>
       <c r="K562" t="n">
-        <v>-14.2857142857144</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L562" t="n">
         <v>39.38999999999999</v>
@@ -29093,7 +29105,7 @@
         <v>94.19999999999976</v>
       </c>
       <c r="K563" t="n">
-        <v>-5.882352941176594</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L563" t="n">
         <v>39.38999999999999</v>
@@ -29144,7 +29156,7 @@
         <v>94.19999999999976</v>
       </c>
       <c r="K564" t="n">
-        <v>-3.030303030303089</v>
+        <v>0</v>
       </c>
       <c r="L564" t="n">
         <v>39.41999999999999</v>
@@ -29195,7 +29207,7 @@
         <v>94.49999999999976</v>
       </c>
       <c r="K565" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L565" t="n">
         <v>39.44999999999999</v>
@@ -29246,7 +29258,7 @@
         <v>95.09999999999975</v>
       </c>
       <c r="K566" t="n">
-        <v>-14.99999999999991</v>
+        <v>-12.5</v>
       </c>
       <c r="L566" t="n">
         <v>39.40999999999998</v>
@@ -29297,7 +29309,7 @@
         <v>95.29999999999976</v>
       </c>
       <c r="K567" t="n">
-        <v>-2.564102564102606</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>39.40999999999998</v>
@@ -29348,7 +29360,7 @@
         <v>95.39999999999975</v>
       </c>
       <c r="K568" t="n">
-        <v>-10.52631578947388</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>39.39999999999999</v>
@@ -29399,7 +29411,7 @@
         <v>95.89999999999975</v>
       </c>
       <c r="K569" t="n">
-        <v>-20.93023255813975</v>
+        <v>-27.27272727272783</v>
       </c>
       <c r="L569" t="n">
         <v>39.34999999999999</v>
@@ -29450,7 +29462,7 @@
         <v>96.19999999999976</v>
       </c>
       <c r="K570" t="n">
-        <v>-4.761904761904674</v>
+        <v>-4.347826086956616</v>
       </c>
       <c r="L570" t="n">
         <v>39.31999999999999</v>
@@ -29501,7 +29513,7 @@
         <v>96.59999999999977</v>
       </c>
       <c r="K571" t="n">
-        <v>-2.32558139534888</v>
+        <v>4.000000000000057</v>
       </c>
       <c r="L571" t="n">
         <v>39.34999999999999</v>
@@ -29552,7 +29564,7 @@
         <v>96.69999999999976</v>
       </c>
       <c r="K572" t="n">
-        <v>-6.976744186046638</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="L572" t="n">
         <v>39.34999999999999</v>
@@ -29603,7 +29615,7 @@
         <v>96.99999999999976</v>
       </c>
       <c r="K573" t="n">
-        <v>-9.090909090909104</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L573" t="n">
         <v>39.31</v>
@@ -29654,7 +29666,7 @@
         <v>97.29999999999976</v>
       </c>
       <c r="K574" t="n">
-        <v>4.545454545454472</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L574" t="n">
         <v>39.3</v>
@@ -29705,7 +29717,7 @@
         <v>97.29999999999976</v>
       </c>
       <c r="K575" t="n">
-        <v>-2.439024390243949</v>
+        <v>9.090909090908886</v>
       </c>
       <c r="L575" t="n">
         <v>39.25999999999999</v>
@@ -29756,7 +29768,7 @@
         <v>97.39999999999975</v>
       </c>
       <c r="K576" t="n">
-        <v>-7.317073170731872</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L576" t="n">
         <v>39.27</v>
@@ -29807,7 +29819,7 @@
         <v>97.49999999999974</v>
       </c>
       <c r="K577" t="n">
-        <v>-4.999999999999947</v>
+        <v>-4.761904761904504</v>
       </c>
       <c r="L577" t="n">
         <v>39.24999999999999</v>
@@ -29858,7 +29870,7 @@
         <v>97.69999999999975</v>
       </c>
       <c r="K578" t="n">
-        <v>-9.523809523809581</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L578" t="n">
         <v>39.21999999999999</v>
@@ -29909,7 +29921,7 @@
         <v>97.69999999999975</v>
       </c>
       <c r="K579" t="n">
-        <v>-7.317073170731724</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L579" t="n">
         <v>39.23999999999999</v>
@@ -29960,7 +29972,7 @@
         <v>98.29999999999976</v>
       </c>
       <c r="K580" t="n">
-        <v>-21.73913043478277</v>
+        <v>-64.70588235294169</v>
       </c>
       <c r="L580" t="n">
         <v>39.16999999999999</v>
@@ -30011,7 +30023,7 @@
         <v>98.79999999999976</v>
       </c>
       <c r="K581" t="n">
-        <v>-26.53061224489817</v>
+        <v>-71.42857142857162</v>
       </c>
       <c r="L581" t="n">
         <v>39.00999999999998</v>
@@ -30062,7 +30074,7 @@
         <v>99.29999999999976</v>
       </c>
       <c r="K582" t="n">
-        <v>-19.23076923076927</v>
+        <v>-30.43478260869582</v>
       </c>
       <c r="L582" t="n">
         <v>38.90999999999998</v>
@@ -30113,7 +30125,7 @@
         <v>99.29999999999976</v>
       </c>
       <c r="K583" t="n">
-        <v>-21.56862745098044</v>
+        <v>-50</v>
       </c>
       <c r="L583" t="n">
         <v>38.83999999999998</v>
@@ -30164,7 +30176,7 @@
         <v>99.99999999999974</v>
       </c>
       <c r="K584" t="n">
-        <v>-31.03448275862073</v>
+        <v>-62.96296296296306</v>
       </c>
       <c r="L584" t="n">
         <v>38.66999999999998</v>
@@ -30215,7 +30227,7 @@
         <v>100.7999999999997</v>
       </c>
       <c r="K585" t="n">
-        <v>-20.63492063492064</v>
+        <v>-23.52941176470586</v>
       </c>
       <c r="L585" t="n">
         <v>38.57999999999998</v>
@@ -30266,7 +30278,7 @@
         <v>100.9999999999997</v>
       </c>
       <c r="K586" t="n">
-        <v>-15.25423728813571</v>
+        <v>-25.71428571428588</v>
       </c>
       <c r="L586" t="n">
         <v>38.47999999999998</v>
@@ -30317,7 +30329,7 @@
         <v>101.0999999999997</v>
       </c>
       <c r="K587" t="n">
-        <v>-17.24137931034488</v>
+        <v>-17.6470588235295</v>
       </c>
       <c r="L587" t="n">
         <v>38.39999999999998</v>
@@ -30368,7 +30380,7 @@
         <v>101.1999999999997</v>
       </c>
       <c r="K588" t="n">
-        <v>-13.79310344827585</v>
+        <v>-14.28571428571434</v>
       </c>
       <c r="L588" t="n">
         <v>38.34999999999998</v>
@@ -30419,7 +30431,7 @@
         <v>101.2999999999997</v>
       </c>
       <c r="K589" t="n">
-        <v>-7.407407407407413</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>38.28999999999998</v>
@@ -30470,7 +30482,7 @@
         <v>101.2999999999997</v>
       </c>
       <c r="K590" t="n">
-        <v>-13.72549019607858</v>
+        <v>20.00000000000023</v>
       </c>
       <c r="L590" t="n">
         <v>38.28999999999998</v>
@@ -30521,7 +30533,7 @@
         <v>101.3999999999997</v>
       </c>
       <c r="K591" t="n">
-        <v>-20.83333333333353</v>
+        <v>4.761904761904907</v>
       </c>
       <c r="L591" t="n">
         <v>38.34999999999998</v>
@@ -30572,7 +30584,7 @@
         <v>101.3999999999997</v>
       </c>
       <c r="K592" t="n">
-        <v>-19.1489361702129</v>
+        <v>4.761904761904907</v>
       </c>
       <c r="L592" t="n">
         <v>38.35999999999999</v>
@@ -30623,7 +30635,7 @@
         <v>101.4999999999997</v>
       </c>
       <c r="K593" t="n">
-        <v>-15.55555555555577</v>
+        <v>46.66666666666727</v>
       </c>
       <c r="L593" t="n">
         <v>38.35999999999999</v>
@@ -30674,7 +30686,7 @@
         <v>101.6999999999997</v>
       </c>
       <c r="K594" t="n">
-        <v>-18.18181818181827</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L594" t="n">
         <v>38.44999999999999</v>
@@ -30725,7 +30737,7 @@
         <v>101.7999999999997</v>
       </c>
       <c r="K595" t="n">
-        <v>-15.55555555555556</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L595" t="n">
         <v>38.46999999999998</v>
@@ -30776,7 +30788,7 @@
         <v>101.8999999999997</v>
       </c>
       <c r="K596" t="n">
-        <v>-15.55555555555556</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L596" t="n">
         <v>38.49999999999999</v>
@@ -30827,7 +30839,7 @@
         <v>101.9999999999997</v>
       </c>
       <c r="K597" t="n">
-        <v>-11.11111111111118</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L597" t="n">
         <v>38.52999999999999</v>
@@ -30878,7 +30890,7 @@
         <v>102.0999999999997</v>
       </c>
       <c r="K598" t="n">
-        <v>-4.545454545454648</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L598" t="n">
         <v>38.55999999999999</v>
@@ -30929,7 +30941,7 @@
         <v>102.0999999999997</v>
       </c>
       <c r="K599" t="n">
-        <v>-4.545454545454648</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L599" t="n">
         <v>38.59999999999999</v>
@@ -30980,7 +30992,7 @@
         <v>102.0999999999997</v>
       </c>
       <c r="K600" t="n">
-        <v>10.52631578947377</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L600" t="n">
         <v>38.64</v>
@@ -31031,7 +31043,7 @@
         <v>102.5999999999997</v>
       </c>
       <c r="K601" t="n">
-        <v>36.8421052631583</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L601" t="n">
         <v>38.72</v>
@@ -31082,7 +31094,7 @@
         <v>102.7999999999997</v>
       </c>
       <c r="K602" t="n">
-        <v>20.00000000000041</v>
+        <v>53.84615384615478</v>
       </c>
       <c r="L602" t="n">
         <v>38.78</v>
@@ -31133,7 +31145,7 @@
         <v>102.7999999999997</v>
       </c>
       <c r="K603" t="n">
-        <v>20.00000000000041</v>
+        <v>45.45454545454628</v>
       </c>
       <c r="L603" t="n">
         <v>38.85000000000001</v>
@@ -31184,7 +31196,7 @@
         <v>103.0999999999997</v>
       </c>
       <c r="K604" t="n">
-        <v>35.48387096774214</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L604" t="n">
         <v>38.87</v>
@@ -31235,7 +31247,7 @@
         <v>103.1999999999997</v>
       </c>
       <c r="K605" t="n">
-        <v>8.333333333333579</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L605" t="n">
         <v>38.87</v>
@@ -31286,7 +31298,7 @@
         <v>103.2999999999997</v>
       </c>
       <c r="K606" t="n">
-        <v>21.73913043478304</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L606" t="n">
         <v>38.89</v>
@@ -31337,7 +31349,7 @@
         <v>103.3999999999997</v>
       </c>
       <c r="K607" t="n">
-        <v>13.04347826087001</v>
+        <v>-7.692307692307356</v>
       </c>
       <c r="L607" t="n">
         <v>38.89</v>
@@ -31388,7 +31400,7 @@
         <v>103.4999999999997</v>
       </c>
       <c r="K608" t="n">
-        <v>4.34782608695667</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L608" t="n">
         <v>38.87</v>
@@ -31439,7 +31451,7 @@
         <v>103.5999999999997</v>
       </c>
       <c r="K609" t="n">
-        <v>13.04347826087001</v>
+        <v>-6.666666666666414</v>
       </c>
       <c r="L609" t="n">
         <v>38.86</v>
@@ -31490,7 +31502,7 @@
         <v>103.5999999999997</v>
       </c>
       <c r="K610" t="n">
-        <v>13.04347826087001</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L610" t="n">
         <v>38.85</v>
@@ -31541,7 +31553,7 @@
         <v>103.5999999999997</v>
       </c>
       <c r="K611" t="n">
-        <v>9.090909090909385</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L611" t="n">
         <v>38.79</v>
@@ -31592,7 +31604,7 @@
         <v>103.6999999999997</v>
       </c>
       <c r="K612" t="n">
-        <v>4.34782608695667</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L612" t="n">
         <v>38.73999999999999</v>
@@ -31643,7 +31655,7 @@
         <v>103.7999999999997</v>
       </c>
       <c r="K613" t="n">
-        <v>4.34782608695667</v>
+        <v>-42.85714285714489</v>
       </c>
       <c r="L613" t="n">
         <v>38.67999999999999</v>
@@ -31694,7 +31706,7 @@
         <v>104.3999999999997</v>
       </c>
       <c r="K614" t="n">
-        <v>-25.92592592592655</v>
+        <v>-66.66666666666923</v>
       </c>
       <c r="L614" t="n">
         <v>38.58999999999999</v>
@@ -31745,7 +31757,7 @@
         <v>104.3999999999997</v>
       </c>
       <c r="K615" t="n">
-        <v>-30.76923076923168</v>
+        <v>-81.81818181818421</v>
       </c>
       <c r="L615" t="n">
         <v>38.50999999999999</v>
@@ -31796,7 +31808,7 @@
         <v>104.4999999999997</v>
       </c>
       <c r="K616" t="n">
-        <v>-30.76923076923168</v>
+        <v>-81.81818181818488</v>
       </c>
       <c r="L616" t="n">
         <v>38.40999999999999</v>
@@ -31847,7 +31859,7 @@
         <v>104.9999999999997</v>
       </c>
       <c r="K617" t="n">
-        <v>-13.33333333333377</v>
+        <v>-20.00000000000066</v>
       </c>
       <c r="L617" t="n">
         <v>38.36999999999999</v>
@@ -31898,7 +31910,7 @@
         <v>105.0999999999997</v>
       </c>
       <c r="K618" t="n">
-        <v>-20.00000000000019</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L618" t="n">
         <v>38.32999999999999</v>
@@ -31949,7 +31961,7 @@
         <v>105.0999999999997</v>
       </c>
       <c r="K619" t="n">
-        <v>-20.00000000000019</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L619" t="n">
         <v>38.27999999999999</v>
@@ -32000,7 +32012,7 @@
         <v>105.3999999999997</v>
       </c>
       <c r="K620" t="n">
-        <v>-27.2727272727276</v>
+        <v>-44.4444444444451</v>
       </c>
       <c r="L620" t="n">
         <v>38.19999999999999</v>
@@ -32051,7 +32063,7 @@
         <v>105.5999999999997</v>
       </c>
       <c r="K621" t="n">
-        <v>-53.33333333333415</v>
+        <v>-47.36842105263207</v>
       </c>
       <c r="L621" t="n">
         <v>38.09999999999999</v>
@@ -32102,7 +32114,7 @@
         <v>105.8999999999997</v>
       </c>
       <c r="K622" t="n">
-        <v>-35.48387096774254</v>
+        <v>-23.80952380952404</v>
       </c>
       <c r="L622" t="n">
         <v>38.03999999999998</v>
@@ -32153,7 +32165,7 @@
         <v>106.0999999999997</v>
       </c>
       <c r="K623" t="n">
-        <v>-39.39393939394007</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L623" t="n">
         <v>37.96999999999998</v>
@@ -32204,7 +32216,7 @@
         <v>106.5999999999997</v>
       </c>
       <c r="K624" t="n">
-        <v>-42.85714285714356</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L624" t="n">
         <v>37.90999999999999</v>
@@ -32255,7 +32267,7 @@
         <v>106.5999999999997</v>
       </c>
       <c r="K625" t="n">
-        <v>-41.17647058823608</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L625" t="n">
         <v>37.84999999999999</v>
@@ -32306,7 +32318,7 @@
         <v>106.5999999999997</v>
       </c>
       <c r="K626" t="n">
-        <v>-45.45454545454608</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L626" t="n">
         <v>37.8</v>
@@ -32357,7 +32369,7 @@
         <v>107.1999999999996</v>
       </c>
       <c r="K627" t="n">
-        <v>-21.05263157894773</v>
+        <v>-14.28571428571453</v>
       </c>
       <c r="L627" t="n">
         <v>37.75999999999999</v>
@@ -32408,7 +32420,7 @@
         <v>107.3999999999996</v>
       </c>
       <c r="K628" t="n">
-        <v>-23.07692307692334</v>
+        <v>-21.73913043478277</v>
       </c>
       <c r="L628" t="n">
         <v>37.70999999999999</v>
@@ -32459,7 +32471,7 @@
         <v>107.4999999999996</v>
       </c>
       <c r="K629" t="n">
-        <v>-23.07692307692352</v>
+        <v>-4.761904761904907</v>
       </c>
       <c r="L629" t="n">
         <v>37.66999999999999</v>
@@ -32510,7 +32522,7 @@
         <v>107.9999999999996</v>
       </c>
       <c r="K630" t="n">
-        <v>-31.81818181818232</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L630" t="n">
         <v>37.61</v>
@@ -32561,7 +32573,7 @@
         <v>107.9999999999996</v>
       </c>
       <c r="K631" t="n">
-        <v>-31.81818181818232</v>
+        <v>-33.33333333333378</v>
       </c>
       <c r="L631" t="n">
         <v>37.57</v>
@@ -32612,7 +32624,7 @@
         <v>108.1999999999996</v>
       </c>
       <c r="K632" t="n">
-        <v>-33.33333333333375</v>
+        <v>-33.33333333333367</v>
       </c>
       <c r="L632" t="n">
         <v>37.48</v>
@@ -32663,7 +32675,7 @@
         <v>108.1999999999996</v>
       </c>
       <c r="K633" t="n">
-        <v>-31.81818181818216</v>
+        <v>-12.5</v>
       </c>
       <c r="L633" t="n">
         <v>37.41</v>
@@ -32714,7 +32726,7 @@
         <v>108.2999999999996</v>
       </c>
       <c r="K634" t="n">
-        <v>-23.07692307692334</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L634" t="n">
         <v>37.38</v>
@@ -32765,7 +32777,7 @@
         <v>108.2999999999996</v>
       </c>
       <c r="K635" t="n">
-        <v>-23.07692307692334</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L635" t="n">
         <v>37.35</v>
@@ -32816,7 +32828,7 @@
         <v>108.5999999999996</v>
       </c>
       <c r="K636" t="n">
-        <v>-12.19512195121966</v>
+        <v>-42.85714285714409</v>
       </c>
       <c r="L636" t="n">
         <v>37.35</v>
@@ -32867,7 +32879,7 @@
         <v>108.5999999999996</v>
       </c>
       <c r="K637" t="n">
-        <v>-27.77777777777815</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L637" t="n">
         <v>37.29000000000001</v>
@@ -32918,7 +32930,7 @@
         <v>108.8999999999996</v>
       </c>
       <c r="K638" t="n">
-        <v>-31.57894736842151</v>
+        <v>-57.14285714285787</v>
       </c>
       <c r="L638" t="n">
         <v>37.22000000000001</v>
@@ -32969,7 +32981,7 @@
         <v>109.1999999999996</v>
       </c>
       <c r="K639" t="n">
-        <v>-21.95121951219552</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>37.17</v>
@@ -33020,7 +33032,7 @@
         <v>109.2999999999996</v>
       </c>
       <c r="K640" t="n">
-        <v>-17.94871794871814</v>
+        <v>-7.69230769230744</v>
       </c>
       <c r="L640" t="n">
         <v>37.16</v>
@@ -33071,7 +33083,7 @@
         <v>109.2999999999996</v>
       </c>
       <c r="K641" t="n">
-        <v>-13.51351351351371</v>
+        <v>9.090909090909385</v>
       </c>
       <c r="L641" t="n">
         <v>37.15</v>
@@ -33122,7 +33134,7 @@
         <v>109.4999999999996</v>
       </c>
       <c r="K642" t="n">
-        <v>-16.66666666666693</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L642" t="n">
         <v>37.17999999999999</v>
@@ -33173,7 +33185,7 @@
         <v>109.5999999999996</v>
       </c>
       <c r="K643" t="n">
-        <v>-8.57142857142863</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L643" t="n">
         <v>37.21999999999999</v>
@@ -33224,7 +33236,7 @@
         <v>110.0999999999996</v>
       </c>
       <c r="K644" t="n">
-        <v>20.00000000000041</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L644" t="n">
         <v>37.31999999999999</v>
@@ -33275,7 +33287,7 @@
         <v>110.5999999999996</v>
       </c>
       <c r="K645" t="n">
-        <v>5.000000000000142</v>
+        <v>10.00000000000021</v>
       </c>
       <c r="L645" t="n">
         <v>37.36999999999999</v>
@@ -33326,7 +33338,7 @@
         <v>111.1999999999996</v>
       </c>
       <c r="K646" t="n">
-        <v>17.39130434782642</v>
+        <v>30.76923076923117</v>
       </c>
       <c r="L646" t="n">
         <v>37.45</v>
@@ -33377,7 +33389,7 @@
         <v>111.5999999999996</v>
       </c>
       <c r="K647" t="n">
-        <v>-4.545454545454501</v>
+        <v>25.92592592592614</v>
       </c>
       <c r="L647" t="n">
         <v>37.48999999999999</v>
@@ -33428,7 +33440,7 @@
         <v>111.5999999999996</v>
       </c>
       <c r="K648" t="n">
-        <v>0</v>
+        <v>16.66666666666696</v>
       </c>
       <c r="L648" t="n">
         <v>37.55999999999999</v>
@@ -33479,7 +33491,7 @@
         <v>111.6999999999996</v>
       </c>
       <c r="K649" t="n">
-        <v>0</v>
+        <v>24.99999999999985</v>
       </c>
       <c r="L649" t="n">
         <v>37.60999999999999</v>
@@ -33530,7 +33542,7 @@
         <v>111.9999999999996</v>
       </c>
       <c r="K650" t="n">
-        <v>20.00000000000025</v>
+        <v>33.33333333333325</v>
       </c>
       <c r="L650" t="n">
         <v>37.7</v>
@@ -33581,7 +33593,7 @@
         <v>112.0999999999996</v>
       </c>
       <c r="K651" t="n">
-        <v>21.95121951219544</v>
+        <v>30.769230769231</v>
       </c>
       <c r="L651" t="n">
         <v>37.8</v>
@@ -33632,7 +33644,7 @@
         <v>112.0999999999996</v>
       </c>
       <c r="K652" t="n">
-        <v>28.2051282051284</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L652" t="n">
         <v>37.88</v>
@@ -33683,7 +33695,7 @@
         <v>112.3999999999996</v>
       </c>
       <c r="K653" t="n">
-        <v>33.33333333333351</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L653" t="n">
         <v>37.98</v>
@@ -33734,7 +33746,7 @@
         <v>112.3999999999996</v>
       </c>
       <c r="K654" t="n">
-        <v>36.58536585365871</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L654" t="n">
         <v>38.02999999999999</v>
@@ -33785,7 +33797,7 @@
         <v>112.7999999999996</v>
       </c>
       <c r="K655" t="n">
-        <v>42.22222222222246</v>
+        <v>50</v>
       </c>
       <c r="L655" t="n">
         <v>38.16999999999999</v>
@@ -33836,7 +33848,7 @@
         <v>112.8999999999996</v>
       </c>
       <c r="K656" t="n">
-        <v>34.88372093023281</v>
+        <v>84.6153846153853</v>
       </c>
       <c r="L656" t="n">
         <v>38.23999999999999</v>
@@ -33887,7 +33899,7 @@
         <v>112.8999999999996</v>
       </c>
       <c r="K657" t="n">
-        <v>34.88372093023281</v>
+        <v>84.6153846153853</v>
       </c>
       <c r="L657" t="n">
         <v>38.34999999999999</v>
@@ -33938,7 +33950,7 @@
         <v>112.8999999999996</v>
       </c>
       <c r="K658" t="n">
-        <v>45.00000000000025</v>
+        <v>83.33333333333412</v>
       </c>
       <c r="L658" t="n">
         <v>38.45999999999999</v>
@@ -33989,7 +34001,7 @@
         <v>113.0999999999996</v>
       </c>
       <c r="K659" t="n">
-        <v>43.58974358974392</v>
+        <v>81.81818181818316</v>
       </c>
       <c r="L659" t="n">
         <v>38.58</v>
@@ -34040,7 +34052,7 @@
         <v>113.1999999999996</v>
       </c>
       <c r="K660" t="n">
-        <v>43.58974358974358</v>
+        <v>63.63636363636358</v>
       </c>
       <c r="L660" t="n">
         <v>38.65999999999999</v>
@@ -34091,7 +34103,7 @@
         <v>113.6999999999996</v>
       </c>
       <c r="K661" t="n">
-        <v>27.27272727272723</v>
+        <v>12.49999999999978</v>
       </c>
       <c r="L661" t="n">
         <v>38.67999999999999</v>
@@ -34142,7 +34154,7 @@
         <v>113.6999999999996</v>
       </c>
       <c r="K662" t="n">
-        <v>23.80952380952387</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L662" t="n">
         <v>38.69999999999999</v>
@@ -34193,7 +34205,7 @@
         <v>113.6999999999996</v>
       </c>
       <c r="K663" t="n">
-        <v>21.95121951219512</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L663" t="n">
         <v>38.68999999999998</v>
@@ -34244,7 +34256,7 @@
         <v>113.6999999999996</v>
       </c>
       <c r="K664" t="n">
-        <v>11.11111111111109</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L664" t="n">
         <v>38.67999999999999</v>
@@ -34295,7 +34307,7 @@
         <v>113.6999999999996</v>
       </c>
       <c r="K665" t="n">
-        <v>29.03225806451614</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L665" t="n">
         <v>38.62999999999998</v>
@@ -34346,7 +34358,7 @@
         <v>113.8999999999996</v>
       </c>
       <c r="K666" t="n">
-        <v>18.5185185185185</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L666" t="n">
         <v>38.60999999999999</v>
@@ -34397,7 +34409,7 @@
         <v>113.8999999999996</v>
       </c>
       <c r="K667" t="n">
-        <v>39.13043478260868</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L667" t="n">
         <v>38.58999999999999</v>
@@ -34448,7 +34460,7 @@
         <v>113.9999999999996</v>
       </c>
       <c r="K668" t="n">
-        <v>33.33333333333314</v>
+        <v>-55.55555555555433</v>
       </c>
       <c r="L668" t="n">
         <v>38.55999999999999</v>
@@ -34499,7 +34511,7 @@
         <v>114.0999999999996</v>
       </c>
       <c r="K669" t="n">
-        <v>33.33333333333343</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L669" t="n">
         <v>38.51999999999999</v>
@@ -34550,7 +34562,7 @@
         <v>114.2999999999996</v>
       </c>
       <c r="K670" t="n">
-        <v>30.43478260869569</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L670" t="n">
         <v>38.50999999999999</v>
@@ -34601,7 +34613,7 @@
         <v>114.3999999999996</v>
       </c>
       <c r="K671" t="n">
-        <v>21.73913043478277</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L671" t="n">
         <v>38.53999999999999</v>
@@ -34652,7 +34664,7 @@
         <v>114.3999999999996</v>
       </c>
       <c r="K672" t="n">
-        <v>21.73913043478277</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L672" t="n">
         <v>38.56999999999999</v>
@@ -34703,7 +34715,7 @@
         <v>114.4999999999996</v>
       </c>
       <c r="K673" t="n">
-        <v>4.761904761904875</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L673" t="n">
         <v>38.59</v>
@@ -34754,7 +34766,7 @@
         <v>114.6999999999996</v>
       </c>
       <c r="K674" t="n">
-        <v>13.04347826086962</v>
+        <v>40.00000000000099</v>
       </c>
       <c r="L674" t="n">
         <v>38.63</v>
@@ -34805,7 +34817,7 @@
         <v>115.0999999999996</v>
       </c>
       <c r="K675" t="n">
-        <v>13.04347826086985</v>
+        <v>50.00000000000119</v>
       </c>
       <c r="L675" t="n">
         <v>38.71</v>
@@ -34856,7 +34868,7 @@
         <v>115.1999999999996</v>
       </c>
       <c r="K676" t="n">
-        <v>21.73913043478277</v>
+        <v>53.84615384615481</v>
       </c>
       <c r="L676" t="n">
         <v>38.78</v>
@@ -34907,7 +34919,7 @@
         <v>115.2999999999996</v>
       </c>
       <c r="K677" t="n">
-        <v>25.00000000000029</v>
+        <v>69.23076923077154</v>
       </c>
       <c r="L677" t="n">
         <v>38.86</v>
@@ -34958,7 +34970,7 @@
         <v>115.2999999999996</v>
       </c>
       <c r="K678" t="n">
-        <v>25.00000000000029</v>
+        <v>66.66666666666863</v>
       </c>
       <c r="L678" t="n">
         <v>38.95</v>
@@ -35009,7 +35021,7 @@
         <v>115.2999999999996</v>
       </c>
       <c r="K679" t="n">
-        <v>18.18181818181833</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L679" t="n">
         <v>39.02999999999999</v>
@@ -35060,7 +35072,7 @@
         <v>115.4999999999996</v>
       </c>
       <c r="K680" t="n">
-        <v>30.43478260869619</v>
+        <v>81.81818181818316</v>
       </c>
       <c r="L680" t="n">
         <v>39.10999999999999</v>
@@ -35111,7 +35123,7 @@
         <v>115.4999999999996</v>
       </c>
       <c r="K681" t="n">
-        <v>66.66666666666798</v>
+        <v>81.81818181818316</v>
       </c>
       <c r="L681" t="n">
         <v>39.2</v>
@@ -35162,7 +35174,7 @@
         <v>115.4999999999996</v>
       </c>
       <c r="K682" t="n">
-        <v>66.66666666666798</v>
+        <v>100.0000000000014</v>
       </c>
       <c r="L682" t="n">
         <v>39.29</v>
@@ -35213,7 +35225,7 @@
         <v>115.4999999999996</v>
       </c>
       <c r="K683" t="n">
-        <v>66.66666666666798</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L683" t="n">
         <v>39.39</v>
@@ -35264,7 +35276,7 @@
         <v>115.7999999999996</v>
       </c>
       <c r="K684" t="n">
-        <v>42.85714285714349</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L684" t="n">
         <v>39.44</v>
@@ -35315,7 +35327,7 @@
         <v>116.2999999999996</v>
       </c>
       <c r="K685" t="n">
-        <v>53.8461538461545</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L685" t="n">
         <v>39.5</v>
@@ -35366,7 +35378,7 @@
         <v>116.2999999999996</v>
       </c>
       <c r="K686" t="n">
-        <v>50.00000000000059</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L686" t="n">
         <v>39.55</v>
@@ -35417,7 +35429,7 @@
         <v>116.2999999999996</v>
       </c>
       <c r="K687" t="n">
-        <v>50.00000000000059</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L687" t="n">
         <v>39.59</v>
@@ -35468,7 +35480,7 @@
         <v>116.5999999999996</v>
       </c>
       <c r="K688" t="n">
-        <v>38.46153846153918</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L688" t="n">
         <v>39.60000000000001</v>
@@ -35519,7 +35531,7 @@
         <v>116.7999999999996</v>
       </c>
       <c r="K689" t="n">
-        <v>25.92592592592615</v>
+        <v>-23.07692307692346</v>
       </c>
       <c r="L689" t="n">
         <v>39.59000000000001</v>
@@ -35570,7 +35582,7 @@
         <v>116.7999999999996</v>
       </c>
       <c r="K690" t="n">
-        <v>20.00000000000023</v>
+        <v>-23.07692307692346</v>
       </c>
       <c r="L690" t="n">
         <v>39.56000000000001</v>
@@ -35621,7 +35633,7 @@
         <v>117.1999999999996</v>
       </c>
       <c r="K691" t="n">
-        <v>7.142857142857034</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L691" t="n">
         <v>39.49</v>
@@ -35672,7 +35684,7 @@
         <v>117.2999999999996</v>
       </c>
       <c r="K692" t="n">
-        <v>3.448275862068797</v>
+        <v>-44.44444444444476</v>
       </c>
       <c r="L692" t="n">
         <v>39.41</v>
@@ -35723,7 +35735,7 @@
         <v>117.6999999999996</v>
       </c>
       <c r="K693" t="n">
-        <v>18.75000000000011</v>
+        <v>-5.263157894736527</v>
       </c>
       <c r="L693" t="n">
         <v>39.37</v>
@@ -35774,7 +35786,7 @@
         <v>117.7999999999996</v>
       </c>
       <c r="K694" t="n">
-        <v>9.677419354838865</v>
+        <v>-46.66666666666639</v>
       </c>
       <c r="L694" t="n">
         <v>39.35</v>
@@ -35825,7 +35837,7 @@
         <v>118.4999999999996</v>
       </c>
       <c r="K695" t="n">
-        <v>-23.52941176470607</v>
+        <v>-63.63636363636349</v>
       </c>
       <c r="L695" t="n">
         <v>39.20999999999999</v>
@@ -35876,7 +35888,7 @@
         <v>118.9999999999996</v>
       </c>
       <c r="K696" t="n">
-        <v>-10.52631578947365</v>
+        <v>-33.33333333333325</v>
       </c>
       <c r="L696" t="n">
         <v>39.11999999999999</v>
@@ -35927,7 +35939,7 @@
         <v>119.1999999999996</v>
       </c>
       <c r="K697" t="n">
-        <v>-17.94871794871781</v>
+        <v>-30.76923076923056</v>
       </c>
       <c r="L697" t="n">
         <v>39.00999999999999</v>
@@ -35978,7 +35990,7 @@
         <v>119.5999999999996</v>
       </c>
       <c r="K698" t="n">
-        <v>-25.58139534883718</v>
+        <v>-35.71428571428557</v>
       </c>
       <c r="L698" t="n">
         <v>38.88999999999999</v>
@@ -36029,7 +36041,7 @@
         <v>119.7999999999996</v>
       </c>
       <c r="K699" t="n">
-        <v>-19.9999999999999</v>
+        <v>-26.66666666666644</v>
       </c>
       <c r="L699" t="n">
         <v>38.80999999999999</v>
@@ -36080,7 +36092,7 @@
         <v>120.1999999999996</v>
       </c>
       <c r="K700" t="n">
-        <v>-31.91489361702126</v>
+        <v>-26.66666666666657</v>
       </c>
       <c r="L700" t="n">
         <v>38.68999999999999</v>
@@ -36131,7 +36143,7 @@
         <v>120.2999999999996</v>
       </c>
       <c r="K701" t="n">
-        <v>-33.33333333333338</v>
+        <v>-26.66666666666657</v>
       </c>
       <c r="L701" t="n">
         <v>38.59999999999999</v>
@@ -36182,7 +36194,7 @@
         <v>120.2999999999996</v>
       </c>
       <c r="K702" t="n">
-        <v>-33.33333333333338</v>
+        <v>-46.15384615384636</v>
       </c>
       <c r="L702" t="n">
         <v>38.52</v>
@@ -36233,7 +36245,7 @@
         <v>121.0999999999996</v>
       </c>
       <c r="K703" t="n">
-        <v>-42.85714285714288</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L703" t="n">
         <v>38.31999999999999</v>
@@ -36284,7 +36296,7 @@
         <v>121.7999999999996</v>
       </c>
       <c r="K704" t="n">
-        <v>-23.33333333333331</v>
+        <v>-15.15151515151517</v>
       </c>
       <c r="L704" t="n">
         <v>38.19999999999999</v>
@@ -36335,7 +36347,7 @@
         <v>121.8999999999996</v>
       </c>
       <c r="K705" t="n">
-        <v>-32.14285714285712</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L705" t="n">
         <v>38.15999999999999</v>
@@ -36386,7 +36398,7 @@
         <v>122.4999999999995</v>
       </c>
       <c r="K706" t="n">
-        <v>-38.70967741935489</v>
+        <v>-39.39393939393972</v>
       </c>
       <c r="L706" t="n">
         <v>38.00999999999999</v>
@@ -36437,7 +36449,7 @@
         <v>122.9999999999995</v>
       </c>
       <c r="K707" t="n">
-        <v>-28.35820895522391</v>
+        <v>-11.76470588235298</v>
       </c>
       <c r="L707" t="n">
         <v>37.92999999999999</v>
@@ -36488,7 +36500,7 @@
         <v>122.9999999999995</v>
       </c>
       <c r="K708" t="n">
-        <v>-25.00000000000006</v>
+        <v>-18.7500000000002</v>
       </c>
       <c r="L708" t="n">
         <v>37.88999999999999</v>
@@ -36539,7 +36551,7 @@
         <v>122.9999999999995</v>
       </c>
       <c r="K709" t="n">
-        <v>-22.58064516129034</v>
+        <v>-7.142857142857288</v>
       </c>
       <c r="L709" t="n">
         <v>37.82999999999998</v>
@@ -36590,7 +36602,7 @@
         <v>123.0999999999995</v>
       </c>
       <c r="K710" t="n">
-        <v>-23.80952380952387</v>
+        <v>-7.142857142857288</v>
       </c>
       <c r="L710" t="n">
         <v>37.79999999999998</v>
@@ -36641,7 +36653,7 @@
         <v>123.2999999999995</v>
       </c>
       <c r="K711" t="n">
-        <v>-21.31147540983614</v>
+        <v>-13.33333333333341</v>
       </c>
       <c r="L711" t="n">
         <v>37.75999999999998</v>
@@ -36692,7 +36704,7 @@
         <v>123.5999999999995</v>
       </c>
       <c r="K712" t="n">
-        <v>-23.80952380952387</v>
+        <v>3.999999999999795</v>
       </c>
       <c r="L712" t="n">
         <v>37.68999999999998</v>
@@ -36743,7 +36755,7 @@
         <v>124.1999999999995</v>
       </c>
       <c r="K713" t="n">
-        <v>-38.46153846153863</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L713" t="n">
         <v>37.63999999999999</v>
@@ -36794,7 +36806,7 @@
         <v>124.2999999999995</v>
       </c>
       <c r="K714" t="n">
-        <v>-35.3846153846156</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L714" t="n">
         <v>37.52999999999999</v>
@@ -36845,7 +36857,7 @@
         <v>124.4999999999995</v>
       </c>
       <c r="K715" t="n">
-        <v>-23.33333333333342</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L715" t="n">
         <v>37.42999999999999</v>
@@ -36896,7 +36908,7 @@
         <v>124.6999999999995</v>
       </c>
       <c r="K716" t="n">
-        <v>-29.82456140350883</v>
+        <v>-41.17647058823532</v>
       </c>
       <c r="L716" t="n">
         <v>37.40999999999999</v>
@@ -36947,7 +36959,7 @@
         <v>125.0999999999995</v>
       </c>
       <c r="K717" t="n">
-        <v>-18.64406779661027</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L717" t="n">
         <v>37.38</v>
@@ -36998,7 +37010,7 @@
         <v>125.1999999999995</v>
       </c>
       <c r="K718" t="n">
-        <v>-14.28571428571432</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L718" t="n">
         <v>37.34</v>
@@ -37049,7 +37061,7 @@
         <v>125.3999999999995</v>
       </c>
       <c r="K719" t="n">
-        <v>-21.42857142857161</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L719" t="n">
         <v>37.28</v>
@@ -37100,7 +37112,7 @@
         <v>125.4999999999995</v>
       </c>
       <c r="K720" t="n">
-        <v>-16.98113207547177</v>
+        <v>-18.18181818181809</v>
       </c>
       <c r="L720" t="n">
         <v>37.22</v>
@@ -37151,7 +37163,7 @@
         <v>125.7999999999995</v>
       </c>
       <c r="K721" t="n">
-        <v>-9.090909090909138</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L721" t="n">
         <v>37.20999999999999</v>
@@ -37202,7 +37214,7 @@
         <v>126.0999999999995</v>
       </c>
       <c r="K722" t="n">
-        <v>-13.79310344827589</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L722" t="n">
         <v>37.2</v>
@@ -37253,7 +37265,7 @@
         <v>126.3999999999995</v>
       </c>
       <c r="K723" t="n">
-        <v>5.660377358490546</v>
+        <v>33.33333333333356</v>
       </c>
       <c r="L723" t="n">
         <v>37.27999999999999</v>
@@ -37304,7 +37316,7 @@
         <v>126.4999999999995</v>
       </c>
       <c r="K724" t="n">
-        <v>-6.382978723404249</v>
+        <v>30.00000000000028</v>
       </c>
       <c r="L724" t="n">
         <v>37.36</v>
@@ -37355,7 +37367,7 @@
         <v>126.7999999999995</v>
       </c>
       <c r="K725" t="n">
-        <v>-2.040816326530657</v>
+        <v>33.33333333333345</v>
       </c>
       <c r="L725" t="n">
         <v>37.45</v>
@@ -37406,7 +37418,7 @@
         <v>127.0999999999995</v>
       </c>
       <c r="K726" t="n">
-        <v>4.347826086956616</v>
+        <v>0</v>
       </c>
       <c r="L726" t="n">
         <v>37.48999999999999</v>
@@ -37457,7 +37469,7 @@
         <v>127.6999999999995</v>
       </c>
       <c r="K727" t="n">
-        <v>6.382978723404401</v>
+        <v>28.00000000000043</v>
       </c>
       <c r="L727" t="n">
         <v>37.55</v>
@@ -37508,7 +37520,7 @@
         <v>128.6999999999995</v>
       </c>
       <c r="K728" t="n">
-        <v>-12.28070175438597</v>
+        <v>-3.030303030302887</v>
       </c>
       <c r="L728" t="n">
         <v>37.52</v>
@@ -37559,7 +37571,7 @@
         <v>129.2999999999995</v>
       </c>
       <c r="K729" t="n">
-        <v>-1.587301587301621</v>
+        <v>15.78947368421051</v>
       </c>
       <c r="L729" t="n">
         <v>37.56999999999999</v>
@@ -37610,7 +37622,7 @@
         <v>129.3999999999995</v>
       </c>
       <c r="K730" t="n">
-        <v>1.587301587301621</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L730" t="n">
         <v>37.63999999999999</v>
@@ -37661,7 +37673,7 @@
         <v>129.4999999999995</v>
       </c>
       <c r="K731" t="n">
-        <v>3.225806451612855</v>
+        <v>17.64705882352943</v>
       </c>
       <c r="L731" t="n">
         <v>37.66999999999999</v>
@@ -37712,7 +37724,7 @@
         <v>129.6999999999995</v>
       </c>
       <c r="K732" t="n">
-        <v>11.47540983606574</v>
+        <v>15.15151515151536</v>
       </c>
       <c r="L732" t="n">
         <v>37.74999999999999</v>
@@ -37763,7 +37775,7 @@
         <v>129.8999999999995</v>
       </c>
       <c r="K733" t="n">
-        <v>26.31578947368453</v>
+        <v>17.64705882352972</v>
       </c>
       <c r="L733" t="n">
         <v>37.81999999999999</v>
@@ -37814,7 +37826,7 @@
         <v>130.0999999999995</v>
       </c>
       <c r="K734" t="n">
-        <v>20.68965517241411</v>
+        <v>3.030303030303128</v>
       </c>
       <c r="L734" t="n">
         <v>37.85999999999999</v>
@@ -37865,7 +37877,7 @@
         <v>130.2999999999994</v>
       </c>
       <c r="K735" t="n">
-        <v>20.68965517241416</v>
+        <v>18.75000000000044</v>
       </c>
       <c r="L735" t="n">
         <v>37.88999999999999</v>
@@ -37916,7 +37928,7 @@
         <v>130.2999999999994</v>
       </c>
       <c r="K736" t="n">
-        <v>17.85714285714315</v>
+        <v>0</v>
       </c>
       <c r="L736" t="n">
         <v>37.94999999999999</v>
@@ -37967,7 +37979,7 @@
         <v>130.4999999999994</v>
       </c>
       <c r="K737" t="n">
-        <v>7.407407407407529</v>
+        <v>44.44444444444611</v>
       </c>
       <c r="L737" t="n">
         <v>37.92999999999999</v>
@@ -38018,7 +38030,7 @@
         <v>130.7999999999994</v>
       </c>
       <c r="K738" t="n">
-        <v>14.28571428571447</v>
+        <v>33.3333333333346</v>
       </c>
       <c r="L738" t="n">
         <v>38.03999999999999</v>
@@ -38069,7 +38081,7 @@
         <v>131.6999999999994</v>
       </c>
       <c r="K739" t="n">
-        <v>1.587301587301632</v>
+        <v>-21.73913043478304</v>
       </c>
       <c r="L739" t="n">
         <v>37.99999999999999</v>
@@ -38120,7 +38132,7 @@
         <v>132.1999999999994</v>
       </c>
       <c r="K740" t="n">
-        <v>10.44776119402992</v>
+        <v>3.703703703703811</v>
       </c>
       <c r="L740" t="n">
         <v>37.99999999999999</v>
@@ -38171,7 +38183,7 @@
         <v>132.1999999999994</v>
       </c>
       <c r="K741" t="n">
-        <v>6.250000000000055</v>
+        <v>-4.000000000000102</v>
       </c>
       <c r="L741" t="n">
         <v>38.00999999999998</v>
@@ -38222,7 +38234,7 @@
         <v>132.1999999999994</v>
       </c>
       <c r="K742" t="n">
-        <v>11.47540983606565</v>
+        <v>-13.04347826086985</v>
       </c>
       <c r="L742" t="n">
         <v>37.99999999999999</v>
@@ -38273,7 +38285,7 @@
         <v>132.3999999999994</v>
       </c>
       <c r="K743" t="n">
-        <v>3.333333333333429</v>
+        <v>-13.04347826086954</v>
       </c>
       <c r="L743" t="n">
         <v>37.94999999999998</v>
@@ -38324,7 +38336,7 @@
         <v>132.5999999999994</v>
       </c>
       <c r="K744" t="n">
-        <v>4.918032786885273</v>
+        <v>-13.04347826086985</v>
       </c>
       <c r="L744" t="n">
         <v>37.93999999999998</v>
@@ -38375,7 +38387,7 @@
         <v>132.5999999999994</v>
       </c>
       <c r="K745" t="n">
-        <v>0</v>
+        <v>-13.04347826086985</v>
       </c>
       <c r="L745" t="n">
         <v>37.90999999999998</v>
@@ -38426,7 +38438,7 @@
         <v>132.6999999999994</v>
       </c>
       <c r="K746" t="n">
-        <v>3.571428571428553</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L746" t="n">
         <v>37.86999999999998</v>
@@ -38477,7 +38489,7 @@
         <v>132.6999999999994</v>
       </c>
       <c r="K747" t="n">
-        <v>-8.00000000000025</v>
+        <v>-26.31578947368453</v>
       </c>
       <c r="L747" t="n">
         <v>37.84999999999998</v>
@@ -38528,7 +38540,7 @@
         <v>132.7999999999994</v>
       </c>
       <c r="K748" t="n">
-        <v>17.07317073170759</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L748" t="n">
         <v>37.80999999999998</v>
@@ -38579,7 +38591,7 @@
         <v>132.8999999999994</v>
       </c>
       <c r="K749" t="n">
-        <v>0</v>
+        <v>-14.2857142857153</v>
       </c>
       <c r="L749" t="n">
         <v>37.84999999999998</v>
@@ -38630,7 +38642,7 @@
         <v>132.8999999999994</v>
       </c>
       <c r="K750" t="n">
-        <v>-2.857142857142967</v>
+        <v>-14.2857142857153</v>
       </c>
       <c r="L750" t="n">
         <v>37.83999999999999</v>
@@ -38681,7 +38693,7 @@
         <v>132.8999999999994</v>
       </c>
       <c r="K751" t="n">
-        <v>0</v>
+        <v>-14.2857142857153</v>
       </c>
       <c r="L751" t="n">
         <v>37.82999999999999</v>
@@ -38732,7 +38744,7 @@
         <v>132.9999999999994</v>
       </c>
       <c r="K752" t="n">
-        <v>-3.030303030303141</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L752" t="n">
         <v>37.82999999999999</v>
@@ -38783,7 +38795,7 @@
         <v>132.9999999999994</v>
       </c>
       <c r="K753" t="n">
-        <v>-9.677419354839042</v>
+        <v>0</v>
       </c>
       <c r="L753" t="n">
         <v>37.84999999999999</v>
@@ -38834,7 +38846,7 @@
         <v>133.2999999999994</v>
       </c>
       <c r="K754" t="n">
-        <v>-12.50000000000022</v>
+        <v>-42.85714285714489</v>
       </c>
       <c r="L754" t="n">
         <v>37.81999999999999</v>
@@ -38885,7 +38897,7 @@
         <v>133.5999999999994</v>
       </c>
       <c r="K755" t="n">
-        <v>-9.090909090909346</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L755" t="n">
         <v>37.81999999999999</v>
@@ -38936,7 +38948,7 @@
         <v>133.5999999999994</v>
       </c>
       <c r="K756" t="n">
-        <v>-9.090909090909346</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L756" t="n">
         <v>37.82999999999999</v>
@@ -38987,7 +38999,7 @@
         <v>133.6999999999994</v>
       </c>
       <c r="K757" t="n">
-        <v>-6.250000000000167</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L757" t="n">
         <v>37.82999999999999</v>
@@ -39038,7 +39050,7 @@
         <v>133.7999999999994</v>
       </c>
       <c r="K758" t="n">
-        <v>-20.00000000000019</v>
+        <v>-11.11111111111076</v>
       </c>
       <c r="L758" t="n">
         <v>37.80999999999999</v>
@@ -39089,7 +39101,7 @@
         <v>133.8999999999994</v>
       </c>
       <c r="K759" t="n">
-        <v>18.18181818181868</v>
+        <v>0</v>
       </c>
       <c r="L759" t="n">
         <v>37.80999999999999</v>
@@ -39140,7 +39152,7 @@
         <v>133.9999999999994</v>
       </c>
       <c r="K760" t="n">
-        <v>0</v>
+        <v>9.090909090909502</v>
       </c>
       <c r="L760" t="n">
         <v>37.81999999999999</v>
@@ -39191,7 +39203,7 @@
         <v>134.0999999999994</v>
       </c>
       <c r="K761" t="n">
-        <v>-5.263157894737137</v>
+        <v>-9.090909090909502</v>
       </c>
       <c r="L761" t="n">
         <v>37.81999999999999</v>
@@ -39242,7 +39254,7 @@
         <v>134.0999999999994</v>
       </c>
       <c r="K762" t="n">
-        <v>-5.263157894737137</v>
+        <v>-9.090909090909502</v>
       </c>
       <c r="L762" t="n">
         <v>37.80999999999999</v>
@@ -39293,7 +39305,7 @@
         <v>134.0999999999994</v>
       </c>
       <c r="K763" t="n">
-        <v>5.882352941176372</v>
+        <v>25</v>
       </c>
       <c r="L763" t="n">
         <v>37.8</v>
@@ -39344,7 +39356,7 @@
         <v>134.0999999999994</v>
       </c>
       <c r="K764" t="n">
-        <v>-6.666666666667013</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L764" t="n">
         <v>37.81999999999999</v>
@@ -39395,7 +39407,7 @@
         <v>134.0999999999994</v>
       </c>
       <c r="K765" t="n">
-        <v>-6.666666666667013</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L765" t="n">
         <v>37.81</v>
@@ -39497,7 +39509,7 @@
         <v>134.2999999999994</v>
       </c>
       <c r="K767" t="n">
-        <v>12.50000000000044</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L767" t="n">
         <v>37.82</v>
@@ -39548,7 +39560,7 @@
         <v>134.4999999999994</v>
       </c>
       <c r="K768" t="n">
-        <v>-5.882352941176692</v>
+        <v>0</v>
       </c>
       <c r="L768" t="n">
         <v>37.83</v>
@@ -39599,7 +39611,7 @@
         <v>134.5999999999994</v>
       </c>
       <c r="K769" t="n">
-        <v>5.882352941176692</v>
+        <v>0</v>
       </c>
       <c r="L769" t="n">
         <v>37.84</v>
@@ -39650,7 +39662,7 @@
         <v>134.5999999999994</v>
       </c>
       <c r="K770" t="n">
-        <v>5.882352941176692</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L770" t="n">
         <v>37.84</v>
@@ -39701,7 +39713,7 @@
         <v>134.5999999999994</v>
       </c>
       <c r="K771" t="n">
-        <v>5.882352941176692</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L771" t="n">
         <v>37.84999999999999</v>
@@ -39752,7 +39764,7 @@
         <v>134.6999999999994</v>
       </c>
       <c r="K772" t="n">
-        <v>5.882352941176692</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L772" t="n">
         <v>37.86999999999999</v>
@@ -39803,7 +39815,7 @@
         <v>134.7999999999994</v>
       </c>
       <c r="K773" t="n">
-        <v>11.11111111111155</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L773" t="n">
         <v>37.89999999999999</v>
@@ -39854,7 +39866,7 @@
         <v>134.7999999999994</v>
       </c>
       <c r="K774" t="n">
-        <v>33.33333333333396</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L774" t="n">
         <v>37.92999999999999</v>
@@ -39905,7 +39917,7 @@
         <v>134.7999999999994</v>
       </c>
       <c r="K775" t="n">
-        <v>16.66666666666746</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L775" t="n">
         <v>37.95999999999999</v>
@@ -39956,7 +39968,7 @@
         <v>135.0999999999993</v>
       </c>
       <c r="K776" t="n">
-        <v>33.3333333333346</v>
+        <v>50.00000000000266</v>
       </c>
       <c r="L776" t="n">
         <v>38.02</v>
@@ -40007,7 +40019,7 @@
         <v>135.1999999999993</v>
       </c>
       <c r="K777" t="n">
-        <v>46.66666666666863</v>
+        <v>100.0000000000061</v>
       </c>
       <c r="L777" t="n">
         <v>38.06999999999999</v>
@@ -40058,7 +40070,7 @@
         <v>135.2999999999993</v>
       </c>
       <c r="K778" t="n">
-        <v>60.00000000000217</v>
+        <v>100.0000000000061</v>
       </c>
       <c r="L778" t="n">
         <v>38.14999999999999</v>
@@ -40109,7 +40121,7 @@
         <v>135.2999999999993</v>
       </c>
       <c r="K779" t="n">
-        <v>57.14285714285954</v>
+        <v>100.0000000000061</v>
       </c>
       <c r="L779" t="n">
         <v>38.22</v>
@@ -40160,7 +40172,7 @@
         <v>135.2999999999993</v>
       </c>
       <c r="K780" t="n">
-        <v>53.84615384615595</v>
+        <v>100.0000000000061</v>
       </c>
       <c r="L780" t="n">
         <v>38.29000000000001</v>
@@ -40211,7 +40223,7 @@
         <v>135.3999999999993</v>
       </c>
       <c r="K781" t="n">
-        <v>69.2307692307721</v>
+        <v>100.0000000000061</v>
       </c>
       <c r="L781" t="n">
         <v>38.37</v>
@@ -40262,7 +40274,7 @@
         <v>135.4999999999993</v>
       </c>
       <c r="K782" t="n">
-        <v>71.42857142857405</v>
+        <v>100.0000000000051</v>
       </c>
       <c r="L782" t="n">
         <v>38.45</v>
@@ -40313,7 +40325,7 @@
         <v>135.5999999999993</v>
       </c>
       <c r="K783" t="n">
-        <v>73.3333333333362</v>
+        <v>100.0000000000053</v>
       </c>
       <c r="L783" t="n">
         <v>38.53</v>
@@ -40364,7 +40376,7 @@
         <v>135.5999999999993</v>
       </c>
       <c r="K784" t="n">
-        <v>73.3333333333362</v>
+        <v>100.0000000000053</v>
       </c>
       <c r="L784" t="n">
         <v>38.61</v>
@@ -40415,7 +40427,7 @@
         <v>135.9999999999993</v>
       </c>
       <c r="K785" t="n">
-        <v>78.94736842105475</v>
+        <v>100.0000000000024</v>
       </c>
       <c r="L785" t="n">
         <v>38.73</v>
@@ -40466,7 +40478,7 @@
         <v>135.9999999999993</v>
       </c>
       <c r="K786" t="n">
-        <v>78.94736842105475</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L786" t="n">
         <v>38.82</v>
@@ -40517,7 +40529,7 @@
         <v>136.0999999999993</v>
       </c>
       <c r="K787" t="n">
-        <v>77.77777777778088</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L787" t="n">
         <v>38.91</v>
@@ -40568,7 +40580,7 @@
         <v>136.2999999999993</v>
       </c>
       <c r="K788" t="n">
-        <v>77.77777777778128</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L788" t="n">
         <v>38.96999999999999</v>
@@ -40619,7 +40631,7 @@
         <v>136.9999999999993</v>
       </c>
       <c r="K789" t="n">
-        <v>83.3333333333361</v>
+        <v>76.47058823529575</v>
       </c>
       <c r="L789" t="n">
         <v>39.09999999999999</v>
@@ -40670,7 +40682,7 @@
         <v>137.5999999999993</v>
       </c>
       <c r="K790" t="n">
-        <v>46.66666666666794</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L790" t="n">
         <v>39.16999999999999</v>
@@ -40721,7 +40733,7 @@
         <v>137.8999999999993</v>
       </c>
       <c r="K791" t="n">
-        <v>51.51515151515276</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L791" t="n">
         <v>39.25999999999999</v>
@@ -40772,7 +40784,7 @@
         <v>137.9999999999993</v>
       </c>
       <c r="K792" t="n">
-        <v>51.51515151515276</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L792" t="n">
         <v>39.34999999999999</v>
@@ -40823,7 +40835,7 @@
         <v>138.3999999999993</v>
       </c>
       <c r="K793" t="n">
-        <v>33.33333333333379</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L793" t="n">
         <v>39.38999999999999</v>
@@ -40874,7 +40886,7 @@
         <v>138.5999999999993</v>
       </c>
       <c r="K794" t="n">
-        <v>26.31578947368472</v>
+        <v>-7.692307692307629</v>
       </c>
       <c r="L794" t="n">
         <v>39.41</v>
@@ -40925,7 +40937,7 @@
         <v>138.7999999999993</v>
       </c>
       <c r="K795" t="n">
-        <v>30.00000000000053</v>
+        <v>0</v>
       </c>
       <c r="L795" t="n">
         <v>39.41</v>
@@ -40976,7 +40988,7 @@
         <v>139.0999999999993</v>
       </c>
       <c r="K796" t="n">
-        <v>15.00000000000025</v>
+        <v>-13.33333333333341</v>
       </c>
       <c r="L796" t="n">
         <v>39.38</v>
@@ -41027,7 +41039,7 @@
         <v>139.3999999999993</v>
       </c>
       <c r="K797" t="n">
-        <v>19.04761904761916</v>
+        <v>3.225806451612725</v>
       </c>
       <c r="L797" t="n">
         <v>39.37</v>
@@ -41078,7 +41090,7 @@
         <v>140.2999999999993</v>
       </c>
       <c r="K798" t="n">
-        <v>-4.00000000000008</v>
+        <v>-45.4545454545453</v>
       </c>
       <c r="L798" t="n">
         <v>39.29</v>
@@ -41129,7 +41141,7 @@
         <v>140.6999999999993</v>
       </c>
       <c r="K799" t="n">
-        <v>3.70370370370364</v>
+        <v>-16.1290322580644</v>
       </c>
       <c r="L799" t="n">
         <v>39.18</v>
@@ -41180,7 +41192,7 @@
         <v>140.7999999999993</v>
       </c>
       <c r="K800" t="n">
-        <v>1.818181818181853</v>
+        <v>-31.03448275862058</v>
       </c>
       <c r="L800" t="n">
         <v>39.12</v>
@@ -41231,7 +41243,7 @@
         <v>140.8999999999993</v>
       </c>
       <c r="K801" t="n">
-        <v>1.818181818181724</v>
+        <v>-31.03448275862083</v>
       </c>
       <c r="L801" t="n">
         <v>39.04</v>
@@ -41282,7 +41294,7 @@
         <v>140.8999999999993</v>
       </c>
       <c r="K802" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L802" t="n">
         <v>38.95</v>
@@ -41333,7 +41345,7 @@
         <v>140.9999999999993</v>
       </c>
       <c r="K803" t="n">
-        <v>0</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L803" t="n">
         <v>38.91</v>
@@ -41384,7 +41396,7 @@
         <v>141.1999999999993</v>
       </c>
       <c r="K804" t="n">
-        <v>-3.571428571428517</v>
+        <v>-24.9999999999997</v>
       </c>
       <c r="L804" t="n">
         <v>38.86999999999999</v>
@@ -41435,7 +41447,7 @@
         <v>141.3999999999993</v>
       </c>
       <c r="K805" t="n">
-        <v>-7.407407407407451</v>
+        <v>-4.347826086956616</v>
       </c>
       <c r="L805" t="n">
         <v>38.82999999999999</v>
@@ -41486,7 +41498,7 @@
         <v>141.3999999999993</v>
       </c>
       <c r="K806" t="n">
-        <v>-7.407407407407451</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L806" t="n">
         <v>38.81999999999999</v>
@@ -41537,7 +41549,7 @@
         <v>141.3999999999993</v>
       </c>
       <c r="K807" t="n">
-        <v>-9.433962264151024</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L807" t="n">
         <v>38.77999999999999</v>
@@ -41588,7 +41600,7 @@
         <v>141.7999999999993</v>
       </c>
       <c r="K808" t="n">
-        <v>1.818181818181724</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L808" t="n">
         <v>38.86999999999999</v>
@@ -41639,7 +41651,7 @@
         <v>142.3999999999993</v>
       </c>
       <c r="K809" t="n">
-        <v>-22.22222222222224</v>
+        <v>0</v>
       </c>
       <c r="L809" t="n">
         <v>38.85999999999999</v>
@@ -41690,7 +41702,7 @@
         <v>142.3999999999993</v>
       </c>
       <c r="K810" t="n">
-        <v>-12.49999999999993</v>
+        <v>-6.666666666666414</v>
       </c>
       <c r="L810" t="n">
         <v>38.85999999999999</v>
@@ -41741,7 +41753,7 @@
         <v>142.8999999999993</v>
       </c>
       <c r="K811" t="n">
-        <v>-8.000000000000016</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L811" t="n">
         <v>38.89999999999998</v>
@@ -41792,7 +41804,7 @@
         <v>143.0999999999993</v>
       </c>
       <c r="K812" t="n">
-        <v>-5.882352941176594</v>
+        <v>23.8095238095242</v>
       </c>
       <c r="L812" t="n">
         <v>38.95999999999998</v>
@@ -41843,7 +41855,7 @@
         <v>143.1999999999992</v>
       </c>
       <c r="K813" t="n">
-        <v>0</v>
+        <v>30.00000000000014</v>
       </c>
       <c r="L813" t="n">
         <v>38.99999999999999</v>
@@ -41894,7 +41906,7 @@
         <v>143.3999999999992</v>
       </c>
       <c r="K814" t="n">
-        <v>8.333333333333384</v>
+        <v>30.0000000000005</v>
       </c>
       <c r="L814" t="n">
         <v>39.07999999999998</v>
@@ -41945,7 +41957,7 @@
         <v>143.6999999999992</v>
       </c>
       <c r="K815" t="n">
-        <v>-2.040816326530506</v>
+        <v>13.04347826086985</v>
       </c>
       <c r="L815" t="n">
         <v>39.10999999999999</v>
@@ -41996,7 +42008,7 @@
         <v>143.8999999999992</v>
       </c>
       <c r="K816" t="n">
-        <v>8.333333333333384</v>
+        <v>20.00000000000023</v>
       </c>
       <c r="L816" t="n">
         <v>39.15999999999998</v>
@@ -42047,7 +42059,7 @@
         <v>144.0999999999992</v>
       </c>
       <c r="K817" t="n">
-        <v>-2.127659574467995</v>
+        <v>-4.347826086956361</v>
       </c>
       <c r="L817" t="n">
         <v>39.18999999999998</v>
@@ -42098,7 +42110,7 @@
         <v>144.1999999999992</v>
       </c>
       <c r="K818" t="n">
-        <v>17.94871794871839</v>
+        <v>22.2222222222227</v>
       </c>
       <c r="L818" t="n">
         <v>39.16999999999999</v>
@@ -42149,7 +42161,7 @@
         <v>144.2999999999992</v>
       </c>
       <c r="K819" t="n">
-        <v>11.11111111111155</v>
+        <v>26.31578947368492</v>
       </c>
       <c r="L819" t="n">
         <v>39.21999999999998</v>
@@ -42200,7 +42212,7 @@
         <v>144.2999999999992</v>
       </c>
       <c r="K820" t="n">
-        <v>14.28571428571463</v>
+        <v>0</v>
       </c>
       <c r="L820" t="n">
         <v>39.26999999999999</v>
@@ -42251,7 +42263,7 @@
         <v>144.4999999999992</v>
       </c>
       <c r="K821" t="n">
-        <v>5.555555555555775</v>
+        <v>-28.57142857142951</v>
       </c>
       <c r="L821" t="n">
         <v>39.24999999999999</v>
@@ -42302,7 +42314,7 @@
         <v>144.9999999999992</v>
       </c>
       <c r="K822" t="n">
-        <v>17.07317073170777</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L822" t="n">
         <v>39.25999999999999</v>
@@ -42353,7 +42365,7 @@
         <v>145.4999999999992</v>
       </c>
       <c r="K823" t="n">
-        <v>2.222222222222296</v>
+        <v>-23.8095238095242</v>
       </c>
       <c r="L823" t="n">
         <v>39.22999999999999</v>
@@ -42404,7 +42416,7 @@
         <v>145.6999999999992</v>
       </c>
       <c r="K824" t="n">
-        <v>11.11111111111132</v>
+        <v>0</v>
       </c>
       <c r="L824" t="n">
         <v>39.19999999999999</v>
@@ -42455,7 +42467,7 @@
         <v>145.6999999999992</v>
       </c>
       <c r="K825" t="n">
-        <v>6.976744186046731</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L825" t="n">
         <v>39.19999999999999</v>
@@ -42506,7 +42518,7 @@
         <v>145.7999999999992</v>
       </c>
       <c r="K826" t="n">
-        <v>9.090909090909223</v>
+        <v>5.882352941176274</v>
       </c>
       <c r="L826" t="n">
         <v>39.18999999999999</v>
@@ -42557,7 +42569,7 @@
         <v>145.9999999999992</v>
       </c>
       <c r="K827" t="n">
-        <v>13.04347826086977</v>
+        <v>22.22222222222235</v>
       </c>
       <c r="L827" t="n">
         <v>39.21999999999999</v>
@@ -42608,7 +42620,7 @@
         <v>146.2999999999992</v>
       </c>
       <c r="K828" t="n">
-        <v>11.11111111111125</v>
+        <v>29.99999999999972</v>
       </c>
       <c r="L828" t="n">
         <v>39.28999999999999</v>
@@ -42659,7 +42671,7 @@
         <v>146.3999999999992</v>
       </c>
       <c r="K829" t="n">
-        <v>30.00000000000032</v>
+        <v>33.33333333333322</v>
       </c>
       <c r="L829" t="n">
         <v>39.35999999999999</v>
@@ -42710,7 +42722,7 @@
         <v>146.7999999999992</v>
       </c>
       <c r="K830" t="n">
-        <v>18.18181818181833</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L830" t="n">
         <v>39.38999999999999</v>
@@ -42761,7 +42773,7 @@
         <v>146.9999999999992</v>
       </c>
       <c r="K831" t="n">
-        <v>12.1951219512197</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L831" t="n">
         <v>39.45999999999999</v>
@@ -42812,7 +42824,7 @@
         <v>146.9999999999992</v>
       </c>
       <c r="K832" t="n">
-        <v>7.692307692307902</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L832" t="n">
         <v>39.47999999999999</v>
@@ -42863,7 +42875,7 @@
         <v>147.0999999999992</v>
       </c>
       <c r="K833" t="n">
-        <v>7.692307692307902</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L833" t="n">
         <v>39.53999999999999</v>
@@ -42914,7 +42926,7 @@
         <v>147.0999999999992</v>
       </c>
       <c r="K834" t="n">
-        <v>2.70270270270277</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L834" t="n">
         <v>39.58</v>
@@ -42965,7 +42977,7 @@
         <v>147.2999999999992</v>
       </c>
       <c r="K835" t="n">
-        <v>5.55555555555549</v>
+        <v>6.666666666666635</v>
       </c>
       <c r="L835" t="n">
         <v>39.59999999999999</v>
@@ -43016,7 +43028,7 @@
         <v>147.3999999999992</v>
       </c>
       <c r="K836" t="n">
-        <v>-2.857142857142921</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L836" t="n">
         <v>39.59999999999999</v>
@@ -43067,7 +43079,7 @@
         <v>147.3999999999992</v>
       </c>
       <c r="K837" t="n">
-        <v>3.030303030302874</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L837" t="n">
         <v>39.58</v>
@@ -43118,7 +43130,7 @@
         <v>147.4999999999992</v>
       </c>
       <c r="K838" t="n">
-        <v>9.090909090909053</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L838" t="n">
         <v>39.53999999999999</v>
@@ -43169,7 +43181,7 @@
         <v>147.5999999999992</v>
       </c>
       <c r="K839" t="n">
-        <v>9.090909090909053</v>
+        <v>0</v>
       </c>
       <c r="L839" t="n">
         <v>39.49999999999999</v>
@@ -43220,7 +43232,7 @@
         <v>147.6999999999992</v>
       </c>
       <c r="K840" t="n">
-        <v>11.76470588235298</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L840" t="n">
         <v>39.51</v>
@@ -43271,7 +43283,7 @@
         <v>147.9999999999992</v>
       </c>
       <c r="K841" t="n">
-        <v>25.71428571428567</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L841" t="n">
         <v>39.52999999999999</v>
@@ -43322,7 +43334,7 @@
         <v>148.1999999999992</v>
       </c>
       <c r="K842" t="n">
-        <v>18.75000000000011</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L842" t="n">
         <v>39.57</v>
@@ -43373,7 +43385,7 @@
         <v>148.3999999999992</v>
       </c>
       <c r="K843" t="n">
-        <v>31.03448275862089</v>
+        <v>23.07692307692316</v>
       </c>
       <c r="L843" t="n">
         <v>39.59999999999999</v>
@@ -43424,7 +43436,7 @@
         <v>148.5999999999992</v>
       </c>
       <c r="K844" t="n">
-        <v>17.24137931034496</v>
+        <v>23.07692307692421</v>
       </c>
       <c r="L844" t="n">
         <v>39.60999999999999</v>
@@ -43475,7 +43487,7 @@
         <v>149.1999999999992</v>
       </c>
       <c r="K845" t="n">
-        <v>31.42857142857152</v>
+        <v>55.55555555555696</v>
       </c>
       <c r="L845" t="n">
         <v>39.7</v>
@@ -43526,7 +43538,7 @@
         <v>149.2999999999992</v>
       </c>
       <c r="K846" t="n">
-        <v>25.71428571428608</v>
+        <v>47.36842105263315</v>
       </c>
       <c r="L846" t="n">
         <v>39.78999999999999</v>
@@ -43577,7 +43589,7 @@
         <v>149.4999999999991</v>
       </c>
       <c r="K847" t="n">
-        <v>14.28571428571452</v>
+        <v>30.00000000000093</v>
       </c>
       <c r="L847" t="n">
         <v>39.85999999999999</v>
@@ -43628,7 +43640,7 @@
         <v>149.6999999999991</v>
       </c>
       <c r="K848" t="n">
-        <v>11.76470588235338</v>
+        <v>33.33333333333447</v>
       </c>
       <c r="L848" t="n">
         <v>39.93999999999999</v>
@@ -43679,7 +43691,7 @@
         <v>150.0999999999991</v>
       </c>
       <c r="K849" t="n">
-        <v>18.91891891891935</v>
+        <v>41.66666666666756</v>
       </c>
       <c r="L849" t="n">
         <v>40.05</v>
@@ -43730,7 +43742,7 @@
         <v>150.9999999999991</v>
       </c>
       <c r="K850" t="n">
-        <v>47.61904761904839</v>
+        <v>53.33333333333439</v>
       </c>
       <c r="L850" t="n">
         <v>40.23999999999999</v>
@@ -43781,7 +43793,7 @@
         <v>151.2999999999992</v>
       </c>
       <c r="K851" t="n">
-        <v>34.88372093023293</v>
+        <v>35.48387096774237</v>
       </c>
       <c r="L851" t="n">
         <v>40.36999999999999</v>
@@ -43832,7 +43844,7 @@
         <v>151.3999999999992</v>
       </c>
       <c r="K852" t="n">
-        <v>36.36363636363666</v>
+        <v>46.66666666666706</v>
       </c>
       <c r="L852" t="n">
         <v>40.48999999999999</v>
@@ -43883,7 +43895,7 @@
         <v>151.5999999999992</v>
       </c>
       <c r="K853" t="n">
-        <v>42.22222222222246</v>
+        <v>59.99999999999991</v>
       </c>
       <c r="L853" t="n">
         <v>40.64999999999999</v>
@@ -43934,7 +43946,7 @@
         <v>152.8999999999992</v>
       </c>
       <c r="K854" t="n">
-        <v>55.17241379310354</v>
+        <v>67.56756756756725</v>
       </c>
       <c r="L854" t="n">
         <v>40.95999999999999</v>
@@ -43985,7 +43997,7 @@
         <v>152.9999999999992</v>
       </c>
       <c r="K855" t="n">
-        <v>61.40350877193025</v>
+        <v>72.97297297297251</v>
       </c>
       <c r="L855" t="n">
         <v>41.21999999999999</v>
@@ -44036,7 +44048,7 @@
         <v>153.1999999999992</v>
       </c>
       <c r="K856" t="n">
-        <v>58.62068965517297</v>
+        <v>72.97297297297271</v>
       </c>
       <c r="L856" t="n">
         <v>41.46999999999999</v>
@@ -44087,7 +44099,7 @@
         <v>153.1999999999992</v>
       </c>
       <c r="K857" t="n">
-        <v>58.62068965517297</v>
+        <v>71.42857142857085</v>
       </c>
       <c r="L857" t="n">
         <v>41.73999999999999</v>
@@ -44138,7 +44150,7 @@
         <v>153.4999999999992</v>
       </c>
       <c r="K858" t="n">
-        <v>50.00000000000023</v>
+        <v>52.94117647058763</v>
       </c>
       <c r="L858" t="n">
         <v>41.95999999999999</v>
@@ -44189,7 +44201,7 @@
         <v>153.7999999999992</v>
       </c>
       <c r="K859" t="n">
-        <v>41.93548387096804</v>
+        <v>21.42857142857139</v>
       </c>
       <c r="L859" t="n">
         <v>42.10999999999999</v>
@@ -44240,7 +44252,7 @@
         <v>154.0999999999992</v>
       </c>
       <c r="K860" t="n">
-        <v>43.75000000000011</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L860" t="n">
         <v>42.19999999999999</v>
@@ -44291,7 +44303,7 @@
         <v>154.7999999999992</v>
       </c>
       <c r="K861" t="n">
-        <v>26.47058823529436</v>
+        <v>11.76470588235309</v>
       </c>
       <c r="L861" t="n">
         <v>42.24999999999999</v>
@@ -44342,7 +44354,7 @@
         <v>155.7999999999992</v>
       </c>
       <c r="K862" t="n">
-        <v>7.894736842105317</v>
+        <v>-19.04761904761903</v>
       </c>
       <c r="L862" t="n">
         <v>42.18999999999998</v>
@@ -44393,7 +44405,7 @@
         <v>155.8999999999992</v>
       </c>
       <c r="K863" t="n">
-        <v>9.333333333333407</v>
+        <v>-73.33333333333388</v>
       </c>
       <c r="L863" t="n">
         <v>42.09999999999999</v>
@@ -44444,7 +44456,7 @@
         <v>155.9999999999991</v>
       </c>
       <c r="K864" t="n">
-        <v>10.81081081081081</v>
+        <v>-80.00000000000071</v>
       </c>
       <c r="L864" t="n">
         <v>41.86999999999999</v>
@@ -44495,7 +44507,7 @@
         <v>156.0999999999991</v>
       </c>
       <c r="K865" t="n">
-        <v>1.449275362318866</v>
+        <v>-79.31034482758697</v>
       </c>
       <c r="L865" t="n">
         <v>41.61999999999999</v>
@@ -44546,7 +44558,7 @@
         <v>156.0999999999991</v>
       </c>
       <c r="K866" t="n">
-        <v>2.94117647058818</v>
+        <v>-79.31034482758697</v>
       </c>
       <c r="L866" t="n">
         <v>41.38999999999999</v>
@@ -44597,7 +44609,7 @@
         <v>156.1999999999991</v>
       </c>
       <c r="K867" t="n">
-        <v>7.462686567164193</v>
+        <v>-70.37037037037136</v>
       </c>
       <c r="L867" t="n">
         <v>41.16999999999999</v>
@@ -44648,7 +44660,7 @@
         <v>156.2999999999991</v>
       </c>
       <c r="K868" t="n">
-        <v>6.060606060606045</v>
+        <v>-60.00000000000069</v>
       </c>
       <c r="L868" t="n">
         <v>40.98999999999999</v>
@@ -44699,7 +44711,7 @@
         <v>156.3999999999991</v>
       </c>
       <c r="K869" t="n">
-        <v>1.587301587301614</v>
+        <v>-73.91304347826214</v>
       </c>
       <c r="L869" t="n">
         <v>40.84999999999999</v>
@@ -44750,7 +44762,7 @@
         <v>156.4999999999991</v>
       </c>
       <c r="K870" t="n">
-        <v>-12.72727272727285</v>
+        <v>-52.94117647058981</v>
       </c>
       <c r="L870" t="n">
         <v>40.68999999999999</v>
@@ -44801,7 +44813,7 @@
         <v>156.6999999999991</v>
       </c>
       <c r="K871" t="n">
-        <v>-11.11111111111124</v>
+        <v>-11.1111111111119</v>
       </c>
       <c r="L871" t="n">
         <v>40.58</v>
@@ -44852,7 +44864,7 @@
         <v>156.6999999999991</v>
       </c>
       <c r="K872" t="n">
-        <v>-13.20754716981135</v>
+        <v>0</v>
       </c>
       <c r="L872" t="n">
         <v>40.57</v>
@@ -44903,7 +44915,7 @@
         <v>156.7999999999991</v>
       </c>
       <c r="K873" t="n">
-        <v>-19.23076923076949</v>
+        <v>0</v>
       </c>
       <c r="L873" t="n">
         <v>40.56</v>
@@ -44954,7 +44966,7 @@
         <v>156.7999999999991</v>
       </c>
       <c r="K874" t="n">
-        <v>-58.97435897436011</v>
+        <v>14.2857142857153</v>
       </c>
       <c r="L874" t="n">
         <v>40.56</v>
@@ -45005,7 +45017,7 @@
         <v>156.8999999999991</v>
       </c>
       <c r="K875" t="n">
-        <v>-64.10256410256541</v>
+        <v>0</v>
       </c>
       <c r="L875" t="n">
         <v>40.56</v>
@@ -45056,7 +45068,7 @@
         <v>156.9999999999991</v>
       </c>
       <c r="K876" t="n">
-        <v>-57.89473684210647</v>
+        <v>0</v>
       </c>
       <c r="L876" t="n">
         <v>40.57</v>
@@ -45107,7 +45119,7 @@
         <v>157.0999999999991</v>
       </c>
       <c r="K877" t="n">
-        <v>-58.97435897436029</v>
+        <v>-25.00000000000178</v>
       </c>
       <c r="L877" t="n">
         <v>40.56</v>
@@ -45158,7 +45170,7 @@
         <v>157.4999999999991</v>
       </c>
       <c r="K878" t="n">
-        <v>-40.00000000000089</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L878" t="n">
         <v>40.58</v>
@@ -45209,7 +45221,7 @@
         <v>157.4999999999991</v>
       </c>
       <c r="K879" t="n">
-        <v>-35.1351351351359</v>
+        <v>0</v>
       </c>
       <c r="L879" t="n">
         <v>40.59</v>
@@ -45260,7 +45272,7 @@
         <v>157.8999999999991</v>
       </c>
       <c r="K880" t="n">
-        <v>-52.63157894736944</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L880" t="n">
         <v>40.55</v>
@@ -45311,7 +45323,7 @@
         <v>157.9999999999991</v>
       </c>
       <c r="K881" t="n">
-        <v>-37.50000000000089</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L881" t="n">
         <v>40.53999999999999</v>
@@ -45362,7 +45374,7 @@
         <v>158.0999999999991</v>
       </c>
       <c r="K882" t="n">
-        <v>-13.04347826087017</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L882" t="n">
         <v>40.51999999999999</v>
@@ -45413,7 +45425,7 @@
         <v>158.0999999999991</v>
       </c>
       <c r="K883" t="n">
-        <v>-9.090909090909502</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L883" t="n">
         <v>40.50999999999998</v>
@@ -45464,7 +45476,7 @@
         <v>158.1999999999991</v>
       </c>
       <c r="K884" t="n">
-        <v>-9.090909090909502</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L884" t="n">
         <v>40.48999999999999</v>
@@ -45515,7 +45527,7 @@
         <v>158.1999999999991</v>
       </c>
       <c r="K885" t="n">
-        <v>-4.761904761904971</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L885" t="n">
         <v>40.47999999999999</v>
@@ -45566,7 +45578,7 @@
         <v>158.1999999999991</v>
       </c>
       <c r="K886" t="n">
-        <v>-4.761904761904971</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L886" t="n">
         <v>40.45999999999999</v>
@@ -45617,7 +45629,7 @@
         <v>158.1999999999991</v>
       </c>
       <c r="K887" t="n">
-        <v>-10.00000000000043</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L887" t="n">
         <v>40.45</v>
@@ -45668,7 +45680,7 @@
         <v>158.5999999999991</v>
       </c>
       <c r="K888" t="n">
-        <v>4.34782608695667</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L888" t="n">
         <v>40.43999999999999</v>
@@ -45719,7 +45731,7 @@
         <v>158.5999999999991</v>
       </c>
       <c r="K889" t="n">
-        <v>0</v>
+        <v>42.85714285714416</v>
       </c>
       <c r="L889" t="n">
         <v>40.42999999999999</v>
@@ -45770,7 +45782,7 @@
         <v>158.5999999999991</v>
       </c>
       <c r="K890" t="n">
-        <v>-4.761904761904569</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L890" t="n">
         <v>40.45999999999999</v>
@@ -45821,7 +45833,7 @@
         <v>158.9999999999991</v>
       </c>
       <c r="K891" t="n">
-        <v>-13.04347826086985</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L891" t="n">
         <v>40.43999999999999</v>
@@ -45872,7 +45884,7 @@
         <v>159.5999999999991</v>
       </c>
       <c r="K892" t="n">
-        <v>-31.03448275862089</v>
+        <v>-46.66666666666639</v>
       </c>
       <c r="L892" t="n">
         <v>40.36999999999999</v>
@@ -45923,7 +45935,7 @@
         <v>159.8999999999991</v>
       </c>
       <c r="K893" t="n">
-        <v>-35.48387096774205</v>
+        <v>-52.94117647058763</v>
       </c>
       <c r="L893" t="n">
         <v>40.27</v>
@@ -45974,7 +45986,7 @@
         <v>159.8999999999991</v>
       </c>
       <c r="K894" t="n">
-        <v>-35.48387096774205</v>
+        <v>-52.94117647058763</v>
       </c>
       <c r="L894" t="n">
         <v>40.17999999999999</v>
@@ -46025,7 +46037,7 @@
         <v>160.3999999999991</v>
       </c>
       <c r="K895" t="n">
-        <v>-14.28571428571428</v>
+        <v>-18.18181818181798</v>
       </c>
       <c r="L895" t="n">
         <v>40.13999999999999</v>
@@ -46076,7 +46088,7 @@
         <v>160.3999999999991</v>
       </c>
       <c r="K896" t="n">
-        <v>-17.64705882352942</v>
+        <v>-18.18181818181798</v>
       </c>
       <c r="L896" t="n">
         <v>40.09999999999998</v>
@@ -46127,7 +46139,7 @@
         <v>160.4999999999991</v>
       </c>
       <c r="K897" t="n">
-        <v>-11.76470588235288</v>
+        <v>-36.84210526315793</v>
       </c>
       <c r="L897" t="n">
         <v>40.06999999999998</v>
@@ -46178,7 +46190,7 @@
         <v>160.5999999999991</v>
       </c>
       <c r="K898" t="n">
-        <v>-22.58064516129023</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L898" t="n">
         <v>40.00999999999998</v>
@@ -46229,7 +46241,7 @@
         <v>160.5999999999991</v>
       </c>
       <c r="K899" t="n">
-        <v>-22.58064516129023</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L899" t="n">
         <v>39.94999999999999</v>
@@ -46280,7 +46292,7 @@
         <v>160.6999999999991</v>
       </c>
       <c r="K900" t="n">
-        <v>-14.28571428571432</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L900" t="n">
         <v>39.87999999999999</v>
@@ -46331,7 +46343,7 @@
         <v>160.7999999999991</v>
       </c>
       <c r="K901" t="n">
-        <v>-14.28571428571432</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L901" t="n">
         <v>39.85999999999999</v>
@@ -46382,7 +46394,7 @@
         <v>160.7999999999991</v>
       </c>
       <c r="K902" t="n">
-        <v>-11.11111111111105</v>
+        <v>77.77777777778006</v>
       </c>
       <c r="L902" t="n">
         <v>39.89999999999999</v>
@@ -46433,7 +46445,7 @@
         <v>160.7999999999991</v>
       </c>
       <c r="K903" t="n">
-        <v>-11.11111111111105</v>
+        <v>77.77777777778006</v>
       </c>
       <c r="L903" t="n">
         <v>39.97</v>
@@ -46484,7 +46496,7 @@
         <v>160.8999999999991</v>
       </c>
       <c r="K904" t="n">
-        <v>-3.703703703703508</v>
+        <v>60.00000000000426</v>
       </c>
       <c r="L904" t="n">
         <v>40.05</v>

--- a/BackTest/2019-10-22 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-22 BackTest LAMB.xlsx
@@ -451,17 +451,13 @@
         <v>33.38666666666668</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>33.3</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>33.37500000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>33.36000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>33.35500000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>33.34833333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>33.33666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>33.32000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>33.30666666666668</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>33.30333333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>33.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>33.29833333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>33.28833333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>33.285</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>33.27500000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>33.26666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>33.26166666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>33.25500000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>33.25000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>33.25166666666668</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>33.24333333333335</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>33.23000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>33.22166666666668</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>33.21166666666668</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K24" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>33.20166666666668</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>33.19166666666668</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>33.18166666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>33.175</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>33.16333333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>33.14500000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>33.12666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>33.11666666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>33.10666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>33.09500000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>33.08000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>33.06666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>33</v>
-      </c>
-      <c r="K36" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>33.055</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>33.04333333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>33</v>
-      </c>
-      <c r="K38" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>33.03333333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>33.02333333333334</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>33</v>
-      </c>
-      <c r="K40" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +1816,14 @@
         <v>33.01500000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>33</v>
-      </c>
-      <c r="K41" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +1851,14 @@
         <v>33.01000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>33</v>
-      </c>
-      <c r="K42" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +1886,14 @@
         <v>33.00500000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K43" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +1921,14 @@
         <v>33.00500000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>33</v>
-      </c>
-      <c r="K44" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +1956,14 @@
         <v>33.00500000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>33</v>
-      </c>
-      <c r="K45" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +1991,14 @@
         <v>33.01333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>33</v>
-      </c>
-      <c r="K46" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2026,14 @@
         <v>33.02166666666668</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2425,22 +2061,14 @@
         <v>33.03666666666668</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2096,14 @@
         <v>33.04333333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>33</v>
-      </c>
-      <c r="K49" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2511,22 +2131,14 @@
         <v>33.05166666666668</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2554,22 +2166,14 @@
         <v>33.06666666666668</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2597,22 +2201,14 @@
         <v>33.07333333333334</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>33</v>
-      </c>
-      <c r="K52" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2236,14 @@
         <v>33.08333333333335</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>33</v>
-      </c>
-      <c r="K53" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2683,22 +2271,14 @@
         <v>33.08166666666668</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2306,14 @@
         <v>33.09000000000002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2769,22 +2341,14 @@
         <v>33.09500000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K56" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2376,14 @@
         <v>33.10166666666668</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2855,22 +2411,14 @@
         <v>33.11166666666669</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2446,14 @@
         <v>33.11000000000002</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K59" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2941,22 +2481,14 @@
         <v>33.10833333333336</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2984,22 +2516,14 @@
         <v>33.10666666666669</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K61" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3027,22 +2551,14 @@
         <v>33.10500000000003</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +2586,14 @@
         <v>33.10333333333336</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3113,22 +2621,14 @@
         <v>33.10166666666669</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +2656,14 @@
         <v>33.09000000000002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3199,22 +2691,14 @@
         <v>33.08166666666669</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>33</v>
-      </c>
-      <c r="K66" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3242,22 +2726,14 @@
         <v>33.0766666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K67" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3285,22 +2761,14 @@
         <v>33.08333333333336</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K68" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3328,22 +2796,14 @@
         <v>33.08833333333336</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K69" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3371,22 +2831,14 @@
         <v>33.08500000000003</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K70" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3414,22 +2866,14 @@
         <v>33.08000000000003</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K71" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3457,22 +2901,14 @@
         <v>33.07500000000003</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K72" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +2936,14 @@
         <v>33.0766666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K73" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3543,22 +2971,14 @@
         <v>33.07500000000003</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3006,14 @@
         <v>33.07500000000003</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3629,22 +3041,14 @@
         <v>33.07333333333337</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K76" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3076,14 @@
         <v>33.07500000000003</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3715,22 +3111,14 @@
         <v>33.0766666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K78" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3146,14 @@
         <v>33.08000000000003</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K79" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3181,14 @@
         <v>33.08666666666669</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K80" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3216,14 @@
         <v>33.0966666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3887,22 +3251,14 @@
         <v>33.1066666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K82" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +3286,14 @@
         <v>33.11500000000003</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K83" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3973,22 +3321,14 @@
         <v>33.12500000000003</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K84" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -4016,22 +3356,14 @@
         <v>33.13500000000003</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K85" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4059,22 +3391,14 @@
         <v>33.14833333333336</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K86" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4102,22 +3426,14 @@
         <v>33.16000000000003</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K87" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4145,22 +3461,14 @@
         <v>33.1716666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K88" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4188,22 +3496,14 @@
         <v>33.18333333333337</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K89" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4231,22 +3531,14 @@
         <v>33.1966666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4274,22 +3566,14 @@
         <v>33.2116666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K91" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4317,22 +3601,14 @@
         <v>33.22000000000003</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K92" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4360,22 +3636,14 @@
         <v>33.22333333333336</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K93" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4403,22 +3671,14 @@
         <v>33.23000000000003</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K94" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4446,22 +3706,14 @@
         <v>33.2316666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4489,22 +3741,14 @@
         <v>33.23500000000003</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4532,22 +3776,14 @@
         <v>33.24000000000004</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4575,22 +3811,14 @@
         <v>33.24833333333337</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4618,22 +3846,14 @@
         <v>33.25333333333337</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4661,22 +3881,14 @@
         <v>33.2616666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K100" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4704,22 +3916,14 @@
         <v>33.27000000000003</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="K101" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4747,22 +3951,14 @@
         <v>33.2816666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="K102" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4790,22 +3986,14 @@
         <v>33.3016666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="K103" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4833,22 +4021,14 @@
         <v>33.32000000000003</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>34</v>
-      </c>
-      <c r="K104" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4876,22 +4056,14 @@
         <v>33.33833333333336</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="K105" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -5048,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5130,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5171,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5212,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5253,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5335,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5376,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5417,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5499,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5540,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5704,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5827,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5868,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5909,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5950,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5991,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -6032,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -6073,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6114,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6155,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6196,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6237,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6278,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6319,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6360,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6401,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6442,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6483,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6524,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6565,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6606,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6647,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6688,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6729,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6770,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6811,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6975,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -7016,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -7098,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7139,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7180,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7221,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7262,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7303,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7344,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7385,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7426,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7467,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7508,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7549,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7590,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7631,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7672,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7713,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7754,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7795,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7836,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7877,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7918,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7959,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -8000,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -8041,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -8082,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -8123,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8164,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8205,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8246,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8287,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8328,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8369,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8410,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8451,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8492,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8533,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8574,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8615,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8656,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8697,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8738,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8779,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8820,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8861,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8902,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8943,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8984,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -9025,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -9066,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -9107,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -9148,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9189,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9230,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9271,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9312,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9353,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9394,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9435,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9476,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9517,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9558,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9599,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9640,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9681,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9722,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9763,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9804,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9845,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9886,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9927,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9968,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -10009,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -10050,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -10091,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -10132,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -10173,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10214,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10255,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10296,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10337,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10378,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10419,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10460,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10498,17 +8854,11 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10542,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10583,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10624,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10665,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10747,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10788,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10829,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10870,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10911,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10952,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10993,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -11034,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -11075,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -11116,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -11157,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11198,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11239,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11280,14 +9522,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11321,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11362,14 +9592,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11403,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11444,14 +9662,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11485,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11526,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11567,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11608,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11649,14 +9837,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11690,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11731,14 +9907,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11772,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11813,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11854,14 +10012,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11895,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11936,14 +10082,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11977,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -12018,14 +10152,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -12059,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -12100,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -12141,14 +10257,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -12182,14 +10292,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -12223,14 +10327,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -12264,14 +10362,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -12305,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -12346,14 +10432,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -12387,14 +10467,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -12428,14 +10502,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -12469,14 +10537,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -12510,14 +10572,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12551,14 +10607,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12592,14 +10642,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12633,14 +10677,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12674,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12715,14 +10747,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12756,14 +10782,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12797,14 +10817,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12838,14 +10852,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12879,14 +10887,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12920,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12961,14 +10957,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -13002,14 +10992,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -13043,14 +11027,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -13084,14 +11062,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -13125,14 +11097,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -13163,19 +11129,13 @@
         <v>0</v>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
-        <v>1.20521021021021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -13204,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
@@ -13239,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -13274,7 +11234,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
@@ -27481,13 +25441,17 @@
         <v>38.58000000000003</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>37</v>
+      </c>
+      <c r="K716" t="n">
+        <v>37</v>
+      </c>
       <c r="L716" t="inlineStr"/>
       <c r="M716" t="n">
         <v>1</v>
@@ -27516,14 +25480,22 @@
         <v>38.56000000000003</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K717" t="n">
+        <v>37</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -27551,14 +25523,22 @@
         <v>38.53833333333336</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K718" t="n">
+        <v>37</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -27586,14 +25566,22 @@
         <v>38.51000000000003</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K719" t="n">
+        <v>37</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27621,14 +25609,22 @@
         <v>38.48166666666669</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="K720" t="n">
+        <v>37</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -27656,14 +25652,22 @@
         <v>38.46666666666669</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K721" t="n">
+        <v>37</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -27691,14 +25695,22 @@
         <v>38.44666666666669</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
       </c>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K722" t="n">
+        <v>37</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -27726,14 +25738,22 @@
         <v>38.43166666666669</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="K723" t="n">
+        <v>37</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -27761,14 +25781,22 @@
         <v>38.41833333333334</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
       </c>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K724" t="n">
+        <v>37</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -27796,14 +25824,22 @@
         <v>38.41000000000001</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
       </c>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K725" t="n">
+        <v>37</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27831,14 +25867,22 @@
         <v>38.39333333333335</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="K726" t="n">
+        <v>37</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27866,14 +25910,22 @@
         <v>38.38666666666668</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K727" t="n">
+        <v>37</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -27907,8 +25959,14 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>37</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27942,8 +26000,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>37</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27977,8 +26041,14 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>37</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -28012,8 +26082,14 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>37</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -28047,8 +26123,14 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>37</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -28082,8 +26164,14 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>37</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -28117,8 +26205,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>37</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -28152,8 +26246,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>37</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -28187,8 +26287,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>37</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -28222,8 +26328,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>37</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -28257,8 +26369,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>37</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -28292,8 +26410,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>37</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -28327,8 +26451,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>37</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -28362,8 +26492,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>37</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -28397,8 +26533,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>37</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -28432,8 +26574,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>37</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -28467,8 +26615,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>37</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -28502,8 +26656,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>37</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -28537,8 +26697,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>37</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -28572,8 +26738,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>37</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -28607,8 +26779,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>37</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -28642,8 +26820,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>37</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -28677,8 +26861,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>37</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -28712,8 +26902,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>37</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -28747,8 +26943,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>37</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -28782,8 +26984,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>37</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28817,8 +27025,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>37</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28852,8 +27066,14 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>37</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -28887,8 +27107,14 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>37</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -28922,8 +27148,14 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>37</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -28957,8 +27189,14 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>37</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -28992,8 +27230,14 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>37</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -29027,8 +27271,14 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>37</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -29062,8 +27312,14 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>37</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -29097,8 +27353,14 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>37</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -29132,8 +27394,14 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>37</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -29167,8 +27435,14 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>37</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -29202,8 +27476,14 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>37</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -29237,8 +27517,14 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>37</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -29272,8 +27558,14 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>37</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -29307,8 +27599,14 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>37</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -29342,8 +27640,14 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>37</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -29377,8 +27681,14 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>37</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -29412,8 +27722,14 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>37</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -29447,8 +27763,14 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>37</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -29482,8 +27804,14 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>37</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -29517,8 +27845,14 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>37</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -29552,8 +27886,14 @@
         <v>0</v>
       </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="K775" t="n">
+        <v>37</v>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -29587,8 +27927,14 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>37</v>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -29622,8 +27968,14 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>37</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -29657,8 +28009,14 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>37</v>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -29692,8 +28050,14 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>37</v>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -29727,8 +28091,14 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>37</v>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -29762,8 +28132,14 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>37</v>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -29797,8 +28173,14 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>37</v>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -29832,8 +28214,14 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>37</v>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -29867,8 +28255,14 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="K784" t="n">
+        <v>37</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -29902,8 +28296,14 @@
         <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="K785" t="n">
+        <v>37</v>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -29937,8 +28337,14 @@
         <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="K786" t="n">
+        <v>37</v>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -29972,8 +28378,14 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="K787" t="n">
+        <v>37</v>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -30007,8 +28419,14 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="K788" t="n">
+        <v>37</v>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -30042,8 +28460,14 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="K789" t="n">
+        <v>37</v>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -30077,8 +28501,14 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="K790" t="n">
+        <v>37</v>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -30112,8 +28542,14 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="K791" t="n">
+        <v>37</v>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -30147,8 +28583,14 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>37</v>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -30182,8 +28624,14 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>37</v>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -30217,8 +28665,14 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>37</v>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -30252,8 +28706,14 @@
         <v>0</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>37</v>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -30287,8 +28747,14 @@
         <v>0</v>
       </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="K796" t="n">
+        <v>37</v>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -30322,8 +28788,14 @@
         <v>0</v>
       </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="K797" t="n">
+        <v>37</v>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -30357,8 +28829,14 @@
         <v>0</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="K798" t="n">
+        <v>37</v>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -30392,8 +28870,14 @@
         <v>0</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="K799" t="n">
+        <v>37</v>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -30427,8 +28911,14 @@
         <v>0</v>
       </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="K800" t="n">
+        <v>37</v>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -30462,8 +28952,14 @@
         <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>37</v>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -30497,8 +28993,14 @@
         <v>0</v>
       </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>37</v>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -30532,8 +29034,14 @@
         <v>0</v>
       </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>37</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -30567,8 +29075,14 @@
         <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>37</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -30602,8 +29116,14 @@
         <v>0</v>
       </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>37</v>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -30637,8 +29157,14 @@
         <v>0</v>
       </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>37</v>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -30672,8 +29198,14 @@
         <v>0</v>
       </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>37</v>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -30707,8 +29239,14 @@
         <v>0</v>
       </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>37</v>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -30742,8 +29280,14 @@
         <v>0</v>
       </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>37</v>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -30777,8 +29321,14 @@
         <v>0</v>
       </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>37</v>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -30812,8 +29362,14 @@
         <v>0</v>
       </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>37</v>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -30847,8 +29403,14 @@
         <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>37</v>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -30882,8 +29444,14 @@
         <v>0</v>
       </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="K813" t="n">
+        <v>37</v>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -30917,8 +29485,14 @@
         <v>0</v>
       </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="K814" t="n">
+        <v>37</v>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -30952,8 +29526,14 @@
         <v>0</v>
       </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="K815" t="n">
+        <v>37</v>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -30987,8 +29567,14 @@
         <v>0</v>
       </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="K816" t="n">
+        <v>37</v>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -31022,8 +29608,14 @@
         <v>0</v>
       </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="K817" t="n">
+        <v>37</v>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -31057,8 +29649,14 @@
         <v>0</v>
       </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="K818" t="n">
+        <v>37</v>
+      </c>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -31092,8 +29690,14 @@
         <v>0</v>
       </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="K819" t="n">
+        <v>37</v>
+      </c>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -31127,8 +29731,14 @@
         <v>0</v>
       </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="K820" t="n">
+        <v>37</v>
+      </c>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -31162,8 +29772,14 @@
         <v>0</v>
       </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="K821" t="n">
+        <v>37</v>
+      </c>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -31197,8 +29813,14 @@
         <v>0</v>
       </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="K822" t="n">
+        <v>37</v>
+      </c>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -31232,8 +29854,14 @@
         <v>0</v>
       </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="K823" t="n">
+        <v>37</v>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -31267,8 +29895,14 @@
         <v>0</v>
       </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="K824" t="n">
+        <v>37</v>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -31302,8 +29936,14 @@
         <v>0</v>
       </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="K825" t="n">
+        <v>37</v>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -31337,8 +29977,14 @@
         <v>0</v>
       </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="K826" t="n">
+        <v>37</v>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -31372,8 +30018,14 @@
         <v>0</v>
       </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="K827" t="n">
+        <v>37</v>
+      </c>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -31407,8 +30059,14 @@
         <v>0</v>
       </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="K828" t="n">
+        <v>37</v>
+      </c>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -31442,8 +30100,14 @@
         <v>0</v>
       </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="K829" t="n">
+        <v>37</v>
+      </c>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -31477,8 +30141,14 @@
         <v>0</v>
       </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="K830" t="n">
+        <v>37</v>
+      </c>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -31512,8 +30182,14 @@
         <v>0</v>
       </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="K831" t="n">
+        <v>37</v>
+      </c>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -31547,8 +30223,14 @@
         <v>0</v>
       </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
+      <c r="K832" t="n">
+        <v>37</v>
+      </c>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -31582,8 +30264,14 @@
         <v>0</v>
       </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
+      <c r="K833" t="n">
+        <v>37</v>
+      </c>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -31617,8 +30305,14 @@
         <v>0</v>
       </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
+      <c r="K834" t="n">
+        <v>37</v>
+      </c>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -31652,8 +30346,14 @@
         <v>0</v>
       </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
+      <c r="K835" t="n">
+        <v>37</v>
+      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -31687,8 +30387,14 @@
         <v>0</v>
       </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
+      <c r="K836" t="n">
+        <v>37</v>
+      </c>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -31722,8 +30428,14 @@
         <v>0</v>
       </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr"/>
+      <c r="K837" t="n">
+        <v>37</v>
+      </c>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -31757,8 +30469,14 @@
         <v>0</v>
       </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr"/>
+      <c r="K838" t="n">
+        <v>37</v>
+      </c>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -31792,8 +30510,14 @@
         <v>0</v>
       </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr"/>
+      <c r="K839" t="n">
+        <v>37</v>
+      </c>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -31827,8 +30551,14 @@
         <v>0</v>
       </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr"/>
+      <c r="K840" t="n">
+        <v>37</v>
+      </c>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -31862,8 +30592,14 @@
         <v>0</v>
       </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr"/>
+      <c r="K841" t="n">
+        <v>37</v>
+      </c>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -31897,8 +30633,14 @@
         <v>0</v>
       </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr"/>
+      <c r="K842" t="n">
+        <v>37</v>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -31932,8 +30674,14 @@
         <v>0</v>
       </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr"/>
+      <c r="K843" t="n">
+        <v>37</v>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -31967,8 +30715,14 @@
         <v>0</v>
       </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr"/>
+      <c r="K844" t="n">
+        <v>37</v>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -32002,8 +30756,14 @@
         <v>0</v>
       </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr"/>
+      <c r="K845" t="n">
+        <v>37</v>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -32037,8 +30797,14 @@
         <v>0</v>
       </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr"/>
+      <c r="K846" t="n">
+        <v>37</v>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -32072,8 +30838,14 @@
         <v>0</v>
       </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr"/>
+      <c r="K847" t="n">
+        <v>37</v>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -32107,8 +30879,14 @@
         <v>0</v>
       </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr"/>
+      <c r="K848" t="n">
+        <v>37</v>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -32142,8 +30920,14 @@
         <v>0</v>
       </c>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr"/>
+      <c r="K849" t="n">
+        <v>37</v>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -32177,8 +30961,14 @@
         <v>0</v>
       </c>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr"/>
+      <c r="K850" t="n">
+        <v>37</v>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -32212,8 +31002,14 @@
         <v>0</v>
       </c>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr"/>
+      <c r="K851" t="n">
+        <v>37</v>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -32247,8 +31043,14 @@
         <v>0</v>
       </c>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr"/>
+      <c r="K852" t="n">
+        <v>37</v>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -32282,8 +31084,14 @@
         <v>0</v>
       </c>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr"/>
+      <c r="K853" t="n">
+        <v>37</v>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -32317,8 +31125,14 @@
         <v>0</v>
       </c>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
+      <c r="K854" t="n">
+        <v>37</v>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -32352,8 +31166,14 @@
         <v>0</v>
       </c>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr"/>
+      <c r="K855" t="n">
+        <v>37</v>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -32387,8 +31207,14 @@
         <v>0</v>
       </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr"/>
+      <c r="K856" t="n">
+        <v>37</v>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -32422,8 +31248,14 @@
         <v>0</v>
       </c>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr"/>
+      <c r="K857" t="n">
+        <v>37</v>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -32457,8 +31289,14 @@
         <v>0</v>
       </c>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr"/>
+      <c r="K858" t="n">
+        <v>37</v>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -32492,8 +31330,14 @@
         <v>0</v>
       </c>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr"/>
+      <c r="K859" t="n">
+        <v>37</v>
+      </c>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -32527,8 +31371,14 @@
         <v>0</v>
       </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
-      <c r="L860" t="inlineStr"/>
+      <c r="K860" t="n">
+        <v>37</v>
+      </c>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -32562,8 +31412,14 @@
         <v>0</v>
       </c>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
-      <c r="L861" t="inlineStr"/>
+      <c r="K861" t="n">
+        <v>37</v>
+      </c>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -32597,8 +31453,14 @@
         <v>0</v>
       </c>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
-      <c r="L862" t="inlineStr"/>
+      <c r="K862" t="n">
+        <v>37</v>
+      </c>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -32632,8 +31494,14 @@
         <v>0</v>
       </c>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
-      <c r="L863" t="inlineStr"/>
+      <c r="K863" t="n">
+        <v>37</v>
+      </c>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -32667,8 +31535,14 @@
         <v>0</v>
       </c>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr"/>
+      <c r="K864" t="n">
+        <v>37</v>
+      </c>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -32702,8 +31576,14 @@
         <v>0</v>
       </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr"/>
+      <c r="K865" t="n">
+        <v>37</v>
+      </c>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -32737,8 +31617,14 @@
         <v>0</v>
       </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr"/>
+      <c r="K866" t="n">
+        <v>37</v>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -32772,8 +31658,14 @@
         <v>0</v>
       </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr"/>
+      <c r="K867" t="n">
+        <v>37</v>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -32807,8 +31699,14 @@
         <v>0</v>
       </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr"/>
+      <c r="K868" t="n">
+        <v>37</v>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -32842,8 +31740,14 @@
         <v>0</v>
       </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr"/>
+      <c r="K869" t="n">
+        <v>37</v>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -32877,8 +31781,14 @@
         <v>0</v>
       </c>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr"/>
+      <c r="K870" t="n">
+        <v>37</v>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -32912,8 +31822,14 @@
         <v>0</v>
       </c>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr"/>
+      <c r="K871" t="n">
+        <v>37</v>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -32947,8 +31863,14 @@
         <v>0</v>
       </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr"/>
+      <c r="K872" t="n">
+        <v>37</v>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -32982,8 +31904,14 @@
         <v>0</v>
       </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr"/>
+      <c r="K873" t="n">
+        <v>37</v>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -33017,8 +31945,14 @@
         <v>0</v>
       </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr"/>
+      <c r="K874" t="n">
+        <v>37</v>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -33052,8 +31986,14 @@
         <v>0</v>
       </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr"/>
+      <c r="K875" t="n">
+        <v>37</v>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -33087,8 +32027,14 @@
         <v>0</v>
       </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr"/>
+      <c r="K876" t="n">
+        <v>37</v>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -33122,8 +32068,14 @@
         <v>0</v>
       </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr"/>
+      <c r="K877" t="n">
+        <v>37</v>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -33157,8 +32109,14 @@
         <v>0</v>
       </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr"/>
+      <c r="K878" t="n">
+        <v>37</v>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -33192,8 +32150,14 @@
         <v>0</v>
       </c>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
-      <c r="L879" t="inlineStr"/>
+      <c r="K879" t="n">
+        <v>37</v>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -33227,8 +32191,14 @@
         <v>0</v>
       </c>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
-      <c r="L880" t="inlineStr"/>
+      <c r="K880" t="n">
+        <v>37</v>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -33262,8 +32232,14 @@
         <v>0</v>
       </c>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
-      <c r="L881" t="inlineStr"/>
+      <c r="K881" t="n">
+        <v>37</v>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -33297,8 +32273,14 @@
         <v>0</v>
       </c>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
-      <c r="L882" t="inlineStr"/>
+      <c r="K882" t="n">
+        <v>37</v>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -33332,8 +32314,14 @@
         <v>0</v>
       </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr"/>
+      <c r="K883" t="n">
+        <v>37</v>
+      </c>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M883" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-22 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-22 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,10 +1408,14 @@
         <v>1052961.467864031</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1444,8 +1448,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1484,19 @@
         <v>1122478.467864031</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1528,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1567,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1606,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1645,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1684,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1723,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1762,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1801,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1840,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1876,19 @@
         <v>1026856.236164031</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1917,19 @@
         <v>1026856.236164031</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>33</v>
+      </c>
+      <c r="J44" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1958,19 @@
         <v>1019964.469164031</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>33</v>
+      </c>
+      <c r="J45" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1999,19 @@
         <v>1097124.960564031</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,15 +2040,17 @@
         <v>1065648.645264031</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>32.6</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -1975,12 +2081,14 @@
         <v>1208325.645264031</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>32.5</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2014,12 +2122,14 @@
         <v>1294198.371664031</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>32.6</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2053,12 +2163,14 @@
         <v>1137073.269064031</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>32.9</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,12 +2204,14 @@
         <v>1137073.269064031</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>32.6</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,12 +2245,14 @@
         <v>1137073.269064031</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>32.6</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,12 +2286,14 @@
         <v>1145050.819864031</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>32.6</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,12 +2327,14 @@
         <v>1130292.001564031</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>33.6</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2248,12 +2368,14 @@
         <v>1130292.001564031</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>32.9</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,12 +2409,14 @@
         <v>994606.6357640314</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>32.9</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2326,12 +2450,14 @@
         <v>985360.4848640314</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>32.8</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2365,12 +2491,14 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>32.6</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2404,12 +2532,14 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>33.3</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2443,12 +2573,14 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>33.3</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,12 +2614,14 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>33.3</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2521,12 +2655,14 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>33.3</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,12 +2696,14 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>33.3</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2599,12 +2737,14 @@
         <v>1053147.042164031</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>33.3</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2638,12 +2778,14 @@
         <v>1012110.028664031</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>33.8</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2677,12 +2819,14 @@
         <v>846375.1299640314</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>33.5</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2716,10 +2860,14 @@
         <v>838282.6953640314</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2753,10 +2901,14 @@
         <v>1029170.866464031</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2790,10 +2942,14 @@
         <v>1031287.866464031</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2827,10 +2983,14 @@
         <v>1031287.866464031</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,10 +3024,14 @@
         <v>1031287.866464031</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2901,10 +3065,14 @@
         <v>1021028.613064031</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2938,10 +3106,14 @@
         <v>1039283.528664031</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2975,12 +3147,14 @@
         <v>930137.1384640313</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>33.3</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,10 +3188,14 @@
         <v>931825.7735640312</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,10 +3229,14 @@
         <v>941825.7735640312</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,10 +3270,14 @@
         <v>908918.0459984526</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3125,10 +3311,14 @@
         <v>908918.0459984526</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,10 +3352,14 @@
         <v>908918.0459984526</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,12 +3393,14 @@
         <v>860709.3984984526</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>33.2</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,12 +3434,14 @@
         <v>848005.2412984526</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>33</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,10 +3475,14 @@
         <v>850560.5105984526</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3314,10 +3516,14 @@
         <v>849370.1458984526</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>33</v>
+      </c>
+      <c r="J83" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,10 +3557,14 @@
         <v>839295.5317984526</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,12 +3598,14 @@
         <v>839295.5317984526</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>32.8</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,12 +3639,14 @@
         <v>839295.5317984526</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>32.8</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,12 +3680,14 @@
         <v>802795.8081984526</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>32.8</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,10 +3721,14 @@
         <v>788681.4939984526</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,12 +3762,14 @@
         <v>785030.4939984526</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>32.6</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3581,12 +3803,14 @@
         <v>774025.1519984526</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>32.4</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,12 +3844,14 @@
         <v>784464.1519984526</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>32.3</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,12 +3885,14 @@
         <v>797281.1519984526</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>32.8</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,12 +3926,14 @@
         <v>806980.2001984526</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>32.9</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,12 +3967,14 @@
         <v>806980.2001984526</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>33.1</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3776,12 +4008,14 @@
         <v>812759.8179984526</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>33.1</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,12 +4049,14 @@
         <v>812759.8179984526</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>33.2</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3854,12 +4090,14 @@
         <v>809363.3069984525</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>33.2</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,12 +4131,14 @@
         <v>809863.3069984525</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>33</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,12 +4172,14 @@
         <v>794932.3069984525</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>33.2</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,12 +4213,14 @@
         <v>794932.3069984525</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>33</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,12 +4254,14 @@
         <v>794932.3069984525</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>33</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4049,12 +4295,14 @@
         <v>790932.3069984525</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>33</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,12 +4336,14 @@
         <v>791325.7008984525</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>32.9</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4127,12 +4377,14 @@
         <v>791325.7008984525</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>33</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,12 +4418,14 @@
         <v>791325.7008984525</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>33</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4205,12 +4459,14 @@
         <v>806956.0029984525</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>33</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,12 +4500,14 @@
         <v>973060.2094984525</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>33.1</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,12 +4541,14 @@
         <v>969060.2094984525</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>33.4</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4322,12 +4582,14 @@
         <v>1016120.942998452</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>33</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4361,12 +4623,14 @@
         <v>1081149.246498452</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>33.4</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4400,12 +4664,14 @@
         <v>1079466.434598452</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>33.5</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4439,12 +4705,14 @@
         <v>1087601.799898452</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>33</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4478,12 +4746,14 @@
         <v>1150183.049898452</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>33.2</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,12 +4787,14 @@
         <v>1149850.103498452</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>33.5</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,12 +4828,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>33.4</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4595,12 +4869,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>33.2</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4634,10 +4910,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4671,12 +4951,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>33.2</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,12 +4992,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>33.2</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,12 +5033,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>33.2</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,12 +5074,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>33.2</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,12 +5115,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>33.2</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,12 +5156,14 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>33.2</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,12 +5197,14 @@
         <v>1136536.229398452</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>33.2</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,12 +5238,14 @@
         <v>1125931.229398452</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>33.1</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,12 +5279,14 @@
         <v>1118931.229398452</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>33</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5022,12 +5320,14 @@
         <v>1123331.229398452</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>32.9</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,12 +5361,14 @@
         <v>1123331.229398452</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>33.2</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5100,12 +5402,14 @@
         <v>1124331.229398452</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>33.2</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5139,12 +5443,14 @@
         <v>1119347.229398452</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>33.3</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5178,12 +5484,14 @@
         <v>1119347.229398452</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>33.2</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5217,12 +5525,14 @@
         <v>1119347.229398452</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>33.2</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5256,12 +5566,14 @@
         <v>1119347.229398452</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>33.2</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5295,12 +5607,14 @@
         <v>1105321.646798452</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>33.2</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,12 +5648,14 @@
         <v>1105321.646798452</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>33.1</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,12 +5689,14 @@
         <v>1129184.646798452</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>33.1</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,12 +5730,14 @@
         <v>1129174.646798452</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>33.4</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,12 +5771,14 @@
         <v>1176726.711398452</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>33.3</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5490,12 +5812,14 @@
         <v>1180445.252998452</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>33.4</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5529,12 +5853,14 @@
         <v>1180445.252998452</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>33.6</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,12 +5894,14 @@
         <v>1125652.808964031</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>33.6</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5607,12 +5935,14 @@
         <v>1133097.067864031</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>33.4</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,12 +5976,14 @@
         <v>1133097.067864031</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>33.5</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5685,10 +6017,14 @@
         <v>1132897.067864031</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5722,12 +6058,14 @@
         <v>1132907.167864031</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>33.4</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5761,10 +6099,14 @@
         <v>1132051.027564031</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J146" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,12 +6140,14 @@
         <v>1131250.428664031</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>33.5</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,10 +6181,14 @@
         <v>1128150.923764031</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="J148" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5874,12 +6222,14 @@
         <v>1122000.942164031</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>33.3</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5913,12 +6263,14 @@
         <v>1122000.942164031</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>33.2</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,12 +6304,14 @@
         <v>1122164.245464031</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>33.2</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5991,12 +6345,14 @@
         <v>1085190.063364031</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>33.3</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6030,12 +6386,14 @@
         <v>1085200.063364031</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>33.1</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6069,12 +6427,14 @@
         <v>1084222.278664031</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>33.5</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,10 +6468,14 @@
         <v>1084233.458664031</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,10 +6509,14 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="J156" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6182,10 +6550,14 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J157" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,10 +6591,14 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J158" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6256,10 +6632,14 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J159" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6293,10 +6673,14 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J160" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,10 +6714,14 @@
         <v>1105443.638664031</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J161" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,10 +6755,14 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J162" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6404,10 +6796,14 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6441,10 +6837,14 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,10 +6878,14 @@
         <v>1115341.722964031</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,10 +6919,14 @@
         <v>1115341.722964031</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,7 +6963,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,7 +7002,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6626,10 +7038,14 @@
         <v>1053628.920664031</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J169" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6663,10 +7079,14 @@
         <v>1051841.12166403</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J170" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,10 +7120,14 @@
         <v>1062140.898364031</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="J171" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,10 +7161,14 @@
         <v>1062140.898364031</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J172" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6774,10 +7202,14 @@
         <v>1062140.898364031</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J173" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6811,10 +7243,14 @@
         <v>1063374.898364031</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J174" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6848,10 +7284,14 @@
         <v>1063374.898364031</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>34</v>
+      </c>
+      <c r="J175" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,10 +7325,14 @@
         <v>1060374.898364031</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>34</v>
+      </c>
+      <c r="J176" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6922,10 +7366,14 @@
         <v>1121587.889964031</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J177" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6959,10 +7407,14 @@
         <v>1052735.14536403</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J178" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6999,7 +7451,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7033,10 +7487,14 @@
         <v>1055793.75576403</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="J180" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7073,7 +7531,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7110,7 +7570,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7147,7 +7609,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7184,7 +7648,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7221,7 +7687,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,7 +7726,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,7 +7765,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7332,7 +7804,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7369,7 +7843,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7406,7 +7882,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,7 +7921,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7480,7 +7960,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,7 +7999,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7554,7 +8038,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7591,7 +8077,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7628,7 +8116,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,7 +8155,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7702,7 +8194,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7739,7 +8233,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7773,10 +8269,14 @@
         <v>869814.9819480882</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J200" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7813,7 +8313,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7847,10 +8349,14 @@
         <v>743093.3761480881</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J202" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7884,10 +8390,14 @@
         <v>777197.6548480882</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7921,10 +8431,14 @@
         <v>771002.0817480881</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J204" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,7 +8475,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,7 +8514,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8035,7 +8553,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8069,10 +8589,14 @@
         <v>865411.7741480881</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J208" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8109,7 +8633,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8146,7 +8672,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8183,7 +8711,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,7 +8750,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8257,7 +8789,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,7 +8828,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8331,7 +8867,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8368,7 +8906,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8405,7 +8945,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8442,7 +8984,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8479,7 +9023,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8516,7 +9062,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8553,7 +9101,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,7 +9140,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8627,7 +9179,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8664,7 +9218,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8701,7 +9257,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8738,7 +9296,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,7 +9335,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8812,7 +9374,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8849,7 +9413,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8886,7 +9452,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8923,7 +9491,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8960,7 +9530,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8997,7 +9569,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9034,7 +9608,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9071,7 +9647,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9108,7 +9686,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,7 +9725,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9182,7 +9764,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9219,7 +9803,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9256,7 +9842,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9290,10 +9878,14 @@
         <v>745365.1055480881</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J241" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9330,7 +9922,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9367,7 +9961,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9404,7 +10000,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9441,7 +10039,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,7 +10078,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9515,7 +10117,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9549,10 +10153,14 @@
         <v>722873.668048088</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="J248" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9586,10 +10194,14 @@
         <v>748357.0823480879</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J249" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9626,7 +10238,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9663,7 +10277,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9697,10 +10313,14 @@
         <v>837104.7075480879</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="J252" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9737,7 +10357,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9774,7 +10396,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9811,7 +10435,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9848,7 +10474,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,7 +10513,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9922,7 +10552,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9959,7 +10591,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9996,7 +10630,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10033,7 +10669,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10070,7 +10708,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10107,7 +10747,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10144,7 +10786,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,7 +10825,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10218,7 +10864,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10255,7 +10903,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10292,7 +10942,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10329,7 +10981,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10366,7 +11020,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10403,7 +11059,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10440,7 +11098,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10477,7 +11137,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10514,7 +11176,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10551,7 +11215,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10588,7 +11254,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10625,7 +11293,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10662,7 +11332,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10699,7 +11371,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10736,7 +11410,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10773,7 +11449,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10810,7 +11488,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10847,7 +11527,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10884,7 +11566,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10921,7 +11605,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10958,7 +11644,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10995,7 +11683,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11032,7 +11722,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11069,7 +11761,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11106,7 +11800,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,7 +11839,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11180,7 +11878,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11217,7 +11917,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11254,7 +11956,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11291,7 +11995,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11328,7 +12034,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11365,7 +12073,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11402,7 +12112,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11439,7 +12151,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11476,7 +12190,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11513,7 +12229,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11550,7 +12268,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11587,7 +12307,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11624,7 +12346,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11661,7 +12385,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11698,7 +12424,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,10 +12460,12 @@
         <v>3418825.630050609</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11772,7 +12502,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11806,10 +12538,12 @@
         <v>3433689.380050609</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11846,7 +12580,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11880,10 +12616,12 @@
         <v>3494203.561050609</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11920,7 +12658,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11954,10 +12694,12 @@
         <v>3608845.618250609</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11994,7 +12736,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12028,10 +12772,12 @@
         <v>3314546.678050609</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12068,7 +12814,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12102,10 +12850,12 @@
         <v>3209463.021566398</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12142,7 +12892,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12176,10 +12928,12 @@
         <v>3209463.021566398</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12213,10 +12967,12 @@
         <v>3208531.842266398</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12250,10 +13006,12 @@
         <v>3263092.495066398</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12290,7 +13048,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12324,10 +13084,12 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12361,10 +13123,12 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12398,10 +13162,12 @@
         <v>3277718.002190956</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12438,7 +13204,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12472,10 +13240,12 @@
         <v>3042160.079090956</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12512,7 +13282,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12549,7 +13321,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12586,7 +13360,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12620,10 +13396,12 @@
         <v>3136999.176790956</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12660,7 +13438,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12697,7 +13477,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12734,7 +13516,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12768,10 +13552,12 @@
         <v>3106863.434190955</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12808,7 +13594,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12845,7 +13633,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12882,7 +13672,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12916,10 +13708,12 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12956,7 +13750,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12993,7 +13789,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13030,7 +13828,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13064,10 +13864,12 @@
         <v>3020459.305790956</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13104,7 +13906,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13141,7 +13945,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13178,7 +13984,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13215,7 +14023,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13252,7 +14062,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13289,7 +14101,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13326,7 +14140,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13363,7 +14179,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13400,7 +14218,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13437,7 +14257,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13474,7 +14296,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13511,7 +14335,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13548,7 +14374,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13585,7 +14413,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13622,7 +14452,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13659,7 +14491,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13696,7 +14530,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13733,7 +14569,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13770,7 +14608,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13807,7 +14647,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13841,16 +14683,20 @@
         <v>4890401.245927104</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>33.4</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L364" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
       <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
@@ -13876,11 +14722,17 @@
         <v>4494918.828427104</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13909,11 +14761,17 @@
         <v>4494918.828427104</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13945,8 +14803,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13978,8 +14842,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14008,11 +14878,17 @@
         <v>3854540.619727104</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14044,8 +14920,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14077,8 +14959,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14110,8 +14998,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14143,8 +15037,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14176,8 +15076,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14209,8 +15115,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14242,8 +15154,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14275,8 +15193,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14308,8 +15232,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14341,8 +15271,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14374,8 +15310,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14407,8 +15349,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14440,8 +15388,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14473,8 +15427,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14503,11 +15463,17 @@
         <v>3131934.147733264</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14539,8 +15505,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14572,8 +15544,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14605,8 +15583,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14635,11 +15619,17 @@
         <v>3088014.731533264</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14671,8 +15661,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14704,8 +15700,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14737,8 +15739,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14767,11 +15775,17 @@
         <v>2946579.857463289</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14803,8 +15817,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14836,8 +15856,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14869,8 +15895,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14902,8 +15934,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14935,8 +15973,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14968,8 +16012,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15001,8 +16051,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15034,8 +16090,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15067,8 +16129,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15100,8 +16168,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15133,8 +16207,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15166,8 +16246,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15199,8 +16285,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15232,8 +16324,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15265,8 +16363,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15298,8 +16402,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15331,8 +16441,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15364,8 +16480,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15394,15 +16516,23 @@
         <v>4827200.578340021</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
+        <v>1.228532934131737</v>
+      </c>
+      <c r="M411" t="n">
+        <v>1.033232628398792</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -15427,7 +16557,7 @@
         <v>4745839.225018471</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15460,7 +16590,7 @@
         <v>4853903.481096921</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15493,7 +16623,7 @@
         <v>4728047.706296922</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15526,7 +16656,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15559,7 +16689,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15592,7 +16722,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15625,7 +16755,7 @@
         <v>5722652.455696922</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15658,7 +16788,7 @@
         <v>5873429.448496922</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15691,7 +16821,7 @@
         <v>6043088.618696922</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15724,7 +16854,7 @@
         <v>5449708.617796921</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15757,7 +16887,7 @@
         <v>4966007.126496921</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15790,7 +16920,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15823,7 +16953,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15856,7 +16986,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15889,7 +17019,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15922,7 +17052,7 @@
         <v>4525313.82032769</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15955,7 +17085,7 @@
         <v>4730768.087020373</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15988,7 +17118,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16021,7 +17151,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16054,7 +17184,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16087,7 +17217,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16120,7 +17250,7 @@
         <v>4764691.24012769</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16153,7 +17283,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16186,7 +17316,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16219,7 +17349,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16252,7 +17382,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16285,7 +17415,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16318,7 +17448,7 @@
         <v>4794318.960586514</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16351,7 +17481,7 @@
         <v>4926939.232386515</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16384,7 +17514,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16417,7 +17547,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16450,7 +17580,7 @@
         <v>4857484.657086515</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16483,7 +17613,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16516,7 +17646,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16549,7 +17679,7 @@
         <v>4813151.484286514</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16582,7 +17712,7 @@
         <v>4822429.667386514</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16615,7 +17745,7 @@
         <v>4821222.899386514</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16648,7 +17778,7 @@
         <v>4821242.899386514</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16681,7 +17811,7 @@
         <v>4817986.097286514</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16747,7 +17877,7 @@
         <v>4819844.380786514</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16846,7 +17976,7 @@
         <v>4832991.973933952</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16879,7 +18009,7 @@
         <v>4750736.806406873</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16912,7 +18042,7 @@
         <v>4636718.305106874</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16945,7 +18075,7 @@
         <v>4519085.357016582</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16978,7 +18108,7 @@
         <v>4447168.134716582</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17011,7 +18141,7 @@
         <v>4447178.134716582</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17044,7 +18174,7 @@
         <v>4482249.408916582</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17077,7 +18207,7 @@
         <v>4490459.397116582</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17110,7 +18240,7 @@
         <v>4493651.244516582</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17143,7 +18273,7 @@
         <v>4626973.147116582</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17176,7 +18306,7 @@
         <v>4611829.279216582</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17209,7 +18339,7 @@
         <v>4442918.072416582</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17242,7 +18372,7 @@
         <v>4444128.726116582</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17275,7 +18405,7 @@
         <v>4444118.726116582</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17308,7 +18438,7 @@
         <v>4444081.726116582</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17341,7 +18471,7 @@
         <v>4252369.776616582</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17374,7 +18504,7 @@
         <v>4252369.776616582</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17407,7 +18537,7 @@
         <v>4213298.219916582</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17440,7 +18570,7 @@
         <v>4215966.028216582</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17473,7 +18603,7 @@
         <v>4174840.095416582</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17506,7 +18636,7 @@
         <v>4174840.095416582</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17539,7 +18669,7 @@
         <v>4176850.095416582</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17572,7 +18702,7 @@
         <v>4097397.694716582</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17605,7 +18735,7 @@
         <v>4097397.694716582</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17638,7 +18768,7 @@
         <v>3887643.649016581</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17671,7 +18801,7 @@
         <v>3887643.649016581</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17704,7 +18834,7 @@
         <v>3815646.024016581</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17737,7 +18867,7 @@
         <v>3613679.665016581</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17770,7 +18900,7 @@
         <v>3438523.793816581</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17803,7 +18933,7 @@
         <v>3655879.793816581</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17836,7 +18966,7 @@
         <v>3727802.758616582</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17869,7 +18999,7 @@
         <v>3739923.902816582</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17902,7 +19032,7 @@
         <v>3713168.202816581</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17935,7 +19065,7 @@
         <v>3724146.831316581</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17968,7 +19098,7 @@
         <v>3726146.831316581</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18001,7 +19131,7 @@
         <v>3843557.826016582</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18034,7 +19164,7 @@
         <v>3839557.826016582</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18067,7 +19197,7 @@
         <v>3839557.826016582</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18100,7 +19230,7 @@
         <v>3851273.443016582</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18133,7 +19263,7 @@
         <v>4164914.044216582</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18166,7 +19296,7 @@
         <v>4157880.080916582</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18199,7 +19329,7 @@
         <v>4138378.937416582</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18232,7 +19362,7 @@
         <v>4081396.971016582</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18298,7 +19428,7 @@
         <v>3788374.932916582</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18331,7 +19461,7 @@
         <v>3788374.932916582</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18364,7 +19494,7 @@
         <v>3763904.716316582</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18397,7 +19527,7 @@
         <v>3771905.244416582</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18430,7 +19560,7 @@
         <v>3769841.497516582</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18529,7 +19659,7 @@
         <v>3770326.929516582</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18562,7 +19692,7 @@
         <v>3766876.929516582</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18595,7 +19725,7 @@
         <v>3766876.929516582</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19684,7 +20814,7 @@
         <v>4160158.17438167</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19948,7 +21078,7 @@
         <v>4318660.704228011</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20014,7 +21144,7 @@
         <v>4318660.704228011</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20080,7 +21210,7 @@
         <v>4379785.081691915</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20113,7 +21243,7 @@
         <v>4346134.397891915</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20146,7 +21276,7 @@
         <v>4356547.950091915</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20179,7 +21309,7 @@
         <v>4356547.950091915</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20212,7 +21342,7 @@
         <v>4357125.189791915</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20245,7 +21375,7 @@
         <v>4352625.189791915</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20278,7 +21408,7 @@
         <v>4350125.189791915</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20311,7 +21441,7 @@
         <v>4520080.508874352</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20344,7 +21474,7 @@
         <v>4514786.438974353</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20377,7 +21507,7 @@
         <v>4514786.438974353</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20410,7 +21540,7 @@
         <v>4487978.112674353</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20443,7 +21573,7 @@
         <v>4487978.112674353</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20476,7 +21606,7 @@
         <v>4467163.645174352</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20509,7 +21639,7 @@
         <v>4462332.368574352</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20542,7 +21672,7 @@
         <v>4151108.594874352</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20575,7 +21705,7 @@
         <v>4157352.633774352</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20608,7 +21738,7 @@
         <v>4157352.633774352</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20641,7 +21771,7 @@
         <v>4157352.633774352</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20674,7 +21804,7 @@
         <v>4147511.205174352</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20707,7 +21837,7 @@
         <v>4147511.205174352</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20740,7 +21870,7 @@
         <v>4177804.132474352</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20773,7 +21903,7 @@
         <v>4251275.132474352</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20806,7 +21936,7 @@
         <v>4241541.338374352</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20839,7 +21969,7 @@
         <v>4241541.338374352</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20872,7 +22002,7 @@
         <v>4245000.839710806</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20905,7 +22035,7 @@
         <v>4245000.839710806</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20938,7 +22068,7 @@
         <v>4244568.788010806</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20971,7 +22101,7 @@
         <v>4244568.788010806</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21004,7 +22134,7 @@
         <v>4237417.814310806</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21037,7 +22167,7 @@
         <v>4231611.482610806</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21070,7 +22200,7 @@
         <v>4231611.482610806</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21103,7 +22233,7 @@
         <v>4231611.482610806</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21136,7 +22266,7 @@
         <v>4231589.274610806</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21169,7 +22299,7 @@
         <v>4231599.274610806</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21202,7 +22332,7 @@
         <v>4231599.274610806</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21235,7 +22365,7 @@
         <v>4231599.274610806</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21268,7 +22398,7 @@
         <v>4231599.274610806</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21301,7 +22431,7 @@
         <v>4218465.477310807</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21334,7 +22464,7 @@
         <v>4276279.338010807</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21367,7 +22497,7 @@
         <v>4205720.256210807</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21400,7 +22530,7 @@
         <v>4204794.012010807</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21433,7 +22563,7 @@
         <v>4204804.012010807</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21466,7 +22596,7 @@
         <v>4154293.497510807</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21499,7 +22629,7 @@
         <v>4154303.497510807</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21532,7 +22662,7 @@
         <v>4078181.228210807</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21565,7 +22695,7 @@
         <v>4129836.325310807</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21598,7 +22728,7 @@
         <v>4045454.643810807</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21631,7 +22761,7 @@
         <v>4041954.643810807</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21664,7 +22794,7 @@
         <v>4041954.643810807</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21697,7 +22827,7 @@
         <v>3938320.961810807</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21730,7 +22860,7 @@
         <v>3936919.425310807</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21763,7 +22893,7 @@
         <v>3942941.505910807</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21796,7 +22926,7 @@
         <v>3942941.505910807</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21829,7 +22959,7 @@
         <v>3936941.505910807</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -27439,7 +28569,7 @@
         <v>2579402.953539773</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27472,7 +28602,7 @@
         <v>2560921.764239773</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29650,7 +30780,7 @@
         <v>3117526.868650558</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29848,7 +30978,7 @@
         <v>3083504.360850558</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29881,7 +31011,7 @@
         <v>3106615.493550558</v>
       </c>
       <c r="H850" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29914,7 +31044,7 @@
         <v>3107635.673550558</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29947,7 +31077,7 @@
         <v>3105731.304950558</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29980,7 +31110,7 @@
         <v>3081553.153150558</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30013,7 +31143,7 @@
         <v>3111731.757150558</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30046,7 +31176,7 @@
         <v>3106537.076650558</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31234,7 +32364,7 @@
         <v>3631800.248264299</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31267,7 +32397,7 @@
         <v>3381308.742464299</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31300,7 +32430,7 @@
         <v>3381308.742464299</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31333,7 +32463,7 @@
         <v>3346642.907464299</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31861,7 +32991,7 @@
         <v>4796166.950189691</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31894,7 +33024,7 @@
         <v>4936506.381489691</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31927,7 +33057,7 @@
         <v>4944584.305389691</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31960,7 +33090,7 @@
         <v>5488559.448389691</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31993,7 +33123,7 @@
         <v>5857700.906589692</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32026,7 +33156,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32059,7 +33189,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32092,7 +33222,7 @@
         <v>5356329.074689691</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32125,7 +33255,7 @@
         <v>5309142.478189691</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32158,7 +33288,7 @@
         <v>5596773.047301719</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32191,7 +33321,7 @@
         <v>5595319.010801719</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32257,7 +33387,7 @@
         <v>5029344.823101719</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32290,7 +33420,7 @@
         <v>4773835.421601719</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32323,7 +33453,7 @@
         <v>4373902.693101719</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32356,7 +33486,7 @@
         <v>4373902.693101719</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32389,7 +33519,7 @@
         <v>4472341.005701719</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32422,7 +33552,7 @@
         <v>4484336.768001718</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32455,7 +33585,7 @@
         <v>4588338.684301718</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32488,7 +33618,7 @@
         <v>4783767.814598819</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32521,7 +33651,7 @@
         <v>4697671.937298819</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32554,7 +33684,7 @@
         <v>4697671.937298819</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32587,7 +33717,7 @@
         <v>4605406.463098819</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32620,7 +33750,7 @@
         <v>4605406.463098819</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32653,7 +33783,7 @@
         <v>4291703.823398819</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32686,7 +33816,7 @@
         <v>4293823.969098819</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32719,7 +33849,7 @@
         <v>4170549.12279882</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32752,7 +33882,7 @@
         <v>4443523.619814016</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32785,7 +33915,7 @@
         <v>4443523.619814016</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32950,7 +34080,7 @@
         <v>4365917.703314016</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33258,6 +34388,6 @@
       <c r="M952" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-22 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,14 +1408,10 @@
         <v>1052961.467864031</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>33.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1448,529 +1444,449 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>59175</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1122478.467864031</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34</v>
+      </c>
+      <c r="D34" t="n">
+        <v>34</v>
+      </c>
+      <c r="E34" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>62027.359</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1184505.826864031</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>57293.4117</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1184505.826864031</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>23329.2278</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1161176.599064031</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="D37" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4817.9724</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1156358.626664031</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15465.8802</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1171824.506864031</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13400</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1158424.506864031</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16684.3524</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1141740.154464031</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>76163.7292</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1065576.425264031</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1019.4394</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1064556.985864031</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>33</v>
+      </c>
+      <c r="D43" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>33</v>
+      </c>
+      <c r="F43" t="n">
+        <v>37700.7497</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1026856.236164031</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>33</v>
+      </c>
+      <c r="C44" t="n">
+        <v>33</v>
+      </c>
+      <c r="D44" t="n">
+        <v>33</v>
+      </c>
+      <c r="E44" t="n">
+        <v>33</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9403.5533</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1026856.236164031</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>33</v>
+      </c>
+      <c r="J44" t="n">
+        <v>33</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6891.767</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1019964.469164031</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>33</v>
+      </c>
+      <c r="J45" t="n">
+        <v>33</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>59175</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1122478.467864031</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>34</v>
-      </c>
-      <c r="D34" t="n">
-        <v>34</v>
-      </c>
-      <c r="E34" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>62027.359</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1184505.826864031</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="C35" t="n">
-        <v>34</v>
-      </c>
-      <c r="D35" t="n">
-        <v>34</v>
-      </c>
-      <c r="E35" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F35" t="n">
-        <v>57293.4117</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1184505.826864031</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="C36" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="D36" t="n">
-        <v>34</v>
-      </c>
-      <c r="E36" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="F36" t="n">
-        <v>23329.2278</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1161176.599064031</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="C37" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="D37" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="E37" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4817.9724</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1156358.626664031</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="C38" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="D38" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="E38" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>15465.8802</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1171824.506864031</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>13400</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1158424.506864031</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>16684.3524</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1141740.154464031</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>76163.7292</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1065576.425264031</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1019.4394</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1064556.985864031</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>33</v>
-      </c>
-      <c r="D43" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>33</v>
-      </c>
-      <c r="F43" t="n">
-        <v>37700.7497</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1026856.236164031</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>33</v>
-      </c>
-      <c r="C44" t="n">
-        <v>33</v>
-      </c>
-      <c r="D44" t="n">
-        <v>33</v>
-      </c>
-      <c r="E44" t="n">
-        <v>33</v>
-      </c>
-      <c r="F44" t="n">
-        <v>9403.5533</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1026856.236164031</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>33</v>
-      </c>
-      <c r="J44" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C45" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E45" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6891.767</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1019964.469164031</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>33</v>
-      </c>
-      <c r="J45" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2005,7 +1921,7 @@
         <v>32.5</v>
       </c>
       <c r="J46" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2046,7 +1962,7 @@
         <v>32.6</v>
       </c>
       <c r="J47" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2087,7 +2003,7 @@
         <v>32.5</v>
       </c>
       <c r="J48" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2128,7 +2044,7 @@
         <v>32.6</v>
       </c>
       <c r="J49" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2169,7 +2085,7 @@
         <v>32.9</v>
       </c>
       <c r="J50" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2210,7 +2126,7 @@
         <v>32.6</v>
       </c>
       <c r="J51" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2251,7 +2167,7 @@
         <v>32.6</v>
       </c>
       <c r="J52" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2292,7 +2208,7 @@
         <v>32.6</v>
       </c>
       <c r="J53" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2333,7 +2249,7 @@
         <v>33.6</v>
       </c>
       <c r="J54" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2374,7 +2290,7 @@
         <v>32.9</v>
       </c>
       <c r="J55" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2415,7 +2331,7 @@
         <v>32.9</v>
       </c>
       <c r="J56" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2456,7 +2372,7 @@
         <v>32.8</v>
       </c>
       <c r="J57" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2497,7 +2413,7 @@
         <v>32.6</v>
       </c>
       <c r="J58" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2538,7 +2454,7 @@
         <v>33.3</v>
       </c>
       <c r="J59" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2579,7 +2495,7 @@
         <v>33.3</v>
       </c>
       <c r="J60" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2620,7 +2536,7 @@
         <v>33.3</v>
       </c>
       <c r="J61" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2661,7 +2577,7 @@
         <v>33.3</v>
       </c>
       <c r="J62" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2702,7 +2618,7 @@
         <v>33.3</v>
       </c>
       <c r="J63" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2737,13 +2653,11 @@
         <v>1053147.042164031</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2778,13 +2692,11 @@
         <v>1012110.028664031</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2819,13 +2731,11 @@
         <v>846375.1299640314</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2860,13 +2770,11 @@
         <v>838282.6953640314</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2901,13 +2809,11 @@
         <v>1029170.866464031</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>32.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2942,13 +2848,11 @@
         <v>1031287.866464031</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>32.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2983,13 +2887,11 @@
         <v>1031287.866464031</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3024,13 +2926,11 @@
         <v>1031287.866464031</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3065,13 +2965,11 @@
         <v>1021028.613064031</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3106,13 +3004,11 @@
         <v>1039283.528664031</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3153,7 +3049,7 @@
         <v>33.3</v>
       </c>
       <c r="J74" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3188,13 +3084,11 @@
         <v>931825.7735640312</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3235,7 +3129,7 @@
         <v>33.2</v>
       </c>
       <c r="J76" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3276,7 +3170,7 @@
         <v>33.3</v>
       </c>
       <c r="J77" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3311,13 +3205,11 @@
         <v>908918.0459984526</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3352,13 +3244,11 @@
         <v>908918.0459984526</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3393,13 +3283,11 @@
         <v>860709.3984984526</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3440,7 +3328,7 @@
         <v>33</v>
       </c>
       <c r="J81" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3481,7 +3369,7 @@
         <v>32.8</v>
       </c>
       <c r="J82" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3522,7 +3410,7 @@
         <v>33</v>
       </c>
       <c r="J83" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3563,7 +3451,7 @@
         <v>32.9</v>
       </c>
       <c r="J84" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3604,7 +3492,7 @@
         <v>32.8</v>
       </c>
       <c r="J85" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3645,7 +3533,7 @@
         <v>32.8</v>
       </c>
       <c r="J86" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3686,7 +3574,7 @@
         <v>32.8</v>
       </c>
       <c r="J87" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3727,7 +3615,7 @@
         <v>32.7</v>
       </c>
       <c r="J88" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3768,7 +3656,7 @@
         <v>32.6</v>
       </c>
       <c r="J89" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3809,7 +3697,7 @@
         <v>32.4</v>
       </c>
       <c r="J90" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3850,7 +3738,7 @@
         <v>32.3</v>
       </c>
       <c r="J91" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3891,7 +3779,7 @@
         <v>32.8</v>
       </c>
       <c r="J92" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3932,7 +3820,7 @@
         <v>32.9</v>
       </c>
       <c r="J93" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3973,7 +3861,7 @@
         <v>33.1</v>
       </c>
       <c r="J94" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4014,7 +3902,7 @@
         <v>33.1</v>
       </c>
       <c r="J95" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4055,7 +3943,7 @@
         <v>33.2</v>
       </c>
       <c r="J96" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4096,7 +3984,7 @@
         <v>33.2</v>
       </c>
       <c r="J97" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4137,7 +4025,7 @@
         <v>33</v>
       </c>
       <c r="J98" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4178,7 +4066,7 @@
         <v>33.2</v>
       </c>
       <c r="J99" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4219,7 +4107,7 @@
         <v>33</v>
       </c>
       <c r="J100" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4260,7 +4148,7 @@
         <v>33</v>
       </c>
       <c r="J101" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4301,7 +4189,7 @@
         <v>33</v>
       </c>
       <c r="J102" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4342,7 +4230,7 @@
         <v>32.9</v>
       </c>
       <c r="J103" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4383,7 +4271,7 @@
         <v>33</v>
       </c>
       <c r="J104" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4424,7 +4312,7 @@
         <v>33</v>
       </c>
       <c r="J105" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4465,7 +4353,7 @@
         <v>33</v>
       </c>
       <c r="J106" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4506,7 +4394,7 @@
         <v>33.1</v>
       </c>
       <c r="J107" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4547,7 +4435,7 @@
         <v>33.4</v>
       </c>
       <c r="J108" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4588,7 +4476,7 @@
         <v>33</v>
       </c>
       <c r="J109" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4629,7 +4517,7 @@
         <v>33.4</v>
       </c>
       <c r="J110" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4670,7 +4558,7 @@
         <v>33.5</v>
       </c>
       <c r="J111" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4711,7 +4599,7 @@
         <v>33</v>
       </c>
       <c r="J112" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4752,7 +4640,7 @@
         <v>33.2</v>
       </c>
       <c r="J113" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4793,7 +4681,7 @@
         <v>33.5</v>
       </c>
       <c r="J114" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4834,7 +4722,7 @@
         <v>33.4</v>
       </c>
       <c r="J115" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4875,7 +4763,7 @@
         <v>33.2</v>
       </c>
       <c r="J116" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4916,7 +4804,7 @@
         <v>33.2</v>
       </c>
       <c r="J117" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4957,7 +4845,7 @@
         <v>33.2</v>
       </c>
       <c r="J118" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4998,7 +4886,7 @@
         <v>33.2</v>
       </c>
       <c r="J119" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5039,7 +4927,7 @@
         <v>33.2</v>
       </c>
       <c r="J120" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5080,7 +4968,7 @@
         <v>33.2</v>
       </c>
       <c r="J121" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5121,7 +5009,7 @@
         <v>33.2</v>
       </c>
       <c r="J122" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5162,7 +5050,7 @@
         <v>33.2</v>
       </c>
       <c r="J123" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5203,7 +5091,7 @@
         <v>33.2</v>
       </c>
       <c r="J124" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5244,7 +5132,7 @@
         <v>33.1</v>
       </c>
       <c r="J125" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5285,7 +5173,7 @@
         <v>33</v>
       </c>
       <c r="J126" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5326,7 +5214,7 @@
         <v>32.9</v>
       </c>
       <c r="J127" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5367,7 +5255,7 @@
         <v>33.2</v>
       </c>
       <c r="J128" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5408,7 +5296,7 @@
         <v>33.2</v>
       </c>
       <c r="J129" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5449,7 +5337,7 @@
         <v>33.3</v>
       </c>
       <c r="J130" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5490,7 +5378,7 @@
         <v>33.2</v>
       </c>
       <c r="J131" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5531,7 +5419,7 @@
         <v>33.2</v>
       </c>
       <c r="J132" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5572,7 +5460,7 @@
         <v>33.2</v>
       </c>
       <c r="J133" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5613,7 +5501,7 @@
         <v>33.2</v>
       </c>
       <c r="J134" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5654,7 +5542,7 @@
         <v>33.1</v>
       </c>
       <c r="J135" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5695,7 +5583,7 @@
         <v>33.1</v>
       </c>
       <c r="J136" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5736,7 +5624,7 @@
         <v>33.4</v>
       </c>
       <c r="J137" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5777,7 +5665,7 @@
         <v>33.3</v>
       </c>
       <c r="J138" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5818,7 +5706,7 @@
         <v>33.4</v>
       </c>
       <c r="J139" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5859,7 +5747,7 @@
         <v>33.6</v>
       </c>
       <c r="J140" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5900,7 +5788,7 @@
         <v>33.6</v>
       </c>
       <c r="J141" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5941,7 +5829,7 @@
         <v>33.4</v>
       </c>
       <c r="J142" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5982,7 +5870,7 @@
         <v>33.5</v>
       </c>
       <c r="J143" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6023,7 +5911,7 @@
         <v>33.5</v>
       </c>
       <c r="J144" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6064,7 +5952,7 @@
         <v>33.4</v>
       </c>
       <c r="J145" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6105,7 +5993,7 @@
         <v>33.6</v>
       </c>
       <c r="J146" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6146,7 +6034,7 @@
         <v>33.5</v>
       </c>
       <c r="J147" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6187,7 +6075,7 @@
         <v>33.4</v>
       </c>
       <c r="J148" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6228,7 +6116,7 @@
         <v>33.3</v>
       </c>
       <c r="J149" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6269,7 +6157,7 @@
         <v>33.2</v>
       </c>
       <c r="J150" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6310,7 +6198,7 @@
         <v>33.2</v>
       </c>
       <c r="J151" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6351,7 +6239,7 @@
         <v>33.3</v>
       </c>
       <c r="J152" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6392,7 +6280,7 @@
         <v>33.1</v>
       </c>
       <c r="J153" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6433,7 +6321,7 @@
         <v>33.5</v>
       </c>
       <c r="J154" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6474,7 +6362,7 @@
         <v>33.2</v>
       </c>
       <c r="J155" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6515,7 +6403,7 @@
         <v>33.4</v>
       </c>
       <c r="J156" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6556,7 +6444,7 @@
         <v>33.5</v>
       </c>
       <c r="J157" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6597,7 +6485,7 @@
         <v>33.5</v>
       </c>
       <c r="J158" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6638,7 +6526,7 @@
         <v>33.5</v>
       </c>
       <c r="J159" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6679,7 +6567,7 @@
         <v>33.5</v>
       </c>
       <c r="J160" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6720,7 +6608,7 @@
         <v>33.5</v>
       </c>
       <c r="J161" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6761,7 +6649,7 @@
         <v>33.7</v>
       </c>
       <c r="J162" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6802,7 +6690,7 @@
         <v>34.1</v>
       </c>
       <c r="J163" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6837,13 +6725,11 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6878,13 +6764,11 @@
         <v>1115341.722964031</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6919,13 +6803,11 @@
         <v>1115341.722964031</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>34.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6964,7 +6846,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7003,7 +6885,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7038,13 +6920,11 @@
         <v>1053628.920664031</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7079,13 +6959,11 @@
         <v>1051841.12166403</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7120,13 +6998,11 @@
         <v>1062140.898364031</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7161,13 +7037,11 @@
         <v>1062140.898364031</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7202,13 +7076,11 @@
         <v>1062140.898364031</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7243,13 +7115,11 @@
         <v>1063374.898364031</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7284,13 +7154,11 @@
         <v>1063374.898364031</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7325,13 +7193,11 @@
         <v>1060374.898364031</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7366,13 +7232,11 @@
         <v>1121587.889964031</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7407,13 +7271,11 @@
         <v>1052735.14536403</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7452,7 +7314,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7487,13 +7349,11 @@
         <v>1055793.75576403</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7532,7 +7392,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7571,7 +7431,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7610,7 +7470,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7649,7 +7509,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7688,7 +7548,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7727,7 +7587,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7766,7 +7626,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7805,7 +7665,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7844,7 +7704,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7883,7 +7743,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7922,7 +7782,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7961,7 +7821,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8000,7 +7860,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8039,7 +7899,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8078,7 +7938,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8117,7 +7977,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8156,7 +8016,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8195,7 +8055,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8234,7 +8094,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8269,13 +8129,11 @@
         <v>869814.9819480882</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8314,7 +8172,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8355,7 +8213,7 @@
         <v>33.5</v>
       </c>
       <c r="J202" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8396,7 +8254,7 @@
         <v>33.2</v>
       </c>
       <c r="J203" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8437,7 +8295,7 @@
         <v>33.7</v>
       </c>
       <c r="J204" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8472,11 +8330,13 @@
         <v>771002.0817480881</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J205" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8511,11 +8371,13 @@
         <v>776743.1710480881</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J206" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8550,11 +8412,13 @@
         <v>865411.7741480881</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J207" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8589,13 +8453,11 @@
         <v>865411.7741480881</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8634,7 +8496,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8673,7 +8535,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8712,7 +8574,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8751,7 +8613,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8790,7 +8652,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8829,7 +8691,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8868,7 +8730,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8907,7 +8769,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8946,7 +8808,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8985,7 +8847,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -9024,7 +8886,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9063,7 +8925,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9102,7 +8964,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9141,7 +9003,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9180,7 +9042,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9219,7 +9081,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9258,7 +9120,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9293,11 +9155,13 @@
         <v>889878.1954480881</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>33.9</v>
+      </c>
       <c r="J226" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9332,11 +9196,13 @@
         <v>877312.9177480881</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>33.7</v>
+      </c>
       <c r="J227" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9371,11 +9237,13 @@
         <v>877312.9177480881</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J228" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9410,11 +9278,13 @@
         <v>845802.9177480881</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J229" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9449,11 +9319,13 @@
         <v>845802.9177480881</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J230" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9488,11 +9360,13 @@
         <v>848942.9177480881</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J231" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9527,11 +9401,13 @@
         <v>848942.9177480881</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J232" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9566,11 +9442,13 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J233" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9605,11 +9483,13 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J234" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9644,11 +9524,13 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J235" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9683,11 +9565,13 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J236" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9722,11 +9606,13 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J237" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9761,11 +9647,13 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J238" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9800,11 +9688,13 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J239" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9839,11 +9729,13 @@
         <v>750784.2669480881</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J240" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9884,7 +9776,7 @@
         <v>33.7</v>
       </c>
       <c r="J241" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9919,11 +9811,13 @@
         <v>758821.504148088</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J242" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9958,11 +9852,13 @@
         <v>758821.504148088</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J243" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9997,11 +9893,13 @@
         <v>758821.504148088</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J244" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10036,11 +9934,13 @@
         <v>758821.504148088</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J245" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10075,11 +9975,13 @@
         <v>739775.721548088</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J246" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10114,11 +10016,13 @@
         <v>739775.721548088</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>33.7</v>
+      </c>
       <c r="J247" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10159,7 +10063,7 @@
         <v>33.7</v>
       </c>
       <c r="J248" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10200,7 +10104,7 @@
         <v>33.6</v>
       </c>
       <c r="J249" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10235,11 +10139,13 @@
         <v>840385.2128480879</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>33.8</v>
+      </c>
       <c r="J250" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10274,11 +10180,13 @@
         <v>836250.2075480879</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>33.9</v>
+      </c>
       <c r="J251" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10319,7 +10227,7 @@
         <v>33.6</v>
       </c>
       <c r="J252" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10354,11 +10262,13 @@
         <v>819904.7075480879</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>34</v>
+      </c>
       <c r="J253" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10393,11 +10303,13 @@
         <v>819904.7075480879</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>33.9</v>
+      </c>
       <c r="J254" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10432,11 +10344,13 @@
         <v>859988.058748088</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>33.9</v>
+      </c>
       <c r="J255" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10471,11 +10385,13 @@
         <v>859988.058748088</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>34</v>
+      </c>
       <c r="J256" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10510,11 +10426,13 @@
         <v>894603.117748088</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>34</v>
+      </c>
       <c r="J257" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10553,7 +10471,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10592,7 +10510,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10631,7 +10549,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10670,7 +10588,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10709,7 +10627,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10748,7 +10666,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10787,7 +10705,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10826,7 +10744,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10865,7 +10783,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10904,7 +10822,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10943,7 +10861,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10982,7 +10900,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -11021,7 +10939,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11060,7 +10978,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11099,7 +11017,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11138,7 +11056,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11177,7 +11095,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11216,7 +11134,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11255,7 +11173,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11294,7 +11212,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11333,7 +11251,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11372,7 +11290,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11411,7 +11329,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11450,7 +11368,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11489,7 +11407,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11528,7 +11446,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11567,7 +11485,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11606,7 +11524,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11645,7 +11563,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11684,7 +11602,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11723,7 +11641,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11762,7 +11680,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11801,7 +11719,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11840,7 +11758,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11879,7 +11797,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11914,21 +11832,23 @@
         <v>2593986.598762092</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+        <v>1.122272727272728</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1.036363636363636</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11956,14 +11876,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11992,17 +11906,11 @@
         <v>3026855.464862092</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12031,17 +11939,11 @@
         <v>3096676.992462093</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12070,17 +11972,11 @@
         <v>3010480.298762092</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12109,17 +12005,11 @@
         <v>3552518.844062092</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12148,17 +12038,11 @@
         <v>3552518.844062092</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12187,17 +12071,11 @@
         <v>3449533.312562092</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12226,17 +12104,11 @@
         <v>3301310.058434819</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12265,17 +12137,11 @@
         <v>3416098.247150609</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12304,17 +12170,11 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12343,17 +12203,11 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12382,17 +12236,11 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12421,17 +12269,11 @@
         <v>3437073.596250609</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12460,17 +12302,11 @@
         <v>3418825.630050609</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12499,17 +12335,11 @@
         <v>3472537.630250609</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12538,17 +12368,11 @@
         <v>3433689.380050609</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12577,17 +12401,11 @@
         <v>3571974.438950609</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12616,17 +12434,11 @@
         <v>3494203.561050609</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12655,17 +12467,11 @@
         <v>3528226.044350609</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12694,17 +12500,11 @@
         <v>3608845.618250609</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12736,14 +12536,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12775,14 +12569,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12814,14 +12602,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12853,14 +12635,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12892,14 +12668,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12931,14 +12701,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12967,17 +12731,11 @@
         <v>3208531.842266398</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13006,17 +12764,11 @@
         <v>3263092.495066398</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13045,17 +12797,11 @@
         <v>3323043.430912592</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13084,17 +12830,11 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13123,17 +12863,11 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13162,17 +12896,11 @@
         <v>3277718.002190956</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13204,14 +12932,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13240,17 +12962,11 @@
         <v>3042160.079090956</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13279,17 +12995,11 @@
         <v>3063631.472190956</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13321,14 +13031,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13360,14 +13064,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13399,14 +13097,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13438,14 +13130,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13477,14 +13163,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13516,14 +13196,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13555,14 +13229,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13591,17 +13259,11 @@
         <v>2938155.794590956</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13630,17 +13292,11 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13669,17 +13325,11 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13708,17 +13358,11 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13747,17 +13391,11 @@
         <v>2982029.858990956</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13789,14 +13427,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13828,14 +13460,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13867,14 +13493,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13906,14 +13526,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13945,14 +13559,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13984,14 +13592,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14023,14 +13625,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14062,14 +13658,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14101,14 +13691,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14140,14 +13724,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14179,14 +13757,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14218,14 +13790,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14257,14 +13823,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14296,14 +13856,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14335,14 +13889,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14374,14 +13922,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14413,14 +13955,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14452,14 +13988,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14491,14 +14021,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14530,14 +14054,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14569,14 +14087,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14608,14 +14120,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14647,14 +14153,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14686,14 +14186,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14725,14 +14219,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14764,14 +14252,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14803,14 +14285,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14842,14 +14318,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14881,14 +14351,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14920,14 +14384,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14959,14 +14417,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14998,14 +14450,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15037,14 +14483,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15076,14 +14516,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15115,14 +14549,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15154,14 +14582,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15193,14 +14615,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15232,14 +14648,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15271,14 +14681,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15310,14 +14714,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15349,14 +14747,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15388,14 +14780,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15427,14 +14813,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15466,14 +14846,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15505,14 +14879,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15544,14 +14912,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15583,14 +14945,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15622,14 +14978,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15661,14 +15011,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15697,17 +15041,11 @@
         <v>2936392.370033264</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15739,14 +15077,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15778,14 +15110,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15817,14 +15143,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15856,14 +15176,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15895,14 +15209,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15934,14 +15242,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15973,14 +15275,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16012,14 +15308,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16051,14 +15341,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16090,14 +15374,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16129,14 +15407,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16168,14 +15440,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16207,14 +15473,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16246,14 +15506,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16285,14 +15539,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16324,14 +15572,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16363,14 +15605,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16402,14 +15638,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16441,14 +15671,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16480,14 +15704,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16516,23 +15734,15 @@
         <v>4827200.578340021</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
-        <v>1.228532934131737</v>
-      </c>
-      <c r="M411" t="n">
-        <v>1.033232628398792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -16557,7 +15767,7 @@
         <v>4745839.225018471</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16590,7 +15800,7 @@
         <v>4853903.481096921</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16623,7 +15833,7 @@
         <v>4728047.706296922</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16656,7 +15866,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16689,7 +15899,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16722,7 +15932,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16755,7 +15965,7 @@
         <v>5722652.455696922</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16788,7 +15998,7 @@
         <v>5873429.448496922</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16821,7 +16031,7 @@
         <v>6043088.618696922</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16854,7 +16064,7 @@
         <v>5449708.617796921</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16887,7 +16097,7 @@
         <v>4966007.126496921</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16920,7 +16130,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16953,7 +16163,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16986,7 +16196,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -17019,7 +16229,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -17052,7 +16262,7 @@
         <v>4525313.82032769</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -17085,7 +16295,7 @@
         <v>4730768.087020373</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -17118,7 +16328,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -17151,7 +16361,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17184,7 +16394,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -17217,7 +16427,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17250,7 +16460,7 @@
         <v>4764691.24012769</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17283,7 +16493,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17316,7 +16526,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17349,7 +16559,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17382,7 +16592,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17415,7 +16625,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17448,7 +16658,7 @@
         <v>4794318.960586514</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17481,7 +16691,7 @@
         <v>4926939.232386515</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17514,7 +16724,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17547,7 +16757,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17580,7 +16790,7 @@
         <v>4857484.657086515</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17613,7 +16823,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17646,7 +16856,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17679,7 +16889,7 @@
         <v>4813151.484286514</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17712,7 +16922,7 @@
         <v>4822429.667386514</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17745,7 +16955,7 @@
         <v>4821222.899386514</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17778,7 +16988,7 @@
         <v>4821242.899386514</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17811,7 +17021,7 @@
         <v>4817986.097286514</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17877,7 +17087,7 @@
         <v>4819844.380786514</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17976,7 +17186,7 @@
         <v>4832991.973933952</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18009,7 +17219,7 @@
         <v>4750736.806406873</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18042,7 +17252,7 @@
         <v>4636718.305106874</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18075,7 +17285,7 @@
         <v>4519085.357016582</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18108,7 +17318,7 @@
         <v>4447168.134716582</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18141,7 +17351,7 @@
         <v>4447178.134716582</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18174,7 +17384,7 @@
         <v>4482249.408916582</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18207,7 +17417,7 @@
         <v>4490459.397116582</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18240,7 +17450,7 @@
         <v>4493651.244516582</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18273,7 +17483,7 @@
         <v>4626973.147116582</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18306,7 +17516,7 @@
         <v>4611829.279216582</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18339,7 +17549,7 @@
         <v>4442918.072416582</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18372,7 +17582,7 @@
         <v>4444128.726116582</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18405,7 +17615,7 @@
         <v>4444118.726116582</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18438,7 +17648,7 @@
         <v>4444081.726116582</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18471,7 +17681,7 @@
         <v>4252369.776616582</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18504,7 +17714,7 @@
         <v>4252369.776616582</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18537,7 +17747,7 @@
         <v>4213298.219916582</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18570,7 +17780,7 @@
         <v>4215966.028216582</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18603,7 +17813,7 @@
         <v>4174840.095416582</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18636,7 +17846,7 @@
         <v>4174840.095416582</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18669,7 +17879,7 @@
         <v>4176850.095416582</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18702,7 +17912,7 @@
         <v>4097397.694716582</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18735,7 +17945,7 @@
         <v>4097397.694716582</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18768,7 +17978,7 @@
         <v>3887643.649016581</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18801,7 +18011,7 @@
         <v>3887643.649016581</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18834,7 +18044,7 @@
         <v>3815646.024016581</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18867,7 +18077,7 @@
         <v>3613679.665016581</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18900,7 +18110,7 @@
         <v>3438523.793816581</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18933,7 +18143,7 @@
         <v>3655879.793816581</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18966,7 +18176,7 @@
         <v>3727802.758616582</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18999,7 +18209,7 @@
         <v>3739923.902816582</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19032,7 +18242,7 @@
         <v>3713168.202816581</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19065,7 +18275,7 @@
         <v>3724146.831316581</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19098,7 +18308,7 @@
         <v>3726146.831316581</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19131,7 +18341,7 @@
         <v>3843557.826016582</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19164,7 +18374,7 @@
         <v>3839557.826016582</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19197,7 +18407,7 @@
         <v>3839557.826016582</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19230,7 +18440,7 @@
         <v>3851273.443016582</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19263,7 +18473,7 @@
         <v>4164914.044216582</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19296,7 +18506,7 @@
         <v>4157880.080916582</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19329,7 +18539,7 @@
         <v>4138378.937416582</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19362,7 +18572,7 @@
         <v>4081396.971016582</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19428,7 +18638,7 @@
         <v>3788374.932916582</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19461,7 +18671,7 @@
         <v>3788374.932916582</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19494,7 +18704,7 @@
         <v>3763904.716316582</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19527,7 +18737,7 @@
         <v>3771905.244416582</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19560,7 +18770,7 @@
         <v>3769841.497516582</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -21309,7 +20519,7 @@
         <v>4356547.950091915</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21342,7 +20552,7 @@
         <v>4357125.189791915</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21375,7 +20585,7 @@
         <v>4352625.189791915</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21408,7 +20618,7 @@
         <v>4350125.189791915</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21441,7 +20651,7 @@
         <v>4520080.508874352</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21474,7 +20684,7 @@
         <v>4514786.438974353</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21507,7 +20717,7 @@
         <v>4514786.438974353</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21540,7 +20750,7 @@
         <v>4487978.112674353</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21573,7 +20783,7 @@
         <v>4487978.112674353</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21606,7 +20816,7 @@
         <v>4467163.645174352</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21639,7 +20849,7 @@
         <v>4462332.368574352</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21672,7 +20882,7 @@
         <v>4151108.594874352</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21705,7 +20915,7 @@
         <v>4157352.633774352</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21738,7 +20948,7 @@
         <v>4157352.633774352</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21771,7 +20981,7 @@
         <v>4157352.633774352</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21804,7 +21014,7 @@
         <v>4147511.205174352</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21837,7 +21047,7 @@
         <v>4147511.205174352</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21870,7 +21080,7 @@
         <v>4177804.132474352</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21903,7 +21113,7 @@
         <v>4251275.132474352</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21936,7 +21146,7 @@
         <v>4241541.338374352</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21969,7 +21179,7 @@
         <v>4241541.338374352</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22002,7 +21212,7 @@
         <v>4245000.839710806</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22035,7 +21245,7 @@
         <v>4245000.839710806</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22068,7 +21278,7 @@
         <v>4244568.788010806</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22101,7 +21311,7 @@
         <v>4244568.788010806</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22134,7 +21344,7 @@
         <v>4237417.814310806</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22167,7 +21377,7 @@
         <v>4231611.482610806</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22200,7 +21410,7 @@
         <v>4231611.482610806</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22233,7 +21443,7 @@
         <v>4231611.482610806</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22266,7 +21476,7 @@
         <v>4231589.274610806</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22299,7 +21509,7 @@
         <v>4231599.274610806</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22332,7 +21542,7 @@
         <v>4231599.274610806</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22365,7 +21575,7 @@
         <v>4231599.274610806</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22398,7 +21608,7 @@
         <v>4231599.274610806</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22431,7 +21641,7 @@
         <v>4218465.477310807</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22464,7 +21674,7 @@
         <v>4276279.338010807</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22497,7 +21707,7 @@
         <v>4205720.256210807</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22530,7 +21740,7 @@
         <v>4204794.012010807</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22563,7 +21773,7 @@
         <v>4204804.012010807</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22596,7 +21806,7 @@
         <v>4154293.497510807</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22629,7 +21839,7 @@
         <v>4154303.497510807</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22662,7 +21872,7 @@
         <v>4078181.228210807</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22695,7 +21905,7 @@
         <v>4129836.325310807</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22728,7 +21938,7 @@
         <v>4045454.643810807</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22761,7 +21971,7 @@
         <v>4041954.643810807</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22794,7 +22004,7 @@
         <v>4041954.643810807</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22827,7 +22037,7 @@
         <v>3938320.961810807</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22860,7 +22070,7 @@
         <v>3936919.425310807</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22893,7 +22103,7 @@
         <v>3942941.505910807</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22926,7 +22136,7 @@
         <v>3942941.505910807</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22959,7 +22169,7 @@
         <v>3936941.505910807</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -33189,7 +32399,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -33321,7 +32531,7 @@
         <v>5595319.010801719</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -33387,7 +32597,7 @@
         <v>5029344.823101719</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33420,7 +32630,7 @@
         <v>4773835.421601719</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33453,7 +32663,7 @@
         <v>4373902.693101719</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33486,7 +32696,7 @@
         <v>4373902.693101719</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33519,7 +32729,7 @@
         <v>4472341.005701719</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33552,7 +32762,7 @@
         <v>4484336.768001718</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33585,7 +32795,7 @@
         <v>4588338.684301718</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33618,7 +32828,7 @@
         <v>4783767.814598819</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33651,7 +32861,7 @@
         <v>4697671.937298819</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33684,7 +32894,7 @@
         <v>4697671.937298819</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33717,7 +32927,7 @@
         <v>4605406.463098819</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33750,7 +32960,7 @@
         <v>4605406.463098819</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33783,7 +32993,7 @@
         <v>4291703.823398819</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33816,7 +33026,7 @@
         <v>4293823.969098819</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33849,7 +33059,7 @@
         <v>4170549.12279882</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33882,7 +33092,7 @@
         <v>4443523.619814016</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -34388,6 +33598,6 @@
       <c r="M952" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-22 BackTest LAMB.xlsx
@@ -1837,14 +1837,10 @@
         <v>1026856.236164031</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>33</v>
-      </c>
-      <c r="J44" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1874,19 +1870,11 @@
         <v>1019964.469164031</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>33</v>
-      </c>
-      <c r="J45" t="n">
-        <v>33</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1903,11 @@
         <v>1097124.960564031</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>33</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1936,11 @@
         <v>1065648.645264031</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>33</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2003,13 +1975,9 @@
         <v>32.5</v>
       </c>
       <c r="J48" t="n">
-        <v>33</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>32.5</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2038,17 +2006,15 @@
         <v>1294198.371664031</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>32.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2079,17 +2045,15 @@
         <v>1137073.269064031</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>32.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2126,11 +2090,11 @@
         <v>32.6</v>
       </c>
       <c r="J51" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2167,7 +2131,7 @@
         <v>32.6</v>
       </c>
       <c r="J52" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2208,7 +2172,7 @@
         <v>32.6</v>
       </c>
       <c r="J53" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2249,7 +2213,7 @@
         <v>33.6</v>
       </c>
       <c r="J54" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2290,7 +2254,7 @@
         <v>32.9</v>
       </c>
       <c r="J55" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2331,7 +2295,7 @@
         <v>32.9</v>
       </c>
       <c r="J56" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2372,7 +2336,7 @@
         <v>32.8</v>
       </c>
       <c r="J57" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2413,7 +2377,7 @@
         <v>32.6</v>
       </c>
       <c r="J58" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2454,7 +2418,7 @@
         <v>33.3</v>
       </c>
       <c r="J59" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2495,7 +2459,7 @@
         <v>33.3</v>
       </c>
       <c r="J60" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2530,13 +2494,11 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2577,7 +2539,7 @@
         <v>33.3</v>
       </c>
       <c r="J62" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2612,13 +2574,11 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2653,11 +2613,13 @@
         <v>1053147.042164031</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>33.3</v>
+      </c>
       <c r="J64" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2696,7 +2658,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2735,7 +2697,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2774,7 +2736,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2813,7 +2775,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2852,7 +2814,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2891,7 +2853,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2930,7 +2892,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2969,7 +2931,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3008,7 +2970,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3043,13 +3005,11 @@
         <v>930137.1384640313</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3088,7 +3048,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3123,13 +3083,11 @@
         <v>941825.7735640312</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3164,13 +3122,11 @@
         <v>908918.0459984526</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3209,7 +3165,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3248,7 +3204,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3287,7 +3243,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3322,13 +3278,11 @@
         <v>848005.2412984526</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3369,7 +3323,7 @@
         <v>32.8</v>
       </c>
       <c r="J82" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3410,7 +3364,7 @@
         <v>33</v>
       </c>
       <c r="J83" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3451,7 +3405,7 @@
         <v>32.9</v>
       </c>
       <c r="J84" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3492,7 +3446,7 @@
         <v>32.8</v>
       </c>
       <c r="J85" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3533,7 +3487,7 @@
         <v>32.8</v>
       </c>
       <c r="J86" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3574,7 +3528,7 @@
         <v>32.8</v>
       </c>
       <c r="J87" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3615,7 +3569,7 @@
         <v>32.7</v>
       </c>
       <c r="J88" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3656,7 +3610,7 @@
         <v>32.6</v>
       </c>
       <c r="J89" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3697,7 +3651,7 @@
         <v>32.4</v>
       </c>
       <c r="J90" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3738,7 +3692,7 @@
         <v>32.3</v>
       </c>
       <c r="J91" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3779,7 +3733,7 @@
         <v>32.8</v>
       </c>
       <c r="J92" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3820,7 +3774,7 @@
         <v>32.9</v>
       </c>
       <c r="J93" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3861,7 +3815,7 @@
         <v>33.1</v>
       </c>
       <c r="J94" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3902,7 +3856,7 @@
         <v>33.1</v>
       </c>
       <c r="J95" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3943,7 +3897,7 @@
         <v>33.2</v>
       </c>
       <c r="J96" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3984,7 +3938,7 @@
         <v>33.2</v>
       </c>
       <c r="J97" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4025,7 +3979,7 @@
         <v>33</v>
       </c>
       <c r="J98" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4066,7 +4020,7 @@
         <v>33.2</v>
       </c>
       <c r="J99" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4107,7 +4061,7 @@
         <v>33</v>
       </c>
       <c r="J100" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4148,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="J101" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4189,7 +4143,7 @@
         <v>33</v>
       </c>
       <c r="J102" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4230,7 +4184,7 @@
         <v>32.9</v>
       </c>
       <c r="J103" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4271,7 +4225,7 @@
         <v>33</v>
       </c>
       <c r="J104" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4312,7 +4266,7 @@
         <v>33</v>
       </c>
       <c r="J105" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4353,7 +4307,7 @@
         <v>33</v>
       </c>
       <c r="J106" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4394,7 +4348,7 @@
         <v>33.1</v>
       </c>
       <c r="J107" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4435,7 +4389,7 @@
         <v>33.4</v>
       </c>
       <c r="J108" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4476,7 +4430,7 @@
         <v>33</v>
       </c>
       <c r="J109" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4517,7 +4471,7 @@
         <v>33.4</v>
       </c>
       <c r="J110" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4558,7 +4512,7 @@
         <v>33.5</v>
       </c>
       <c r="J111" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4599,7 +4553,7 @@
         <v>33</v>
       </c>
       <c r="J112" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4640,7 +4594,7 @@
         <v>33.2</v>
       </c>
       <c r="J113" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4675,13 +4629,11 @@
         <v>1149850.103498452</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4716,13 +4668,11 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>33.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4763,7 +4713,7 @@
         <v>33.2</v>
       </c>
       <c r="J116" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4798,13 +4748,11 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4839,13 +4787,11 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4880,13 +4826,11 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4927,7 +4871,7 @@
         <v>33.2</v>
       </c>
       <c r="J120" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4968,7 +4912,7 @@
         <v>33.2</v>
       </c>
       <c r="J121" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5003,13 +4947,11 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5050,7 +4992,7 @@
         <v>33.2</v>
       </c>
       <c r="J123" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5091,7 +5033,7 @@
         <v>33.2</v>
       </c>
       <c r="J124" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5132,7 +5074,7 @@
         <v>33.1</v>
       </c>
       <c r="J125" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5173,7 +5115,7 @@
         <v>33</v>
       </c>
       <c r="J126" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5214,7 +5156,7 @@
         <v>32.9</v>
       </c>
       <c r="J127" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5255,7 +5197,7 @@
         <v>33.2</v>
       </c>
       <c r="J128" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5296,7 +5238,7 @@
         <v>33.2</v>
       </c>
       <c r="J129" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5337,7 +5279,7 @@
         <v>33.3</v>
       </c>
       <c r="J130" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5378,7 +5320,7 @@
         <v>33.2</v>
       </c>
       <c r="J131" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5419,7 +5361,7 @@
         <v>33.2</v>
       </c>
       <c r="J132" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5460,7 +5402,7 @@
         <v>33.2</v>
       </c>
       <c r="J133" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5501,7 +5443,7 @@
         <v>33.2</v>
       </c>
       <c r="J134" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5542,7 +5484,7 @@
         <v>33.1</v>
       </c>
       <c r="J135" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5583,7 +5525,7 @@
         <v>33.1</v>
       </c>
       <c r="J136" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5624,7 +5566,7 @@
         <v>33.4</v>
       </c>
       <c r="J137" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5665,7 +5607,7 @@
         <v>33.3</v>
       </c>
       <c r="J138" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5706,7 +5648,7 @@
         <v>33.4</v>
       </c>
       <c r="J139" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5747,7 +5689,7 @@
         <v>33.6</v>
       </c>
       <c r="J140" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5788,7 +5730,7 @@
         <v>33.6</v>
       </c>
       <c r="J141" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5829,7 +5771,7 @@
         <v>33.4</v>
       </c>
       <c r="J142" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5870,7 +5812,7 @@
         <v>33.5</v>
       </c>
       <c r="J143" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5911,7 +5853,7 @@
         <v>33.5</v>
       </c>
       <c r="J144" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5952,7 +5894,7 @@
         <v>33.4</v>
       </c>
       <c r="J145" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5987,13 +5929,11 @@
         <v>1132051.027564031</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6028,13 +5968,11 @@
         <v>1131250.428664031</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6069,13 +6007,11 @@
         <v>1128150.923764031</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>33.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6110,13 +6046,11 @@
         <v>1122000.942164031</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6157,7 +6091,7 @@
         <v>33.2</v>
       </c>
       <c r="J150" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6198,7 +6132,7 @@
         <v>33.2</v>
       </c>
       <c r="J151" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6239,7 +6173,7 @@
         <v>33.3</v>
       </c>
       <c r="J152" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6280,7 +6214,7 @@
         <v>33.1</v>
       </c>
       <c r="J153" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6321,7 +6255,7 @@
         <v>33.5</v>
       </c>
       <c r="J154" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6362,7 +6296,7 @@
         <v>33.2</v>
       </c>
       <c r="J155" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6403,7 +6337,7 @@
         <v>33.4</v>
       </c>
       <c r="J156" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6438,13 +6372,11 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6479,13 +6411,11 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6520,13 +6450,11 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6561,13 +6489,11 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6602,13 +6528,11 @@
         <v>1105443.638664031</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6643,13 +6567,11 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6684,13 +6606,11 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>34.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6729,7 +6649,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6768,7 +6688,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6807,7 +6727,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6846,7 +6766,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6885,7 +6805,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6924,7 +6844,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6963,7 +6883,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7002,7 +6922,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7041,7 +6961,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7080,7 +7000,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7119,7 +7039,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7158,7 +7078,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7197,7 +7117,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7236,7 +7156,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7275,7 +7195,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7314,7 +7234,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7353,7 +7273,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7392,7 +7312,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7431,7 +7351,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7470,7 +7390,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7509,7 +7429,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7548,7 +7468,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7587,7 +7507,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7626,7 +7546,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7665,7 +7585,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7704,7 +7624,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7743,7 +7663,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7782,7 +7702,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7821,7 +7741,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7860,7 +7780,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7899,7 +7819,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7938,7 +7858,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7977,7 +7897,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8016,7 +7936,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8055,7 +7975,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8094,7 +8014,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8133,7 +8053,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8172,7 +8092,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8207,13 +8127,11 @@
         <v>743093.3761480881</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8248,13 +8166,11 @@
         <v>777197.6548480882</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>33.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8289,13 +8205,11 @@
         <v>771002.0817480881</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8330,13 +8244,11 @@
         <v>771002.0817480881</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8371,13 +8283,11 @@
         <v>776743.1710480881</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8412,13 +8322,11 @@
         <v>865411.7741480881</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8457,7 +8365,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8496,7 +8404,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8535,7 +8443,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8574,7 +8482,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8613,7 +8521,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8652,7 +8560,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8691,7 +8599,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8730,7 +8638,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8769,7 +8677,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8808,7 +8716,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8847,7 +8755,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8886,7 +8794,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8925,7 +8833,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8964,7 +8872,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9003,7 +8911,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9042,7 +8950,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9081,7 +8989,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9120,7 +9028,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9155,13 +9063,11 @@
         <v>889878.1954480881</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9196,13 +9102,11 @@
         <v>877312.9177480881</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9237,13 +9141,11 @@
         <v>877312.9177480881</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9278,13 +9180,11 @@
         <v>845802.9177480881</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9319,13 +9219,11 @@
         <v>845802.9177480881</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9360,13 +9258,11 @@
         <v>848942.9177480881</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9401,13 +9297,11 @@
         <v>848942.9177480881</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9442,13 +9336,11 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9483,13 +9375,11 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9524,13 +9414,11 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9565,13 +9453,11 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9606,13 +9492,11 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9647,13 +9531,11 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9688,13 +9570,11 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9729,13 +9609,11 @@
         <v>750784.2669480881</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9770,13 +9648,11 @@
         <v>745365.1055480881</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9811,13 +9687,11 @@
         <v>758821.504148088</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>33.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9852,13 +9726,11 @@
         <v>758821.504148088</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9893,13 +9765,11 @@
         <v>758821.504148088</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9934,13 +9804,11 @@
         <v>758821.504148088</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9975,13 +9843,11 @@
         <v>739775.721548088</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10016,13 +9882,11 @@
         <v>739775.721548088</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10057,13 +9921,11 @@
         <v>722873.668048088</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10098,13 +9960,11 @@
         <v>748357.0823480879</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10139,13 +9999,11 @@
         <v>840385.2128480879</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>33.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10180,13 +10038,11 @@
         <v>836250.2075480879</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10221,13 +10077,11 @@
         <v>837104.7075480879</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10262,13 +10116,11 @@
         <v>819904.7075480879</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10303,13 +10155,11 @@
         <v>819904.7075480879</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10344,13 +10194,11 @@
         <v>859988.058748088</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>33.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10385,13 +10233,11 @@
         <v>859988.058748088</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10426,13 +10272,11 @@
         <v>894603.117748088</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10471,7 +10315,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10510,7 +10354,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10549,7 +10393,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10588,7 +10432,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10627,7 +10471,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10666,7 +10510,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10705,7 +10549,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10744,7 +10588,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10783,7 +10627,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10822,7 +10666,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10861,7 +10705,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10900,7 +10744,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10939,7 +10783,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10978,7 +10822,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11017,7 +10861,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11056,7 +10900,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11095,7 +10939,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11134,7 +10978,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11173,7 +11017,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11212,7 +11056,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11251,7 +11095,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11290,7 +11134,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11329,7 +11173,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11368,7 +11212,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11407,7 +11251,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11446,7 +11290,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11485,7 +11329,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11524,7 +11368,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11563,7 +11407,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11602,7 +11446,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11641,7 +11485,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11680,7 +11524,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11719,7 +11563,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11758,7 +11602,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11797,7 +11641,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11832,23 +11676,21 @@
         <v>2593986.598762092</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L293" t="n">
-        <v>1.122272727272728</v>
-      </c>
-      <c r="M293" t="n">
-        <v>1.036363636363636</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11876,8 +11718,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11906,11 +11754,17 @@
         <v>3026855.464862092</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11939,11 +11793,17 @@
         <v>3096676.992462093</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11972,11 +11832,17 @@
         <v>3010480.298762092</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12005,11 +11871,17 @@
         <v>3552518.844062092</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12038,11 +11910,17 @@
         <v>3552518.844062092</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12071,11 +11949,17 @@
         <v>3449533.312562092</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12104,11 +11988,17 @@
         <v>3301310.058434819</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12137,11 +12027,17 @@
         <v>3416098.247150609</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12170,11 +12066,17 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12203,11 +12105,17 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12236,11 +12144,17 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +12183,17 @@
         <v>3437073.596250609</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12302,11 +12222,17 @@
         <v>3418825.630050609</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12335,11 +12261,17 @@
         <v>3472537.630250609</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12368,11 +12300,17 @@
         <v>3433689.380050609</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +12339,17 @@
         <v>3571974.438950609</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12434,11 +12378,17 @@
         <v>3494203.561050609</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12467,11 +12417,17 @@
         <v>3528226.044350609</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +12456,17 @@
         <v>3608845.618250609</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12536,8 +12498,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12569,8 +12537,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12602,8 +12576,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12635,8 +12615,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12668,8 +12654,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12701,8 +12693,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12731,11 +12729,17 @@
         <v>3208531.842266398</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12764,11 +12768,17 @@
         <v>3263092.495066398</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12797,11 +12807,17 @@
         <v>3323043.430912592</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12830,11 +12846,17 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12863,11 +12885,17 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12896,11 +12924,17 @@
         <v>3277718.002190956</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12932,8 +12966,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12962,11 +13002,17 @@
         <v>3042160.079090956</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12995,11 +13041,17 @@
         <v>3063631.472190956</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13031,8 +13083,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13064,8 +13122,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13097,8 +13161,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13130,8 +13200,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13163,8 +13239,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13196,8 +13278,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13229,8 +13317,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13259,11 +13353,17 @@
         <v>2938155.794590956</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +13392,17 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13325,11 +13431,17 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13358,11 +13470,17 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13391,11 +13509,17 @@
         <v>2982029.858990956</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13427,8 +13551,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13460,8 +13590,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13493,8 +13629,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13526,8 +13668,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13559,8 +13707,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13592,8 +13746,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13625,8 +13785,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13658,8 +13824,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13691,8 +13863,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13724,8 +13902,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13757,8 +13941,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13790,8 +13980,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13823,8 +14019,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13856,8 +14058,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13889,8 +14097,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13922,8 +14136,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13955,8 +14175,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13988,8 +14214,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14021,8 +14253,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14054,8 +14292,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14087,8 +14331,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14120,8 +14370,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14153,8 +14409,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14186,8 +14448,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14219,8 +14487,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14252,8 +14526,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14285,8 +14565,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14318,8 +14604,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14351,8 +14643,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14384,8 +14682,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14417,8 +14721,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14450,8 +14760,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14483,8 +14799,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14516,8 +14838,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14549,8 +14877,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14582,8 +14916,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14615,8 +14955,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14648,8 +14994,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14681,8 +15033,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14714,8 +15072,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14747,8 +15111,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14780,8 +15150,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14813,8 +15189,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14846,8 +15228,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14879,8 +15267,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14912,8 +15306,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14945,8 +15345,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14978,8 +15384,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15011,8 +15423,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15041,11 +15459,17 @@
         <v>2936392.370033264</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15077,8 +15501,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15110,8 +15540,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15143,8 +15579,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15176,8 +15618,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15209,8 +15657,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15242,8 +15696,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15275,8 +15735,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15308,8 +15774,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15341,8 +15813,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15374,8 +15852,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15407,8 +15891,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15440,8 +15930,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15473,8 +15969,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15506,8 +16008,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15539,8 +16047,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15572,8 +16086,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15605,8 +16125,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15638,8 +16164,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15671,8 +16203,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15701,15 +16239,23 @@
         <v>4510585.187540021</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
+        <v>1.253461538461539</v>
+      </c>
+      <c r="M410" t="n">
+        <v>1.052307692307692</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -15734,7 +16280,7 @@
         <v>4827200.578340021</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15767,7 +16313,7 @@
         <v>4745839.225018471</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15800,7 +16346,7 @@
         <v>4853903.481096921</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15833,7 +16379,7 @@
         <v>4728047.706296922</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15866,7 +16412,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15899,7 +16445,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15932,7 +16478,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15965,7 +16511,7 @@
         <v>5722652.455696922</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15998,7 +16544,7 @@
         <v>5873429.448496922</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16031,7 +16577,7 @@
         <v>6043088.618696922</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16064,7 +16610,7 @@
         <v>5449708.617796921</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16097,7 +16643,7 @@
         <v>4966007.126496921</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16130,7 +16676,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16163,7 +16709,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16196,7 +16742,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16229,7 +16775,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16262,7 +16808,7 @@
         <v>4525313.82032769</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16295,7 +16841,7 @@
         <v>4730768.087020373</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16328,7 +16874,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16361,7 +16907,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16394,7 +16940,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16427,7 +16973,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16460,7 +17006,7 @@
         <v>4764691.24012769</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16493,7 +17039,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16526,7 +17072,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16559,7 +17105,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16592,7 +17138,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16625,7 +17171,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16658,7 +17204,7 @@
         <v>4794318.960586514</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16691,7 +17237,7 @@
         <v>4926939.232386515</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16724,7 +17270,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16757,7 +17303,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16790,7 +17336,7 @@
         <v>4857484.657086515</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16823,7 +17369,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16856,7 +17402,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16889,7 +17435,7 @@
         <v>4813151.484286514</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16922,7 +17468,7 @@
         <v>4822429.667386514</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16955,7 +17501,7 @@
         <v>4821222.899386514</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16988,7 +17534,7 @@
         <v>4821242.899386514</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17021,7 +17567,7 @@
         <v>4817986.097286514</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17054,7 +17600,7 @@
         <v>4817986.097286514</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17087,7 +17633,7 @@
         <v>4819844.380786514</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17120,7 +17666,7 @@
         <v>4651327.185286514</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17153,7 +17699,7 @@
         <v>4728940.211391333</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17186,7 +17732,7 @@
         <v>4832991.973933952</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17219,7 +17765,7 @@
         <v>4750736.806406873</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17252,7 +17798,7 @@
         <v>4636718.305106874</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17483,7 +18029,7 @@
         <v>4626973.147116582</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17516,7 +18062,7 @@
         <v>4611829.279216582</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17648,7 +18194,7 @@
         <v>4444081.726116582</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -32366,7 +32912,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32399,7 +32945,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32432,7 +32978,7 @@
         <v>5356329.074689691</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32465,7 +33011,7 @@
         <v>5309142.478189691</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32498,7 +33044,7 @@
         <v>5596773.047301719</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32531,7 +33077,7 @@
         <v>5595319.010801719</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32564,7 +33110,7 @@
         <v>5405777.545301719</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32597,7 +33143,7 @@
         <v>5029344.823101719</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32630,7 +33176,7 @@
         <v>4773835.421601719</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
